--- a/src/attributions/attributions_saliency_traj_479.xlsx
+++ b/src/attributions/attributions_saliency_traj_479.xlsx
@@ -2142,2278 +2142,2278 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.395688619178827e-09</v>
+        <v>2.361487713642418e-05</v>
       </c>
       <c r="B4" t="n">
-        <v>2.370555307606992e-09</v>
+        <v>0.0001317484129685909</v>
       </c>
       <c r="C4" t="n">
-        <v>2.010937905083665e-08</v>
+        <v>1.587531733093783e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>2.147182520673141e-08</v>
+        <v>1.491115108365193e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>1.088783108116331e-08</v>
+        <v>2.002752808039077e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>4.645578499662406e-08</v>
+        <v>0.0001535068440716714</v>
       </c>
       <c r="G4" t="n">
-        <v>3.152519312266122e-08</v>
+        <v>3.818786353804171e-08</v>
       </c>
       <c r="H4" t="n">
-        <v>2.169378632288499e-08</v>
+        <v>1.1712383638951e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>8.421052299922849e-09</v>
+        <v>5.632824013446225e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>2.045323910238039e-08</v>
+        <v>5.252196569927037e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>4.631556649314916e-08</v>
+        <v>9.923391189659014e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>3.784239765991515e-08</v>
+        <v>8.624000656709541e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>1.057680876215272e-08</v>
+        <v>4.073935997439548e-06</v>
       </c>
       <c r="N4" t="n">
-        <v>5.712030315407901e-08</v>
+        <v>1.017168506223243e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>6.966622834170266e-09</v>
+        <v>0.0001023940712912008</v>
       </c>
       <c r="P4" t="n">
-        <v>1.21972494326883e-08</v>
+        <v>1.558740768814459e-05</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.102086155668758e-08</v>
+        <v>3.411517536733299e-05</v>
       </c>
       <c r="R4" t="n">
-        <v>1.092673773683828e-08</v>
+        <v>3.316661604912952e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>1.931561044443697e-08</v>
+        <v>7.632254892087076e-06</v>
       </c>
       <c r="T4" t="n">
-        <v>9.596973882253224e-09</v>
+        <v>1.552373214508407e-05</v>
       </c>
       <c r="U4" t="n">
-        <v>5.615781617507309e-09</v>
+        <v>5.710083314625081e-06</v>
       </c>
       <c r="V4" t="n">
-        <v>9.385475507883712e-09</v>
+        <v>1.421304295945447e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>2.717429836707197e-08</v>
+        <v>4.004249058198184e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>2.15000977021873e-08</v>
+        <v>1.545768827782013e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.373501003688943e-09</v>
+        <v>1.055829488905147e-05</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.929196049223265e-09</v>
+        <v>1.244640498043736e-05</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.140225913687232e-09</v>
+        <v>2.766608758975053e-06</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.589330053292542e-09</v>
+        <v>1.205689932248788e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>4.68561722755112e-09</v>
+        <v>5.695844265574124e-06</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.449825326460541e-08</v>
+        <v>1.173133568954654e-05</v>
       </c>
       <c r="AE4" t="n">
-        <v>6.077510938951036e-09</v>
+        <v>3.117888627457432e-05</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.664754378793987e-08</v>
+        <v>3.50225018337369e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.253590380973947e-08</v>
+        <v>1.599981442268472e-05</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.283315449692964e-09</v>
+        <v>5.809511549159652e-06</v>
       </c>
       <c r="AI4" t="n">
-        <v>5.248925738499111e-10</v>
+        <v>3.832570655504242e-06</v>
       </c>
       <c r="AJ4" t="n">
-        <v>4.936481889927791e-09</v>
+        <v>2.214623464169563e-06</v>
       </c>
       <c r="AK4" t="n">
-        <v>7.35366434412299e-09</v>
+        <v>1.91111644198827e-06</v>
       </c>
       <c r="AL4" t="n">
-        <v>6.085949522116607e-10</v>
+        <v>7.108092177077197e-06</v>
       </c>
       <c r="AM4" t="n">
-        <v>2.19564828540797e-08</v>
+        <v>1.909860111481976e-05</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.66617021793536e-08</v>
+        <v>1.686812902335078e-05</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.159627327496082e-08</v>
+        <v>2.684509126993362e-06</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.612398602470535e-09</v>
+        <v>2.866846625693142e-05</v>
       </c>
       <c r="AQ4" t="n">
-        <v>8.050902167155982e-09</v>
+        <v>2.131192559318151e-05</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.306567742886955e-08</v>
+        <v>1.820840589061845e-05</v>
       </c>
       <c r="AS4" t="n">
-        <v>7.424463710492546e-09</v>
+        <v>3.884829129674472e-05</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.736306565192081e-08</v>
+        <v>3.525765350786969e-06</v>
       </c>
       <c r="AU4" t="n">
-        <v>3.902516709786141e-08</v>
+        <v>4.920892024529167e-05</v>
       </c>
       <c r="AV4" t="n">
-        <v>1.077306510666176e-08</v>
+        <v>3.889225990860723e-05</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.097684325188311e-08</v>
+        <v>1.304924171563471e-05</v>
       </c>
       <c r="AX4" t="n">
-        <v>3.320518260352401e-08</v>
+        <v>1.799224264686927e-05</v>
       </c>
       <c r="AY4" t="n">
-        <v>2.96859710147146e-08</v>
+        <v>4.827510201721452e-05</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2.667636334052759e-09</v>
+        <v>3.725317947100848e-05</v>
       </c>
       <c r="BA4" t="n">
-        <v>2.267826815227636e-08</v>
+        <v>2.139902062481269e-05</v>
       </c>
       <c r="BB4" t="n">
-        <v>5.13548847891343e-09</v>
+        <v>6.563628994626924e-05</v>
       </c>
       <c r="BC4" t="n">
-        <v>2.122694731099273e-08</v>
+        <v>4.759688090416603e-05</v>
       </c>
       <c r="BD4" t="n">
-        <v>2.446406455192118e-08</v>
+        <v>2.829715594998561e-05</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.829918971907318e-08</v>
+        <v>1.25464030134026e-05</v>
       </c>
       <c r="BF4" t="n">
-        <v>9.383234633730808e-09</v>
+        <v>5.448742740554735e-06</v>
       </c>
       <c r="BG4" t="n">
-        <v>4.173951406727383e-09</v>
+        <v>2.896852129197214e-05</v>
       </c>
       <c r="BH4" t="n">
-        <v>6.099011073956717e-09</v>
+        <v>6.505102646769956e-05</v>
       </c>
       <c r="BI4" t="n">
-        <v>7.94662113889899e-09</v>
+        <v>3.639866918092594e-05</v>
       </c>
       <c r="BJ4" t="n">
-        <v>9.864783656610143e-09</v>
+        <v>1.608978527656291e-05</v>
       </c>
       <c r="BK4" t="n">
-        <v>5.021372651015099e-09</v>
+        <v>4.38316237705294e-05</v>
       </c>
       <c r="BL4" t="n">
-        <v>2.002749255325398e-08</v>
+        <v>2.142085122613935e-06</v>
       </c>
       <c r="BM4" t="n">
-        <v>5.210804010502557e-11</v>
+        <v>8.370428986381739e-06</v>
       </c>
       <c r="BN4" t="n">
-        <v>8.954046393228055e-09</v>
+        <v>3.613581611716654e-07</v>
       </c>
       <c r="BO4" t="n">
-        <v>8.431817022369614e-09</v>
+        <v>1.223286926688161e-05</v>
       </c>
       <c r="BP4" t="n">
-        <v>3.483260258008158e-08</v>
+        <v>3.073424886679277e-05</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1.874040700400315e-09</v>
+        <v>7.572725735371932e-08</v>
       </c>
       <c r="BR4" t="n">
-        <v>3.052950781068375e-09</v>
+        <v>1.584639721841086e-05</v>
       </c>
       <c r="BS4" t="n">
-        <v>3.955581640013861e-09</v>
+        <v>8.211901331378613e-06</v>
       </c>
       <c r="BT4" t="n">
-        <v>1.065314592096911e-08</v>
+        <v>1.376660839014221e-05</v>
       </c>
       <c r="BU4" t="n">
-        <v>8.51333936680021e-09</v>
+        <v>1.198717927763937e-05</v>
       </c>
       <c r="BV4" t="n">
-        <v>9.667019407189059e-10</v>
+        <v>3.221062797820196e-05</v>
       </c>
       <c r="BW4" t="n">
-        <v>9.25142806806889e-09</v>
+        <v>2.064230284304358e-05</v>
       </c>
       <c r="BX4" t="n">
-        <v>1.799974924665548e-08</v>
+        <v>1.169800816569477e-05</v>
       </c>
       <c r="BY4" t="n">
-        <v>2.25602061476593e-08</v>
+        <v>3.278553776908666e-05</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1.966719054280475e-08</v>
+        <v>6.584322363778483e-06</v>
       </c>
       <c r="CA4" t="n">
-        <v>5.378629097663179e-09</v>
+        <v>2.572098765085684e-06</v>
       </c>
       <c r="CB4" t="n">
-        <v>4.729886260435023e-09</v>
+        <v>5.735598733735969e-06</v>
       </c>
       <c r="CC4" t="n">
-        <v>1.136518879008008e-08</v>
+        <v>2.18467612285167e-05</v>
       </c>
       <c r="CD4" t="n">
-        <v>3.96749255671125e-09</v>
+        <v>3.879120413330384e-06</v>
       </c>
       <c r="CE4" t="n">
-        <v>1.481807032632787e-08</v>
+        <v>1.565406455483753e-05</v>
       </c>
       <c r="CF4" t="n">
-        <v>1.095503465720071e-09</v>
+        <v>1.207013337989338e-05</v>
       </c>
       <c r="CG4" t="n">
-        <v>5.98858518330303e-09</v>
+        <v>3.34327978634974e-06</v>
       </c>
       <c r="CH4" t="n">
-        <v>3.889055300021482e-09</v>
+        <v>1.105476258089766e-05</v>
       </c>
       <c r="CI4" t="n">
-        <v>8.219550373667062e-09</v>
+        <v>2.757494985416997e-05</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3.643753299087393e-09</v>
+        <v>7.653528882656246e-06</v>
       </c>
       <c r="CK4" t="n">
-        <v>9.411239787482373e-09</v>
+        <v>3.430386641412042e-08</v>
       </c>
       <c r="CL4" t="n">
-        <v>9.044135440561263e-10</v>
+        <v>1.785837594070472e-05</v>
       </c>
       <c r="CM4" t="n">
-        <v>7.896214349045749e-09</v>
+        <v>1.628393874852918e-05</v>
       </c>
       <c r="CN4" t="n">
-        <v>2.5319263130541e-08</v>
+        <v>2.784836215141695e-05</v>
       </c>
       <c r="CO4" t="n">
-        <v>1.23539285468155e-08</v>
+        <v>2.618023609102238e-05</v>
       </c>
       <c r="CP4" t="n">
-        <v>1.739454980054234e-08</v>
+        <v>1.489596797910053e-05</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2.284832234522582e-08</v>
+        <v>8.609853466623463e-06</v>
       </c>
       <c r="CR4" t="n">
-        <v>1.268805149834407e-08</v>
+        <v>2.688411996132345e-06</v>
       </c>
       <c r="CS4" t="n">
-        <v>1.928425419350788e-08</v>
+        <v>1.33508237922797e-05</v>
       </c>
       <c r="CT4" t="n">
-        <v>2.411179700345656e-09</v>
+        <v>1.572016117279418e-06</v>
       </c>
       <c r="CU4" t="n">
-        <v>8.276428431486238e-09</v>
+        <v>3.550612746039405e-05</v>
       </c>
       <c r="CV4" t="n">
-        <v>3.617318888871068e-09</v>
+        <v>1.146138856711332e-06</v>
       </c>
       <c r="CW4" t="n">
-        <v>1.200243993082495e-08</v>
+        <v>2.13029434235068e-05</v>
       </c>
       <c r="CX4" t="n">
-        <v>5.567950100981989e-09</v>
+        <v>8.646603419038001e-06</v>
       </c>
       <c r="CY4" t="n">
-        <v>4.311468071449553e-09</v>
+        <v>5.128407337906538e-06</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1.861669485236916e-09</v>
+        <v>1.351117862213869e-05</v>
       </c>
       <c r="DA4" t="n">
-        <v>7.569116000638587e-09</v>
+        <v>2.750414205365814e-05</v>
       </c>
       <c r="DB4" t="n">
-        <v>2.283724098717244e-09</v>
+        <v>1.60812669491861e-06</v>
       </c>
       <c r="DC4" t="n">
-        <v>1.017111905809998e-08</v>
+        <v>2.994632723130053e-06</v>
       </c>
       <c r="DD4" t="n">
-        <v>9.058477856704883e-10</v>
+        <v>1.781556784408167e-05</v>
       </c>
       <c r="DE4" t="n">
-        <v>1.771809010620018e-08</v>
+        <v>1.157525184680708e-05</v>
       </c>
       <c r="DF4" t="n">
-        <v>2.530881992868217e-08</v>
+        <v>1.068924848368624e-05</v>
       </c>
       <c r="DG4" t="n">
-        <v>2.808207000271068e-10</v>
+        <v>1.279935349884909e-05</v>
       </c>
       <c r="DH4" t="n">
-        <v>3.511105006737125e-08</v>
+        <v>4.073083982802927e-05</v>
       </c>
       <c r="DI4" t="n">
-        <v>1.473118338424229e-08</v>
+        <v>1.615176734048873e-05</v>
       </c>
       <c r="DJ4" t="n">
-        <v>3.063184195184476e-08</v>
+        <v>7.540751539636403e-05</v>
       </c>
       <c r="DK4" t="n">
-        <v>6.122069073910552e-09</v>
+        <v>3.398620174266398e-05</v>
       </c>
       <c r="DL4" t="n">
-        <v>2.195893955558859e-08</v>
+        <v>9.312593647337053e-06</v>
       </c>
       <c r="DM4" t="n">
-        <v>1.144774763872647e-08</v>
+        <v>5.91432471992448e-05</v>
       </c>
       <c r="DN4" t="n">
-        <v>2.01139349620405e-09</v>
+        <v>1.401070039719343e-05</v>
       </c>
       <c r="DO4" t="n">
-        <v>2.528206977103764e-08</v>
+        <v>8.132425136864185e-06</v>
       </c>
       <c r="DP4" t="n">
-        <v>1.584181674729734e-10</v>
+        <v>3.936750545108225e-06</v>
       </c>
       <c r="DQ4" t="n">
-        <v>3.858535713163747e-09</v>
+        <v>1.333397995040286e-05</v>
       </c>
       <c r="DR4" t="n">
-        <v>9.889864038825635e-09</v>
+        <v>1.752242314978503e-05</v>
       </c>
       <c r="DS4" t="n">
-        <v>3.239200196958336e-08</v>
+        <v>6.064245553716319e-06</v>
       </c>
       <c r="DT4" t="n">
-        <v>3.245400170825974e-09</v>
+        <v>2.711920387810096e-05</v>
       </c>
       <c r="DU4" t="n">
-        <v>1.01918908868015e-08</v>
+        <v>7.626389560755342e-06</v>
       </c>
       <c r="DV4" t="n">
-        <v>1.558523976541437e-08</v>
+        <v>9.656458132667467e-06</v>
       </c>
       <c r="DW4" t="n">
-        <v>4.909437745226342e-09</v>
+        <v>1.07354962892714e-05</v>
       </c>
       <c r="DX4" t="n">
-        <v>1.471885280324159e-09</v>
+        <v>9.584018698660657e-06</v>
       </c>
       <c r="DY4" t="n">
-        <v>8.215148561419028e-09</v>
+        <v>3.893005668942351e-06</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1.355166112659845e-08</v>
+        <v>1.03694292192813e-05</v>
       </c>
       <c r="EA4" t="n">
-        <v>3.610787668861803e-09</v>
+        <v>6.169520929688588e-06</v>
       </c>
       <c r="EB4" t="n">
-        <v>6.47859010882712e-09</v>
+        <v>4.480422830965836e-06</v>
       </c>
       <c r="EC4" t="n">
-        <v>1.06139530497984e-09</v>
+        <v>8.752749636187218e-06</v>
       </c>
       <c r="ED4" t="n">
-        <v>3.107586854511624e-09</v>
+        <v>1.422838158759987e-05</v>
       </c>
       <c r="EE4" t="n">
-        <v>5.088168109068647e-09</v>
+        <v>1.567812978464644e-05</v>
       </c>
       <c r="EF4" t="n">
-        <v>6.099912575052713e-09</v>
+        <v>7.085669494699687e-06</v>
       </c>
       <c r="EG4" t="n">
-        <v>7.164678184068407e-09</v>
+        <v>1.586475445947144e-05</v>
       </c>
       <c r="EH4" t="n">
-        <v>1.935099191996414e-09</v>
+        <v>5.10123527419637e-06</v>
       </c>
       <c r="EI4" t="n">
-        <v>1.567390661705304e-08</v>
+        <v>2.911353294621222e-05</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1.519580550279898e-08</v>
+        <v>1.876280839496758e-05</v>
       </c>
       <c r="EK4" t="n">
-        <v>1.365240986928029e-08</v>
+        <v>5.83639666729141e-06</v>
       </c>
       <c r="EL4" t="n">
-        <v>1.288382556197121e-08</v>
+        <v>1.483298547100276e-05</v>
       </c>
       <c r="EM4" t="n">
-        <v>1.339602473393597e-08</v>
+        <v>1.672579628575477e-06</v>
       </c>
       <c r="EN4" t="n">
-        <v>9.824708158134854e-09</v>
+        <v>5.732156296289759e-06</v>
       </c>
       <c r="EO4" t="n">
-        <v>1.986857078861703e-08</v>
+        <v>1.028965107252588e-05</v>
       </c>
       <c r="EP4" t="n">
-        <v>2.204537441485854e-09</v>
+        <v>4.051398718729615e-06</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1.274587191346654e-08</v>
+        <v>1.627542360438383e-06</v>
       </c>
       <c r="ER4" t="n">
-        <v>1.715543440639067e-08</v>
+        <v>6.309239324764349e-06</v>
       </c>
       <c r="ES4" t="n">
-        <v>7.43224148891386e-09</v>
+        <v>4.037112375954166e-05</v>
       </c>
       <c r="ET4" t="n">
-        <v>1.954101058743163e-08</v>
+        <v>5.234024865785614e-05</v>
       </c>
       <c r="EU4" t="n">
-        <v>8.233419279690679e-09</v>
+        <v>2.159308496629819e-05</v>
       </c>
       <c r="EV4" t="n">
-        <v>3.323521680087538e-09</v>
+        <v>1.948236240423284e-05</v>
       </c>
       <c r="EW4" t="n">
-        <v>9.76960023990614e-09</v>
+        <v>3.360501796123572e-05</v>
       </c>
       <c r="EX4" t="n">
-        <v>4.516535145882017e-09</v>
+        <v>1.508484274381772e-06</v>
       </c>
       <c r="EY4" t="n">
-        <v>1.507850200255234e-08</v>
+        <v>2.115698225679807e-05</v>
       </c>
       <c r="EZ4" t="n">
-        <v>3.603508602623151e-09</v>
+        <v>2.622875399538316e-06</v>
       </c>
       <c r="FA4" t="n">
-        <v>6.081697367932293e-09</v>
+        <v>2.147476152458694e-06</v>
       </c>
       <c r="FB4" t="n">
-        <v>9.228214636891607e-09</v>
+        <v>1.67839607456699e-05</v>
       </c>
       <c r="FC4" t="n">
-        <v>2.678749666529257e-09</v>
+        <v>2.123187368852086e-05</v>
       </c>
       <c r="FD4" t="n">
-        <v>9.242772103235097e-10</v>
+        <v>1.256631549040321e-05</v>
       </c>
       <c r="FE4" t="n">
-        <v>7.769132004398216e-09</v>
+        <v>6.003120688546915e-06</v>
       </c>
       <c r="FF4" t="n">
-        <v>1.012350869800116e-09</v>
+        <v>2.494253203622065e-05</v>
       </c>
       <c r="FG4" t="n">
-        <v>7.928901979425973e-10</v>
+        <v>1.08604626802844e-05</v>
       </c>
       <c r="FH4" t="n">
-        <v>6.505983751736721e-09</v>
+        <v>1.301046722801402e-05</v>
       </c>
       <c r="FI4" t="n">
-        <v>2.594233983188587e-08</v>
+        <v>1.286244423681637e-05</v>
       </c>
       <c r="FJ4" t="n">
-        <v>4.064538927650574e-09</v>
+        <v>2.257064625155181e-05</v>
       </c>
       <c r="FK4" t="n">
-        <v>4.47606796072364e-09</v>
+        <v>8.715602234588005e-06</v>
       </c>
       <c r="FL4" t="n">
-        <v>1.324752751941105e-09</v>
+        <v>2.633531403262168e-05</v>
       </c>
       <c r="FM4" t="n">
-        <v>8.415799168659532e-10</v>
+        <v>8.020558198040817e-06</v>
       </c>
       <c r="FN4" t="n">
-        <v>5.775264266816293e-09</v>
+        <v>8.496015652781352e-06</v>
       </c>
       <c r="FO4" t="n">
-        <v>1.034885288575538e-09</v>
+        <v>1.531028829049319e-05</v>
       </c>
       <c r="FP4" t="n">
-        <v>2.065358550851215e-09</v>
+        <v>4.896092832495924e-06</v>
       </c>
       <c r="FQ4" t="n">
-        <v>5.969196692490186e-09</v>
+        <v>3.281826866441406e-05</v>
       </c>
       <c r="FR4" t="n">
-        <v>1.170076302514644e-08</v>
+        <v>1.75089189724531e-05</v>
       </c>
       <c r="FS4" t="n">
-        <v>1.21258620922049e-08</v>
+        <v>3.6559267755365e-06</v>
       </c>
       <c r="FT4" t="n">
-        <v>4.852502399899095e-09</v>
+        <v>2.114313974743709e-05</v>
       </c>
       <c r="FU4" t="n">
-        <v>8.670814288791462e-09</v>
+        <v>4.3736923544202e-05</v>
       </c>
       <c r="FV4" t="n">
-        <v>3.985615393276021e-09</v>
+        <v>8.735420124139637e-06</v>
       </c>
       <c r="FW4" t="n">
-        <v>1.286561079894e-08</v>
+        <v>1.912541119963862e-05</v>
       </c>
       <c r="FX4" t="n">
-        <v>9.173980686227878e-09</v>
+        <v>2.255897925351746e-05</v>
       </c>
       <c r="FY4" t="n">
-        <v>8.176418653249584e-09</v>
+        <v>2.200513699790463e-05</v>
       </c>
       <c r="FZ4" t="n">
-        <v>9.530713995786755e-09</v>
+        <v>1.849006912379991e-05</v>
       </c>
       <c r="GA4" t="n">
-        <v>8.093294034949849e-09</v>
+        <v>3.19428181683179e-06</v>
       </c>
       <c r="GB4" t="n">
-        <v>8.806228635194202e-09</v>
+        <v>1.539665390737355e-05</v>
       </c>
       <c r="GC4" t="n">
-        <v>8.2905788900689e-09</v>
+        <v>3.950471000280231e-05</v>
       </c>
       <c r="GD4" t="n">
-        <v>4.797759078911668e-09</v>
+        <v>3.199411651166884e-07</v>
       </c>
       <c r="GE4" t="n">
-        <v>1.690185991165549e-09</v>
+        <v>8.577392691222485e-06</v>
       </c>
       <c r="GF4" t="n">
-        <v>7.710859173393203e-10</v>
+        <v>5.862189937033691e-06</v>
       </c>
       <c r="GG4" t="n">
-        <v>1.008771910449013e-08</v>
+        <v>1.844491634983569e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.056694897196621e-09</v>
+        <v>0.0005602577002719045</v>
       </c>
       <c r="B5" t="n">
-        <v>4.701629308101474e-09</v>
+        <v>0.008447646163403988</v>
       </c>
       <c r="C5" t="n">
-        <v>5.329093832884269e-10</v>
+        <v>0.00121621263679117</v>
       </c>
       <c r="D5" t="n">
-        <v>7.079015595934379e-09</v>
+        <v>0.004630964249372482</v>
       </c>
       <c r="E5" t="n">
-        <v>5.605469866054591e-09</v>
+        <v>0.005709308199584484</v>
       </c>
       <c r="F5" t="n">
-        <v>4.406985332217062e-10</v>
+        <v>0.001734267803840339</v>
       </c>
       <c r="G5" t="n">
-        <v>2.262497411642528e-10</v>
+        <v>0.001157650258392096</v>
       </c>
       <c r="H5" t="n">
-        <v>3.104861256986169e-09</v>
+        <v>0.0006243273383006454</v>
       </c>
       <c r="I5" t="n">
-        <v>2.24329044229421e-09</v>
+        <v>0.0004330635129008442</v>
       </c>
       <c r="J5" t="n">
-        <v>9.903864395255368e-10</v>
+        <v>0.0001486706314608455</v>
       </c>
       <c r="K5" t="n">
-        <v>2.212069860618726e-09</v>
+        <v>0.006449965760111809</v>
       </c>
       <c r="L5" t="n">
-        <v>7.880128216619653e-10</v>
+        <v>0.0006759938551113009</v>
       </c>
       <c r="M5" t="n">
-        <v>8.616071411893245e-09</v>
+        <v>0.004774127155542374</v>
       </c>
       <c r="N5" t="n">
-        <v>6.42513109383458e-09</v>
+        <v>0.007952864281833172</v>
       </c>
       <c r="O5" t="n">
-        <v>1.120423753775412e-09</v>
+        <v>0.00241393712349236</v>
       </c>
       <c r="P5" t="n">
-        <v>7.423734960099182e-10</v>
+        <v>0.0001153579214587808</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.149945110829776e-09</v>
+        <v>0.0002852951874956489</v>
       </c>
       <c r="R5" t="n">
-        <v>3.211309884676439e-09</v>
+        <v>0.0007386321667581797</v>
       </c>
       <c r="S5" t="n">
-        <v>8.192009848251303e-10</v>
+        <v>0.0001722053857520223</v>
       </c>
       <c r="T5" t="n">
-        <v>4.726711799740713e-10</v>
+        <v>0.001913827378302813</v>
       </c>
       <c r="U5" t="n">
-        <v>1.463854593097835e-10</v>
+        <v>0.001262381440028548</v>
       </c>
       <c r="V5" t="n">
-        <v>1.612457056765493e-09</v>
+        <v>0.0001760199957061559</v>
       </c>
       <c r="W5" t="n">
-        <v>3.3920670716725e-09</v>
+        <v>0.0003075808053836226</v>
       </c>
       <c r="X5" t="n">
-        <v>9.995144711894e-10</v>
+        <v>0.001814448740333319</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.201218318731435e-09</v>
+        <v>0.001145595568232238</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.440880970093872e-09</v>
+        <v>0.001360836322419345</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.197903332084138e-09</v>
+        <v>0.0002596343110781163</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.664728934348886e-10</v>
+        <v>0.001782733132131398</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.796210069571202e-09</v>
+        <v>0.0008845990523695946</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.277778854420376e-09</v>
+        <v>0.001011850428767502</v>
       </c>
       <c r="AE5" t="n">
-        <v>3.647734780898304e-09</v>
+        <v>0.0009972176048904657</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.258445957499134e-09</v>
+        <v>0.001821293961256742</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.484124596781385e-10</v>
+        <v>0.0007001954363659024</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.876984678794713e-10</v>
+        <v>0.0001103395916288719</v>
       </c>
       <c r="AI5" t="n">
-        <v>3.24626381331683e-10</v>
+        <v>0.000382712110877037</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7.273995850098913e-10</v>
+        <v>0.001395541708916426</v>
       </c>
       <c r="AK5" t="n">
-        <v>9.374803155992595e-10</v>
+        <v>0.0002983552403748035</v>
       </c>
       <c r="AL5" t="n">
-        <v>4.224608718406131e-10</v>
+        <v>0.0004776033747475594</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.218096457034079e-10</v>
+        <v>0.0003817163524217904</v>
       </c>
       <c r="AN5" t="n">
-        <v>1.042923525318429e-10</v>
+        <v>0.0002747047110460699</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.033563896920782e-10</v>
+        <v>0.00261327950283885</v>
       </c>
       <c r="AP5" t="n">
-        <v>8.562686670821051e-10</v>
+        <v>0.001646007527597249</v>
       </c>
       <c r="AQ5" t="n">
-        <v>8.757433667128112e-11</v>
+        <v>0.0001578006485942751</v>
       </c>
       <c r="AR5" t="n">
-        <v>8.928306982625145e-10</v>
+        <v>0.0001050237624440342</v>
       </c>
       <c r="AS5" t="n">
-        <v>6.255015394529551e-10</v>
+        <v>6.092508556321263e-06</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.336803195390758e-09</v>
+        <v>0.0003196086909156293</v>
       </c>
       <c r="AU5" t="n">
-        <v>3.699690331870897e-09</v>
+        <v>0.005970338359475136</v>
       </c>
       <c r="AV5" t="n">
-        <v>1.393709148089783e-09</v>
+        <v>0.0004061980871483684</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.251702878654839e-10</v>
+        <v>0.0004461506032384932</v>
       </c>
       <c r="AX5" t="n">
-        <v>3.003379545063467e-09</v>
+        <v>0.001153525430709124</v>
       </c>
       <c r="AY5" t="n">
-        <v>2.237237950453164e-09</v>
+        <v>0.0006055533303879201</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1.218900091970454e-09</v>
+        <v>0.0004283848393242806</v>
       </c>
       <c r="BA5" t="n">
-        <v>3.258441960696246e-09</v>
+        <v>0.0004011341952718794</v>
       </c>
       <c r="BB5" t="n">
-        <v>1.863130538737323e-09</v>
+        <v>0.002642966574057937</v>
       </c>
       <c r="BC5" t="n">
-        <v>2.988014835558772e-10</v>
+        <v>0.001177239464595914</v>
       </c>
       <c r="BD5" t="n">
-        <v>6.037100264144613e-10</v>
+        <v>0.00324986083433032</v>
       </c>
       <c r="BE5" t="n">
-        <v>3.819837779417412e-10</v>
+        <v>0.002409169217571616</v>
       </c>
       <c r="BF5" t="n">
-        <v>5.792875512611317e-09</v>
+        <v>0.00193829508498311</v>
       </c>
       <c r="BG5" t="n">
-        <v>9.799732136883677e-10</v>
+        <v>0.005024265497922897</v>
       </c>
       <c r="BH5" t="n">
-        <v>1.029605178892723e-09</v>
+        <v>0.003639279399067163</v>
       </c>
       <c r="BI5" t="n">
-        <v>9.621239360768641e-10</v>
+        <v>0.001586395897902548</v>
       </c>
       <c r="BJ5" t="n">
-        <v>3.88929999317611e-11</v>
+        <v>0.0003528479719534516</v>
       </c>
       <c r="BK5" t="n">
-        <v>1.035196373067038e-10</v>
+        <v>0.001352567691355944</v>
       </c>
       <c r="BL5" t="n">
-        <v>9.612011186987957e-10</v>
+        <v>0.001419855398125947</v>
       </c>
       <c r="BM5" t="n">
-        <v>2.61120813860316e-09</v>
+        <v>0.002824776340276003</v>
       </c>
       <c r="BN5" t="n">
-        <v>2.256498182751088e-10</v>
+        <v>0.001265386934392154</v>
       </c>
       <c r="BO5" t="n">
-        <v>1.459828924410544e-09</v>
+        <v>0.000951319991145283</v>
       </c>
       <c r="BP5" t="n">
-        <v>1.896144130597577e-09</v>
+        <v>0.003148447256535292</v>
       </c>
       <c r="BQ5" t="n">
-        <v>5.671945135787837e-10</v>
+        <v>0.002153454115614295</v>
       </c>
       <c r="BR5" t="n">
-        <v>1.480922745544788e-10</v>
+        <v>0.0005793935270048678</v>
       </c>
       <c r="BS5" t="n">
-        <v>2.026492973428162e-09</v>
+        <v>0.001392736565321684</v>
       </c>
       <c r="BT5" t="n">
-        <v>6.073052616351049e-10</v>
+        <v>0.001024798955768347</v>
       </c>
       <c r="BU5" t="n">
-        <v>1.434258045662773e-09</v>
+        <v>0.0003252688911743462</v>
       </c>
       <c r="BV5" t="n">
-        <v>3.479459498301196e-10</v>
+        <v>0.002316663041710854</v>
       </c>
       <c r="BW5" t="n">
-        <v>9.468892336883528e-10</v>
+        <v>0.0007523961248807609</v>
       </c>
       <c r="BX5" t="n">
-        <v>1.892529688518607e-09</v>
+        <v>0.0001205249864142388</v>
       </c>
       <c r="BY5" t="n">
-        <v>1.713420738624905e-09</v>
+        <v>0.0008507100865244865</v>
       </c>
       <c r="BZ5" t="n">
-        <v>8.974120890847814e-10</v>
+        <v>0.001634697546251118</v>
       </c>
       <c r="CA5" t="n">
-        <v>5.418447635019419e-11</v>
+        <v>0.000190212536836043</v>
       </c>
       <c r="CB5" t="n">
-        <v>1.462328480528186e-09</v>
+        <v>0.0006089364178478718</v>
       </c>
       <c r="CC5" t="n">
-        <v>8.730955403102314e-10</v>
+        <v>0.00100778613705188</v>
       </c>
       <c r="CD5" t="n">
-        <v>1.467005406041721e-10</v>
+        <v>0.0001153112534666434</v>
       </c>
       <c r="CE5" t="n">
-        <v>1.038825692134537e-09</v>
+        <v>0.001400836859829724</v>
       </c>
       <c r="CF5" t="n">
-        <v>3.888587507550056e-10</v>
+        <v>0.0001113094913307577</v>
       </c>
       <c r="CG5" t="n">
-        <v>1.020557527375843e-09</v>
+        <v>0.0004286525654606521</v>
       </c>
       <c r="CH5" t="n">
-        <v>1.643676972307162e-09</v>
+        <v>0.0003344187862239778</v>
       </c>
       <c r="CI5" t="n">
-        <v>3.797475667255412e-10</v>
+        <v>0.0002836736384779215</v>
       </c>
       <c r="CJ5" t="n">
-        <v>5.451498141795241e-10</v>
+        <v>0.0003700804663822055</v>
       </c>
       <c r="CK5" t="n">
-        <v>8.854242894429376e-10</v>
+        <v>2.719901385717094e-05</v>
       </c>
       <c r="CL5" t="n">
-        <v>9.315546112276252e-10</v>
+        <v>0.0009774956852197647</v>
       </c>
       <c r="CM5" t="n">
-        <v>5.375039857646868e-10</v>
+        <v>0.00194672285579145</v>
       </c>
       <c r="CN5" t="n">
-        <v>2.389364539556738e-10</v>
+        <v>0.001894261222332716</v>
       </c>
       <c r="CO5" t="n">
-        <v>1.402098659397666e-09</v>
+        <v>0.0001677726686466485</v>
       </c>
       <c r="CP5" t="n">
-        <v>1.960100082243343e-09</v>
+        <v>0.001676571322605014</v>
       </c>
       <c r="CQ5" t="n">
-        <v>5.86077575359667e-10</v>
+        <v>0.002299906685948372</v>
       </c>
       <c r="CR5" t="n">
-        <v>2.37054531559977e-09</v>
+        <v>2.175639383494854e-05</v>
       </c>
       <c r="CS5" t="n">
-        <v>7.746663033270096e-11</v>
+        <v>1.2303760740906e-05</v>
       </c>
       <c r="CT5" t="n">
-        <v>3.009773819062644e-10</v>
+        <v>0.001675138249993324</v>
       </c>
       <c r="CU5" t="n">
-        <v>1.011708078424434e-10</v>
+        <v>0.0007711293874308467</v>
       </c>
       <c r="CV5" t="n">
-        <v>1.830799956081819e-10</v>
+        <v>1.161036198027432e-05</v>
       </c>
       <c r="CW5" t="n">
-        <v>1.652448844424725e-09</v>
+        <v>0.0009518440347164869</v>
       </c>
       <c r="CX5" t="n">
-        <v>1.09722633756526e-10</v>
+        <v>0.0005058130482211709</v>
       </c>
       <c r="CY5" t="n">
-        <v>9.560875424696746e-10</v>
+        <v>0.000493632978759706</v>
       </c>
       <c r="CZ5" t="n">
-        <v>1.123478310383064e-09</v>
+        <v>0.0002887834561988711</v>
       </c>
       <c r="DA5" t="n">
-        <v>1.016154937971692e-10</v>
+        <v>7.986105629242957e-05</v>
       </c>
       <c r="DB5" t="n">
-        <v>2.862654002733223e-10</v>
+        <v>0.0002115634706569836</v>
       </c>
       <c r="DC5" t="n">
-        <v>3.394637071441053e-10</v>
+        <v>0.0004073953605256975</v>
       </c>
       <c r="DD5" t="n">
-        <v>6.837139743254284e-10</v>
+        <v>0.0005403203540481627</v>
       </c>
       <c r="DE5" t="n">
-        <v>1.432745699858629e-09</v>
+        <v>0.001278392970561981</v>
       </c>
       <c r="DF5" t="n">
-        <v>3.909596646423097e-09</v>
+        <v>0.002158621791750193</v>
       </c>
       <c r="DG5" t="n">
-        <v>5.426764593252642e-11</v>
+        <v>0.002092669950798154</v>
       </c>
       <c r="DH5" t="n">
-        <v>6.216487324905984e-10</v>
+        <v>0.003267103806138039</v>
       </c>
       <c r="DI5" t="n">
-        <v>1.270814564691136e-09</v>
+        <v>0.001940736197866499</v>
       </c>
       <c r="DJ5" t="n">
-        <v>1.131565618983643e-09</v>
+        <v>0.001051739673130214</v>
       </c>
       <c r="DK5" t="n">
-        <v>3.140795956646514e-10</v>
+        <v>5.64674410270527e-05</v>
       </c>
       <c r="DL5" t="n">
-        <v>3.171214402186706e-09</v>
+        <v>0.001335994224064052</v>
       </c>
       <c r="DM5" t="n">
-        <v>3.921891145175493e-10</v>
+        <v>0.0001807602384360507</v>
       </c>
       <c r="DN5" t="n">
-        <v>4.126622377143008e-10</v>
+        <v>0.000507415272295475</v>
       </c>
       <c r="DO5" t="n">
-        <v>1.940016203239026e-10</v>
+        <v>0.0008548526093363762</v>
       </c>
       <c r="DP5" t="n">
-        <v>2.547542454767182e-10</v>
+        <v>0.0006706435233354568</v>
       </c>
       <c r="DQ5" t="n">
-        <v>1.132147708915454e-09</v>
+        <v>0.0001699816784821451</v>
       </c>
       <c r="DR5" t="n">
-        <v>8.542105911502063e-10</v>
+        <v>0.0006784299039281905</v>
       </c>
       <c r="DS5" t="n">
-        <v>1.86786475175893e-09</v>
+        <v>1.896674802992493e-05</v>
       </c>
       <c r="DT5" t="n">
-        <v>9.113323429232878e-10</v>
+        <v>0.0009404205484315753</v>
       </c>
       <c r="DU5" t="n">
-        <v>1.153842466017352e-09</v>
+        <v>0.0004299407009966671</v>
       </c>
       <c r="DV5" t="n">
-        <v>4.209061432725036e-10</v>
+        <v>0.00178128236439079</v>
       </c>
       <c r="DW5" t="n">
-        <v>2.048439889934528e-10</v>
+        <v>0.0004029679985251278</v>
       </c>
       <c r="DX5" t="n">
-        <v>1.578765118637193e-09</v>
+        <v>0.0009916054550558329</v>
       </c>
       <c r="DY5" t="n">
-        <v>5.315076156975351e-10</v>
+        <v>0.0005336628528311849</v>
       </c>
       <c r="DZ5" t="n">
-        <v>1.578776664956649e-09</v>
+        <v>0.0005261246114969254</v>
       </c>
       <c r="EA5" t="n">
-        <v>1.161813534267253e-09</v>
+        <v>0.0009782196721062064</v>
       </c>
       <c r="EB5" t="n">
-        <v>8.505552928639304e-10</v>
+        <v>0.002360476879402995</v>
       </c>
       <c r="EC5" t="n">
-        <v>2.137948706959492e-10</v>
+        <v>0.0005942550487816334</v>
       </c>
       <c r="ED5" t="n">
-        <v>7.795509793240285e-10</v>
+        <v>0.0006103613413870335</v>
       </c>
       <c r="EE5" t="n">
-        <v>2.612510763277953e-10</v>
+        <v>0.0004577683284878731</v>
       </c>
       <c r="EF5" t="n">
-        <v>3.098451495375798e-10</v>
+        <v>0.0003585987724363804</v>
       </c>
       <c r="EG5" t="n">
-        <v>2.103442697798386e-10</v>
+        <v>0.001071283943019807</v>
       </c>
       <c r="EH5" t="n">
-        <v>3.037890217161276e-10</v>
+        <v>5.128221891936846e-05</v>
       </c>
       <c r="EI5" t="n">
-        <v>1.67365021841448e-09</v>
+        <v>0.00113460945431143</v>
       </c>
       <c r="EJ5" t="n">
-        <v>5.25100685155877e-10</v>
+        <v>0.001812210772186518</v>
       </c>
       <c r="EK5" t="n">
-        <v>3.352998434458243e-10</v>
+        <v>0.0001393446000292897</v>
       </c>
       <c r="EL5" t="n">
-        <v>4.596844294102453e-10</v>
+        <v>0.001172207877971232</v>
       </c>
       <c r="EM5" t="n">
-        <v>9.726350835848052e-10</v>
+        <v>0.000302000786177814</v>
       </c>
       <c r="EN5" t="n">
-        <v>5.976173444999233e-10</v>
+        <v>0.0006547911325469613</v>
       </c>
       <c r="EO5" t="n">
-        <v>1.768354351838752e-10</v>
+        <v>0.0007923060329630971</v>
       </c>
       <c r="EP5" t="n">
-        <v>1.286808881673096e-09</v>
+        <v>0.001129842945374548</v>
       </c>
       <c r="EQ5" t="n">
-        <v>1.528121518212799e-09</v>
+        <v>0.0001781095488695428</v>
       </c>
       <c r="ER5" t="n">
-        <v>9.441478709959483e-10</v>
+        <v>1.210220216307789e-05</v>
       </c>
       <c r="ES5" t="n">
-        <v>1.516853975758181e-09</v>
+        <v>0.0005851799505762756</v>
       </c>
       <c r="ET5" t="n">
-        <v>6.025686061228441e-10</v>
+        <v>0.0007612792542204261</v>
       </c>
       <c r="EU5" t="n">
-        <v>2.663511911027427e-10</v>
+        <v>0.0001712525845505297</v>
       </c>
       <c r="EV5" t="n">
-        <v>6.951189623904952e-10</v>
+        <v>0.0009955131681635976</v>
       </c>
       <c r="EW5" t="n">
-        <v>1.128799831384697e-11</v>
+        <v>0.000748062040656805</v>
       </c>
       <c r="EX5" t="n">
-        <v>2.417286371070304e-10</v>
+        <v>0.0004535792395472527</v>
       </c>
       <c r="EY5" t="n">
-        <v>1.375297098427097e-09</v>
+        <v>0.001196385943330824</v>
       </c>
       <c r="EZ5" t="n">
-        <v>8.690999309113323e-12</v>
+        <v>2.74875528702978e-05</v>
       </c>
       <c r="FA5" t="n">
-        <v>7.315053007772576e-10</v>
+        <v>0.0005178343853913248</v>
       </c>
       <c r="FB5" t="n">
-        <v>1.874406629909231e-09</v>
+        <v>0.0008365549147129059</v>
       </c>
       <c r="FC5" t="n">
-        <v>1.342535249637677e-10</v>
+        <v>0.0006024697795510292</v>
       </c>
       <c r="FD5" t="n">
-        <v>2.270635207635152e-10</v>
+        <v>6.630129792029038e-05</v>
       </c>
       <c r="FE5" t="n">
-        <v>6.806433194839201e-10</v>
+        <v>2.727580431383103e-05</v>
       </c>
       <c r="FF5" t="n">
-        <v>6.664092611075034e-10</v>
+        <v>0.000420785479946062</v>
       </c>
       <c r="FG5" t="n">
-        <v>3.010777738232662e-10</v>
+        <v>0.0004758373543154448</v>
       </c>
       <c r="FH5" t="n">
-        <v>3.594459174749431e-10</v>
+        <v>0.001333325635641813</v>
       </c>
       <c r="FI5" t="n">
-        <v>1.640371505295946e-09</v>
+        <v>0.0008952224161475897</v>
       </c>
       <c r="FJ5" t="n">
-        <v>3.281101779162299e-10</v>
+        <v>0.001126599148847163</v>
       </c>
       <c r="FK5" t="n">
-        <v>5.201459263304287e-10</v>
+        <v>0.001051665749400854</v>
       </c>
       <c r="FL5" t="n">
-        <v>2.337282811737396e-09</v>
+        <v>0.001507565146312118</v>
       </c>
       <c r="FM5" t="n">
-        <v>6.7916272605828e-10</v>
+        <v>0.0005083510186523199</v>
       </c>
       <c r="FN5" t="n">
-        <v>5.499434241329482e-10</v>
+        <v>0.0004057421465404332</v>
       </c>
       <c r="FO5" t="n">
-        <v>2.595494930091036e-09</v>
+        <v>0.0001196176744997501</v>
       </c>
       <c r="FP5" t="n">
-        <v>1.518805081701657e-09</v>
+        <v>0.000836376566439867</v>
       </c>
       <c r="FQ5" t="n">
-        <v>3.003809201373997e-09</v>
+        <v>7.037392788333818e-05</v>
       </c>
       <c r="FR5" t="n">
-        <v>4.887829585520365e-10</v>
+        <v>0.0009306714637205005</v>
       </c>
       <c r="FS5" t="n">
-        <v>2.200657878148604e-09</v>
+        <v>0.000797236105427146</v>
       </c>
       <c r="FT5" t="n">
-        <v>3.408679116745361e-09</v>
+        <v>0.001961828442290425</v>
       </c>
       <c r="FU5" t="n">
-        <v>1.241278635433218e-09</v>
+        <v>0.001245583989657462</v>
       </c>
       <c r="FV5" t="n">
-        <v>5.850772644144797e-10</v>
+        <v>1.232529757544398e-05</v>
       </c>
       <c r="FW5" t="n">
-        <v>1.385984327306744e-09</v>
+        <v>0.001873715780675411</v>
       </c>
       <c r="FX5" t="n">
-        <v>2.451803426950505e-09</v>
+        <v>0.0001155344798462465</v>
       </c>
       <c r="FY5" t="n">
-        <v>1.03604902434995e-10</v>
+        <v>0.001142532913945615</v>
       </c>
       <c r="FZ5" t="n">
-        <v>7.743815033656176e-10</v>
+        <v>0.0009323042468167841</v>
       </c>
       <c r="GA5" t="n">
-        <v>1.187735354513109e-09</v>
+        <v>0.001242954866029322</v>
       </c>
       <c r="GB5" t="n">
-        <v>2.443486302183828e-09</v>
+        <v>0.0005850096931681037</v>
       </c>
       <c r="GC5" t="n">
-        <v>2.619492844857518e-09</v>
+        <v>0.002129652770236135</v>
       </c>
       <c r="GD5" t="n">
-        <v>6.262327878481244e-10</v>
+        <v>0.001278301002457738</v>
       </c>
       <c r="GE5" t="n">
-        <v>4.188204505428672e-10</v>
+        <v>0.0005369535647332668</v>
       </c>
       <c r="GF5" t="n">
-        <v>1.256397874627169e-09</v>
+        <v>0.001586380880326033</v>
       </c>
       <c r="GG5" t="n">
-        <v>1.638997382258367e-09</v>
+        <v>0.001530102919787169</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8.053055631737117e-16</v>
+        <v>0.0001515386538812891</v>
       </c>
       <c r="B6" t="n">
-        <v>1.414772026744546e-14</v>
+        <v>0.0001051341605489142</v>
       </c>
       <c r="C6" t="n">
-        <v>1.132625352014138e-14</v>
+        <v>4.624521534424275e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>2.073912906913698e-14</v>
+        <v>0.0001193391071865335</v>
       </c>
       <c r="E6" t="n">
-        <v>3.48663460570612e-14</v>
+        <v>0.0004589187446981668</v>
       </c>
       <c r="F6" t="n">
-        <v>4.934727553342934e-15</v>
+        <v>0.0003445464826654643</v>
       </c>
       <c r="G6" t="n">
-        <v>1.799776114545706e-14</v>
+        <v>0.0001875088200904429</v>
       </c>
       <c r="H6" t="n">
-        <v>7.786829788283302e-15</v>
+        <v>0.0001087675409507938</v>
       </c>
       <c r="I6" t="n">
-        <v>8.618353562273376e-15</v>
+        <v>0.0003606410755310208</v>
       </c>
       <c r="J6" t="n">
-        <v>3.866198454996949e-15</v>
+        <v>0.0001991361787077039</v>
       </c>
       <c r="K6" t="n">
-        <v>2.681483880155166e-14</v>
+        <v>0.0001904642849694937</v>
       </c>
       <c r="L6" t="n">
-        <v>1.447503412705525e-14</v>
+        <v>2.177587521146052e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>8.76371796854937e-15</v>
+        <v>4.674814408645034e-05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.679283592274718e-15</v>
+        <v>0.0004979752702638507</v>
       </c>
       <c r="O6" t="n">
-        <v>1.75386472651886e-14</v>
+        <v>0.0002675219438970089</v>
       </c>
       <c r="P6" t="n">
-        <v>1.456282231577458e-14</v>
+        <v>6.437860429286957e-05</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.028351495352327e-14</v>
+        <v>1.060984868672676e-05</v>
       </c>
       <c r="R6" t="n">
-        <v>2.728835224192344e-14</v>
+        <v>0.0001022579526761547</v>
       </c>
       <c r="S6" t="n">
-        <v>1.580060765522329e-15</v>
+        <v>8.562183211324736e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.701422058018149e-15</v>
+        <v>0.0001051532090059482</v>
       </c>
       <c r="U6" t="n">
-        <v>1.357479565225212e-14</v>
+        <v>3.832984293694608e-05</v>
       </c>
       <c r="V6" t="n">
-        <v>2.846308529581149e-15</v>
+        <v>1.344782685919199e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>2.794375076112503e-14</v>
+        <v>0.0001728369097691029</v>
       </c>
       <c r="X6" t="n">
-        <v>7.482125779134565e-16</v>
+        <v>0.0001280470896745101</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.068048436168367e-15</v>
+        <v>8.944986620917916e-05</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.283823528307757e-14</v>
+        <v>2.605326881166548e-05</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.216013438095682e-15</v>
+        <v>0.0001614898792468011</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.115838458568929e-16</v>
+        <v>2.312162905582227e-08</v>
       </c>
       <c r="AC6" t="n">
-        <v>3.114981662977819e-15</v>
+        <v>0.000198082227143459</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.111716343711166e-15</v>
+        <v>0.0001281836157431826</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.266254709728987e-14</v>
+        <v>0.0001007372629828751</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.663527985067831e-14</v>
+        <v>0.0004115006886422634</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.049619832579855e-15</v>
+        <v>0.0003522614715620875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.591238974623949e-14</v>
+        <v>0.0002669235982466489</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.769145370293917e-14</v>
+        <v>0.000129541804199107</v>
       </c>
       <c r="AJ6" t="n">
-        <v>5.231332656966499e-15</v>
+        <v>0.0002160318254027516</v>
       </c>
       <c r="AK6" t="n">
-        <v>7.50501769156706e-15</v>
+        <v>6.104796193540096e-05</v>
       </c>
       <c r="AL6" t="n">
-        <v>4.550009000348293e-15</v>
+        <v>9.695249173091725e-05</v>
       </c>
       <c r="AM6" t="n">
-        <v>4.648230517395428e-15</v>
+        <v>2.400328958174214e-05</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.612166617651761e-14</v>
+        <v>0.000223975905100815</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.087868385191105e-14</v>
+        <v>0.0001430755364708602</v>
       </c>
       <c r="AP6" t="n">
-        <v>9.265060676403192e-15</v>
+        <v>4.500396607909352e-05</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3.400771002897893e-15</v>
+        <v>0.0001641325943637639</v>
       </c>
       <c r="AR6" t="n">
-        <v>3.632776503524398e-15</v>
+        <v>0.0001207818495458923</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.858632961215323e-15</v>
+        <v>5.186648922972381e-05</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.475221888278064e-14</v>
+        <v>6.244174437597394e-05</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.642076180503928e-14</v>
+        <v>7.740163709968328e-05</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.050844998583093e-14</v>
+        <v>8.811896987026557e-05</v>
       </c>
       <c r="AW6" t="n">
-        <v>2.905293193522507e-14</v>
+        <v>0.0001289664651267231</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.433875277565572e-14</v>
+        <v>0.0003246398409828544</v>
       </c>
       <c r="AY6" t="n">
-        <v>1.374259711426793e-14</v>
+        <v>0.0001833066780818626</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1.532350575977046e-15</v>
+        <v>0.0004789261729456484</v>
       </c>
       <c r="BA6" t="n">
-        <v>6.646246138213236e-15</v>
+        <v>0.0002136511175194755</v>
       </c>
       <c r="BB6" t="n">
-        <v>1.895057072013153e-15</v>
+        <v>0.0001386242947774008</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.252150425311077e-14</v>
+        <v>0.0001976634957827628</v>
       </c>
       <c r="BD6" t="n">
-        <v>1.121652463698932e-15</v>
+        <v>0.0001743557804729789</v>
       </c>
       <c r="BE6" t="n">
-        <v>2.947547601502877e-16</v>
+        <v>1.30117405205965e-06</v>
       </c>
       <c r="BF6" t="n">
-        <v>3.304165412955883e-15</v>
+        <v>1.358253939542919e-05</v>
       </c>
       <c r="BG6" t="n">
-        <v>3.622312046735782e-16</v>
+        <v>0.0004296578117646277</v>
       </c>
       <c r="BH6" t="n">
-        <v>1.830410077522694e-14</v>
+        <v>0.0003238966164644808</v>
       </c>
       <c r="BI6" t="n">
-        <v>5.327984621962371e-15</v>
+        <v>0.0001322191383223981</v>
       </c>
       <c r="BJ6" t="n">
-        <v>1.248897225870557e-14</v>
+        <v>0.0001313782122451812</v>
       </c>
       <c r="BK6" t="n">
-        <v>9.834935125953466e-15</v>
+        <v>0.0002182941971113905</v>
       </c>
       <c r="BL6" t="n">
-        <v>1.423392111642163e-14</v>
+        <v>4.015493323095143e-05</v>
       </c>
       <c r="BM6" t="n">
-        <v>7.15210310815945e-15</v>
+        <v>0.0001630381884751841</v>
       </c>
       <c r="BN6" t="n">
-        <v>8.981410518191409e-15</v>
+        <v>0.0001080247166100889</v>
       </c>
       <c r="BO6" t="n">
-        <v>1.311896487168722e-14</v>
+        <v>0.0002465974539518356</v>
       </c>
       <c r="BP6" t="n">
-        <v>4.065643797372762e-15</v>
+        <v>4.211960185784847e-05</v>
       </c>
       <c r="BQ6" t="n">
-        <v>7.627795858425399e-16</v>
+        <v>8.513679495081306e-05</v>
       </c>
       <c r="BR6" t="n">
-        <v>1.622321780359688e-15</v>
+        <v>0.0002298487816005945</v>
       </c>
       <c r="BS6" t="n">
-        <v>6.279598609631792e-15</v>
+        <v>2.537271757319104e-05</v>
       </c>
       <c r="BT6" t="n">
-        <v>2.419474651416077e-15</v>
+        <v>0.0001641568669583648</v>
       </c>
       <c r="BU6" t="n">
-        <v>7.929297341879686e-15</v>
+        <v>3.675833431771025e-05</v>
       </c>
       <c r="BV6" t="n">
-        <v>4.320341098897973e-15</v>
+        <v>2.883619526983239e-05</v>
       </c>
       <c r="BW6" t="n">
-        <v>7.720119167423448e-15</v>
+        <v>9.074883564608172e-05</v>
       </c>
       <c r="BX6" t="n">
-        <v>1.471852560620476e-14</v>
+        <v>8.242550393333659e-05</v>
       </c>
       <c r="BY6" t="n">
-        <v>2.090649261511906e-14</v>
+        <v>0.0001797229197109118</v>
       </c>
       <c r="BZ6" t="n">
-        <v>1.881674713776187e-14</v>
+        <v>7.932590960990638e-06</v>
       </c>
       <c r="CA6" t="n">
-        <v>8.695502593658718e-16</v>
+        <v>0.0001236188400071114</v>
       </c>
       <c r="CB6" t="n">
-        <v>4.795304659675455e-15</v>
+        <v>0.0001036219546222128</v>
       </c>
       <c r="CC6" t="n">
-        <v>2.743078930233372e-15</v>
+        <v>0.0001032749569276348</v>
       </c>
       <c r="CD6" t="n">
-        <v>2.483579798930177e-15</v>
+        <v>1.198390054923948e-05</v>
       </c>
       <c r="CE6" t="n">
-        <v>5.140304567223921e-15</v>
+        <v>3.071196988457814e-05</v>
       </c>
       <c r="CF6" t="n">
-        <v>1.355221798904306e-15</v>
+        <v>5.18744345754385e-05</v>
       </c>
       <c r="CG6" t="n">
-        <v>5.188501588955638e-15</v>
+        <v>8.186572813428938e-05</v>
       </c>
       <c r="CH6" t="n">
-        <v>7.075994233233336e-15</v>
+        <v>8.968590918811969e-06</v>
       </c>
       <c r="CI6" t="n">
-        <v>1.467008019206126e-15</v>
+        <v>9.55532868829323e-06</v>
       </c>
       <c r="CJ6" t="n">
-        <v>4.841386216621404e-15</v>
+        <v>6.195183959789574e-05</v>
       </c>
       <c r="CK6" t="n">
-        <v>6.840670375156844e-16</v>
+        <v>4.23059864260722e-05</v>
       </c>
       <c r="CL6" t="n">
-        <v>4.210199498942365e-16</v>
+        <v>8.836139750201255e-05</v>
       </c>
       <c r="CM6" t="n">
-        <v>7.291857615225779e-15</v>
+        <v>1.698595224297605e-05</v>
       </c>
       <c r="CN6" t="n">
-        <v>1.40894325422131e-14</v>
+        <v>0.0001043096272042021</v>
       </c>
       <c r="CO6" t="n">
-        <v>1.742048955717841e-14</v>
+        <v>5.487828093464486e-05</v>
       </c>
       <c r="CP6" t="n">
-        <v>2.345718410500961e-15</v>
+        <v>0.0002001262328121811</v>
       </c>
       <c r="CQ6" t="n">
-        <v>1.394878526242036e-14</v>
+        <v>0.000224350776989013</v>
       </c>
       <c r="CR6" t="n">
-        <v>7.051506934244688e-15</v>
+        <v>1.124878963310039e-05</v>
       </c>
       <c r="CS6" t="n">
-        <v>5.994531365299252e-15</v>
+        <v>0.0001166768051916733</v>
       </c>
       <c r="CT6" t="n">
-        <v>2.512160638746316e-14</v>
+        <v>8.488327875966206e-05</v>
       </c>
       <c r="CU6" t="n">
-        <v>6.185353065239069e-15</v>
+        <v>0.0004366500361356884</v>
       </c>
       <c r="CV6" t="n">
-        <v>2.055521534639849e-15</v>
+        <v>2.845177732524462e-06</v>
       </c>
       <c r="CW6" t="n">
-        <v>5.0419784416078e-15</v>
+        <v>4.382991392049007e-05</v>
       </c>
       <c r="CX6" t="n">
-        <v>3.228046585392638e-15</v>
+        <v>9.520437743049115e-06</v>
       </c>
       <c r="CY6" t="n">
-        <v>5.227516773539118e-15</v>
+        <v>7.325829938054085e-05</v>
       </c>
       <c r="CZ6" t="n">
-        <v>5.057379194654777e-15</v>
+        <v>2.876264261431061e-05</v>
       </c>
       <c r="DA6" t="n">
-        <v>1.980455992546515e-15</v>
+        <v>4.164447818766348e-05</v>
       </c>
       <c r="DB6" t="n">
-        <v>3.20354001640444e-15</v>
+        <v>1.591867476236075e-05</v>
       </c>
       <c r="DC6" t="n">
-        <v>3.178617765997377e-15</v>
+        <v>2.404634506092407e-05</v>
       </c>
       <c r="DD6" t="n">
-        <v>1.260540403120661e-16</v>
+        <v>7.444187940564007e-05</v>
       </c>
       <c r="DE6" t="n">
-        <v>7.231689476850517e-15</v>
+        <v>9.720143862068653e-05</v>
       </c>
       <c r="DF6" t="n">
-        <v>1.385629180567904e-14</v>
+        <v>0.0002234866551589221</v>
       </c>
       <c r="DG6" t="n">
-        <v>7.786426600600409e-15</v>
+        <v>4.619554965756834e-05</v>
       </c>
       <c r="DH6" t="n">
-        <v>1.159108514736402e-14</v>
+        <v>0.0002360477519687265</v>
       </c>
       <c r="DI6" t="n">
-        <v>6.944145931696679e-15</v>
+        <v>9.312963811680675e-06</v>
       </c>
       <c r="DJ6" t="n">
-        <v>5.716915893320181e-15</v>
+        <v>0.0004520314978435636</v>
       </c>
       <c r="DK6" t="n">
-        <v>8.938494746885822e-15</v>
+        <v>0.0001966790587175637</v>
       </c>
       <c r="DL6" t="n">
-        <v>1.306643866456209e-14</v>
+        <v>7.737401756457984e-05</v>
       </c>
       <c r="DM6" t="n">
-        <v>7.447768428728036e-15</v>
+        <v>0.0003545575891621411</v>
       </c>
       <c r="DN6" t="n">
-        <v>3.939160602524014e-15</v>
+        <v>6.147401290945709e-05</v>
       </c>
       <c r="DO6" t="n">
-        <v>1.424753293588401e-14</v>
+        <v>4.149811138631776e-05</v>
       </c>
       <c r="DP6" t="n">
-        <v>8.816407653033324e-15</v>
+        <v>1.846361919888295e-05</v>
       </c>
       <c r="DQ6" t="n">
-        <v>9.152864386275782e-15</v>
+        <v>2.650569513207301e-05</v>
       </c>
       <c r="DR6" t="n">
-        <v>1.267165270147285e-14</v>
+        <v>0.0003249809960834682</v>
       </c>
       <c r="DS6" t="n">
-        <v>1.841334939069791e-14</v>
+        <v>0.0001842463243519887</v>
       </c>
       <c r="DT6" t="n">
-        <v>1.008794556136422e-14</v>
+        <v>0.0002775818866211921</v>
       </c>
       <c r="DU6" t="n">
-        <v>9.50426786290549e-15</v>
+        <v>4.355489181762096e-06</v>
       </c>
       <c r="DV6" t="n">
-        <v>4.361106677066955e-15</v>
+        <v>0.0003378779219929129</v>
       </c>
       <c r="DW6" t="n">
-        <v>3.216702061371824e-15</v>
+        <v>8.621443703304976e-05</v>
       </c>
       <c r="DX6" t="n">
-        <v>2.897868483871702e-15</v>
+        <v>5.960842827335e-05</v>
       </c>
       <c r="DY6" t="n">
-        <v>3.423436122258761e-16</v>
+        <v>4.101781087229028e-05</v>
       </c>
       <c r="DZ6" t="n">
-        <v>1.700349015504744e-14</v>
+        <v>0.0001874688168754801</v>
       </c>
       <c r="EA6" t="n">
-        <v>3.485808875637489e-15</v>
+        <v>0.0001413464051438496</v>
       </c>
       <c r="EB6" t="n">
-        <v>1.921623625129073e-15</v>
+        <v>4.868777978117578e-05</v>
       </c>
       <c r="EC6" t="n">
-        <v>3.555829489496976e-15</v>
+        <v>7.243394065881148e-06</v>
       </c>
       <c r="ED6" t="n">
-        <v>8.666597170817192e-15</v>
+        <v>0.0001385241921525449</v>
       </c>
       <c r="EE6" t="n">
-        <v>3.664080723672549e-15</v>
+        <v>3.885957630700432e-05</v>
       </c>
       <c r="EF6" t="n">
-        <v>6.31778454895991e-15</v>
+        <v>4.497462941799313e-05</v>
       </c>
       <c r="EG6" t="n">
-        <v>1.017297581080729e-15</v>
+        <v>6.742717232555151e-05</v>
       </c>
       <c r="EH6" t="n">
-        <v>2.788223668739659e-15</v>
+        <v>3.085891512455419e-05</v>
       </c>
       <c r="EI6" t="n">
-        <v>3.201665108975692e-15</v>
+        <v>0.000391413748729974</v>
       </c>
       <c r="EJ6" t="n">
-        <v>7.09171685880027e-15</v>
+        <v>6.867761112516746e-05</v>
       </c>
       <c r="EK6" t="n">
-        <v>9.933812881776486e-16</v>
+        <v>0.0002955827221740037</v>
       </c>
       <c r="EL6" t="n">
-        <v>7.57461076554642e-15</v>
+        <v>0.0002187731151934713</v>
       </c>
       <c r="EM6" t="n">
-        <v>4.495911970622476e-15</v>
+        <v>6.660939834546298e-05</v>
       </c>
       <c r="EN6" t="n">
-        <v>5.520753227131452e-15</v>
+        <v>6.283822585828602e-05</v>
       </c>
       <c r="EO6" t="n">
-        <v>8.347057379597296e-15</v>
+        <v>8.220404561143368e-05</v>
       </c>
       <c r="EP6" t="n">
-        <v>3.906572280427826e-15</v>
+        <v>5.04605850437656e-05</v>
       </c>
       <c r="EQ6" t="n">
-        <v>6.797373333145874e-15</v>
+        <v>5.64747242606245e-05</v>
       </c>
       <c r="ER6" t="n">
-        <v>6.575028455041041e-15</v>
+        <v>2.15178843063768e-05</v>
       </c>
       <c r="ES6" t="n">
-        <v>1.224508839154325e-15</v>
+        <v>4.434485163073987e-05</v>
       </c>
       <c r="ET6" t="n">
-        <v>2.778394486661483e-15</v>
+        <v>0.0001616284425836056</v>
       </c>
       <c r="EU6" t="n">
-        <v>5.390266107541033e-15</v>
+        <v>0.0001688182528596371</v>
       </c>
       <c r="EV6" t="n">
-        <v>7.717808461543338e-15</v>
+        <v>1.783134393917862e-05</v>
       </c>
       <c r="EW6" t="n">
-        <v>1.79727601209859e-15</v>
+        <v>8.909760072128847e-05</v>
       </c>
       <c r="EX6" t="n">
-        <v>4.777432052730153e-16</v>
+        <v>1.010816777125001e-05</v>
       </c>
       <c r="EY6" t="n">
-        <v>4.089270510887e-15</v>
+        <v>3.150062548229471e-05</v>
       </c>
       <c r="EZ6" t="n">
-        <v>3.185168295294968e-15</v>
+        <v>5.115474050398916e-05</v>
       </c>
       <c r="FA6" t="n">
-        <v>5.029541456843265e-15</v>
+        <v>0.0001209284891956486</v>
       </c>
       <c r="FB6" t="n">
-        <v>6.406274504476041e-15</v>
+        <v>2.753543958533555e-05</v>
       </c>
       <c r="FC6" t="n">
-        <v>2.346335050486563e-15</v>
+        <v>6.060690793674439e-07</v>
       </c>
       <c r="FD6" t="n">
-        <v>3.213804149901031e-15</v>
+        <v>5.217918442212977e-05</v>
       </c>
       <c r="FE6" t="n">
-        <v>2.321333814257168e-15</v>
+        <v>2.686331208678894e-05</v>
       </c>
       <c r="FF6" t="n">
-        <v>2.047664245262881e-15</v>
+        <v>2.120699718943797e-05</v>
       </c>
       <c r="FG6" t="n">
-        <v>5.83651948657133e-15</v>
+        <v>1.695844730420504e-05</v>
       </c>
       <c r="FH6" t="n">
-        <v>2.331209794905679e-15</v>
+        <v>6.517345900647342e-05</v>
       </c>
       <c r="FI6" t="n">
-        <v>5.156059380042851e-15</v>
+        <v>7.753635145490989e-05</v>
       </c>
       <c r="FJ6" t="n">
-        <v>3.143203953747385e-15</v>
+        <v>0.0002460043760947883</v>
       </c>
       <c r="FK6" t="n">
-        <v>1.126862648060788e-14</v>
+        <v>0.0001329061342403293</v>
       </c>
       <c r="FL6" t="n">
-        <v>1.421053623081384e-14</v>
+        <v>0.0001261857978533953</v>
       </c>
       <c r="FM6" t="n">
-        <v>2.679751782481326e-16</v>
+        <v>9.128612146014348e-05</v>
       </c>
       <c r="FN6" t="n">
-        <v>2.176883144773024e-14</v>
+        <v>7.1990471042227e-05</v>
       </c>
       <c r="FO6" t="n">
-        <v>8.117824006048917e-15</v>
+        <v>0.000193394924281165</v>
       </c>
       <c r="FP6" t="n">
-        <v>7.171086810573313e-17</v>
+        <v>0.000146388410939835</v>
       </c>
       <c r="FQ6" t="n">
-        <v>1.14359027821964e-14</v>
+        <v>5.893969137105159e-05</v>
       </c>
       <c r="FR6" t="n">
-        <v>7.712135034862629e-15</v>
+        <v>0.0001667734904913232</v>
       </c>
       <c r="FS6" t="n">
-        <v>5.918560980260014e-15</v>
+        <v>3.447035123826936e-05</v>
       </c>
       <c r="FT6" t="n">
-        <v>2.910316098899725e-14</v>
+        <v>0.0002787572739180177</v>
       </c>
       <c r="FU6" t="n">
-        <v>1.356513100632395e-14</v>
+        <v>0.000435233669122681</v>
       </c>
       <c r="FV6" t="n">
-        <v>8.990882040607606e-15</v>
+        <v>0.0001224031148012727</v>
       </c>
       <c r="FW6" t="n">
-        <v>8.648941616064623e-15</v>
+        <v>0.0001604389399290085</v>
       </c>
       <c r="FX6" t="n">
-        <v>5.521244929757333e-15</v>
+        <v>5.523263098439202e-05</v>
       </c>
       <c r="FY6" t="n">
-        <v>3.382075079927859e-15</v>
+        <v>7.606621511513367e-05</v>
       </c>
       <c r="FZ6" t="n">
-        <v>1.689602030876571e-14</v>
+        <v>0.0001082213057088666</v>
       </c>
       <c r="GA6" t="n">
-        <v>1.300879129623785e-15</v>
+        <v>0.000105082850495819</v>
       </c>
       <c r="GB6" t="n">
-        <v>9.777663840257814e-15</v>
+        <v>0.0001119562948588282</v>
       </c>
       <c r="GC6" t="n">
-        <v>1.719372697873717e-15</v>
+        <v>0.0001695762621238828</v>
       </c>
       <c r="GD6" t="n">
-        <v>2.709017829600146e-15</v>
+        <v>9.092404798138887e-05</v>
       </c>
       <c r="GE6" t="n">
-        <v>4.778087444473091e-15</v>
+        <v>0.000329601374687627</v>
       </c>
       <c r="GF6" t="n">
-        <v>1.731035388645343e-15</v>
+        <v>0.0002047291491180658</v>
       </c>
       <c r="GG6" t="n">
-        <v>2.666821401025015e-15</v>
+        <v>0.0004507010744418949</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.371975599795405e-08</v>
+        <v>1.740280475281963e-09</v>
       </c>
       <c r="B7" t="n">
-        <v>2.398658125457587e-07</v>
+        <v>4.137858944375239e-10</v>
       </c>
       <c r="C7" t="n">
-        <v>3.277984603755613e-07</v>
+        <v>1.54514379069326e-09</v>
       </c>
       <c r="D7" t="n">
-        <v>1.564293597766664e-06</v>
+        <v>6.760794701854422e-10</v>
       </c>
       <c r="E7" t="n">
-        <v>1.317133353495592e-07</v>
+        <v>6.661348694869673e-10</v>
       </c>
       <c r="F7" t="n">
-        <v>5.80457424348424e-07</v>
+        <v>1.228560919663835e-09</v>
       </c>
       <c r="G7" t="n">
-        <v>2.545868937886553e-08</v>
+        <v>2.99387670210649e-09</v>
       </c>
       <c r="H7" t="n">
-        <v>1.468954735628358e-07</v>
+        <v>5.65115843009778e-10</v>
       </c>
       <c r="I7" t="n">
-        <v>8.890568636843454e-08</v>
+        <v>4.534874697981195e-10</v>
       </c>
       <c r="J7" t="n">
-        <v>2.945225787698291e-07</v>
+        <v>5.74848502132852e-10</v>
       </c>
       <c r="K7" t="n">
-        <v>1.58380863979346e-08</v>
+        <v>2.05075800785437e-09</v>
       </c>
       <c r="L7" t="n">
-        <v>3.633985556916741e-07</v>
+        <v>1.981810493489888e-09</v>
       </c>
       <c r="M7" t="n">
-        <v>1.275443764825468e-06</v>
+        <v>1.565844343076606e-09</v>
       </c>
       <c r="N7" t="n">
-        <v>8.944314231484896e-07</v>
+        <v>5.674344549788657e-09</v>
       </c>
       <c r="O7" t="n">
-        <v>3.503164123230817e-07</v>
+        <v>2.115223551868439e-10</v>
       </c>
       <c r="P7" t="n">
-        <v>2.561314147442317e-07</v>
+        <v>1.01316932621387e-09</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.745154171814647e-07</v>
+        <v>2.070673632559306e-09</v>
       </c>
       <c r="R7" t="n">
-        <v>1.686712494120002e-07</v>
+        <v>2.096386175765019e-09</v>
       </c>
       <c r="S7" t="n">
-        <v>9.923784460852403e-08</v>
+        <v>1.971577068271557e-10</v>
       </c>
       <c r="T7" t="n">
-        <v>1.726375842281413e-07</v>
+        <v>1.066435273422428e-10</v>
       </c>
       <c r="U7" t="n">
-        <v>2.515764379040775e-07</v>
+        <v>4.596239500109789e-10</v>
       </c>
       <c r="V7" t="n">
-        <v>6.138535013633373e-09</v>
+        <v>6.001067420768891e-10</v>
       </c>
       <c r="W7" t="n">
-        <v>1.195811137222336e-06</v>
+        <v>2.312719460384471e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>7.522977796270425e-09</v>
+        <v>2.426600476113094e-09</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.31934381595056e-08</v>
+        <v>1.162909990526373e-09</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.805169240285068e-08</v>
+        <v>8.331559331331562e-10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.05578949419305e-08</v>
+        <v>2.1090654223066e-10</v>
       </c>
       <c r="AB7" t="n">
-        <v>3.132991821530595e-07</v>
+        <v>8.218238589652316e-11</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.668548037514483e-07</v>
+        <v>3.750795229962023e-10</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.587932499409362e-07</v>
+        <v>1.836045426806265e-09</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.727810001739272e-07</v>
+        <v>2.654069852781049e-09</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.080378749269585e-07</v>
+        <v>9.833622804933384e-10</v>
       </c>
       <c r="AG7" t="n">
-        <v>3.088076994117728e-07</v>
+        <v>4.738495151812572e-10</v>
       </c>
       <c r="AH7" t="n">
-        <v>4.58525235558227e-08</v>
+        <v>7.808099167228022e-10</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.627614546530822e-07</v>
+        <v>1.145418870862613e-09</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7.681365588041444e-08</v>
+        <v>1.252342451962818e-09</v>
       </c>
       <c r="AK7" t="n">
-        <v>3.519028837217775e-07</v>
+        <v>5.994292839872628e-10</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.45058720590896e-07</v>
+        <v>1.433446972232133e-10</v>
       </c>
       <c r="AM7" t="n">
-        <v>9.762521813172498e-08</v>
+        <v>2.715230540406566e-10</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.099536449255538e-07</v>
+        <v>9.763927444339515e-10</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.006235805789402e-07</v>
+        <v>2.10207140582952e-09</v>
       </c>
       <c r="AP7" t="n">
-        <v>5.128268298904004e-07</v>
+        <v>8.906370640993089e-10</v>
       </c>
       <c r="AQ7" t="n">
-        <v>7.966428228201039e-08</v>
+        <v>5.635335531550822e-10</v>
       </c>
       <c r="AR7" t="n">
-        <v>5.656292145772568e-08</v>
+        <v>8.486441549493406e-10</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.239456537405204e-08</v>
+        <v>1.448362818567972e-10</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.036227186863471e-07</v>
+        <v>3.062873565884416e-10</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.197477541216358e-08</v>
+        <v>2.841409996179323e-09</v>
       </c>
       <c r="AV7" t="n">
-        <v>2.528488778352767e-07</v>
+        <v>4.932532160495384e-10</v>
       </c>
       <c r="AW7" t="n">
-        <v>9.691647164800088e-07</v>
+        <v>3.309915119764639e-10</v>
       </c>
       <c r="AX7" t="n">
-        <v>1.716984030508684e-07</v>
+        <v>4.404596964935337e-10</v>
       </c>
       <c r="AY7" t="n">
-        <v>1.254935000361002e-07</v>
+        <v>2.714721114571716e-09</v>
       </c>
       <c r="AZ7" t="n">
-        <v>5.748856324316876e-08</v>
+        <v>7.197565876637668e-10</v>
       </c>
       <c r="BA7" t="n">
-        <v>2.272083605703301e-07</v>
+        <v>6.194145196758427e-10</v>
       </c>
       <c r="BB7" t="n">
-        <v>1.466153065621256e-08</v>
+        <v>1.843344810126268e-09</v>
       </c>
       <c r="BC7" t="n">
-        <v>1.327835263964516e-07</v>
+        <v>1.123428239324653e-09</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.53844609940279e-07</v>
+        <v>1.852233921795232e-10</v>
       </c>
       <c r="BE7" t="n">
-        <v>8.816815721957028e-08</v>
+        <v>1.157270945739697e-09</v>
       </c>
       <c r="BF7" t="n">
-        <v>7.818587732799642e-07</v>
+        <v>1.120082915306853e-09</v>
       </c>
       <c r="BG7" t="n">
-        <v>1.6001619940198e-07</v>
+        <v>2.745501825884844e-09</v>
       </c>
       <c r="BH7" t="n">
-        <v>3.169323576912575e-07</v>
+        <v>1.277773997720999e-10</v>
       </c>
       <c r="BI7" t="n">
-        <v>2.489754535872635e-07</v>
+        <v>1.929032489300653e-10</v>
       </c>
       <c r="BJ7" t="n">
-        <v>2.156239986561559e-08</v>
+        <v>4.981365320233522e-11</v>
       </c>
       <c r="BK7" t="n">
-        <v>5.530104729700724e-08</v>
+        <v>2.089184159004276e-09</v>
       </c>
       <c r="BL7" t="n">
-        <v>3.870950422424357e-07</v>
+        <v>4.374364204196013e-10</v>
       </c>
       <c r="BM7" t="n">
-        <v>1.739239792186709e-07</v>
+        <v>2.441574054046214e-09</v>
       </c>
       <c r="BN7" t="n">
-        <v>5.565918570482609e-08</v>
+        <v>6.780842554121591e-11</v>
       </c>
       <c r="BO7" t="n">
-        <v>4.489925231609959e-08</v>
+        <v>4.010429766054813e-10</v>
       </c>
       <c r="BP7" t="n">
-        <v>6.173368660711276e-07</v>
+        <v>5.497000188370293e-09</v>
       </c>
       <c r="BQ7" t="n">
-        <v>9.756300300978182e-08</v>
+        <v>1.3676102472715e-09</v>
       </c>
       <c r="BR7" t="n">
-        <v>4.119979735150991e-08</v>
+        <v>1.706499497267089e-09</v>
       </c>
       <c r="BS7" t="n">
-        <v>5.518293022532816e-08</v>
+        <v>2.758919759315859e-09</v>
       </c>
       <c r="BT7" t="n">
-        <v>8.994975075893308e-08</v>
+        <v>1.355729417618079e-10</v>
       </c>
       <c r="BU7" t="n">
-        <v>3.993070265551069e-07</v>
+        <v>3.731598918754742e-10</v>
       </c>
       <c r="BV7" t="n">
-        <v>2.457788106369208e-08</v>
+        <v>1.347234657167462e-09</v>
       </c>
       <c r="BW7" t="n">
-        <v>1.103392435197748e-07</v>
+        <v>4.536198083826548e-10</v>
       </c>
       <c r="BX7" t="n">
-        <v>8.871876389093813e-07</v>
+        <v>8.865875811281398e-10</v>
       </c>
       <c r="BY7" t="n">
-        <v>1.552384532033102e-08</v>
+        <v>1.992879861134611e-09</v>
       </c>
       <c r="BZ7" t="n">
-        <v>5.608463879980263e-07</v>
+        <v>9.66688284975703e-10</v>
       </c>
       <c r="CA7" t="n">
-        <v>1.303200747315714e-07</v>
+        <v>1.10366826788777e-09</v>
       </c>
       <c r="CB7" t="n">
-        <v>9.076312323941238e-08</v>
+        <v>2.650683006422128e-10</v>
       </c>
       <c r="CC7" t="n">
-        <v>2.950090447484399e-07</v>
+        <v>1.227654755631136e-09</v>
       </c>
       <c r="CD7" t="n">
-        <v>2.529018274799455e-07</v>
+        <v>2.020621309162252e-10</v>
       </c>
       <c r="CE7" t="n">
-        <v>4.654514285107325e-08</v>
+        <v>5.643550071710024e-10</v>
       </c>
       <c r="CF7" t="n">
-        <v>2.608559590555615e-08</v>
+        <v>6.1836549769545e-11</v>
       </c>
       <c r="CG7" t="n">
-        <v>3.8387341305679e-07</v>
+        <v>3.887208610553472e-10</v>
       </c>
       <c r="CH7" t="n">
-        <v>1.109481004846202e-07</v>
+        <v>2.558706024835544e-11</v>
       </c>
       <c r="CI7" t="n">
-        <v>9.001917078421684e-08</v>
+        <v>5.474376507663692e-10</v>
       </c>
       <c r="CJ7" t="n">
-        <v>4.996620361907844e-08</v>
+        <v>6.831257781669819e-10</v>
       </c>
       <c r="CK7" t="n">
-        <v>7.923834921541584e-09</v>
+        <v>4.178702384116662e-10</v>
       </c>
       <c r="CL7" t="n">
-        <v>1.229021648896378e-07</v>
+        <v>4.442717027597354e-10</v>
       </c>
       <c r="CM7" t="n">
-        <v>3.037779805481478e-09</v>
+        <v>1.045655562137426e-09</v>
       </c>
       <c r="CN7" t="n">
-        <v>2.902921494296606e-07</v>
+        <v>2.249144204213849e-09</v>
       </c>
       <c r="CO7" t="n">
-        <v>3.337585496865358e-08</v>
+        <v>5.210092357543772e-10</v>
       </c>
       <c r="CP7" t="n">
-        <v>7.61978867558355e-07</v>
+        <v>6.213197178972507e-10</v>
       </c>
       <c r="CQ7" t="n">
-        <v>1.88632412800871e-07</v>
+        <v>3.73726738445157e-09</v>
       </c>
       <c r="CR7" t="n">
-        <v>7.34331422336254e-07</v>
+        <v>5.782029299794544e-10</v>
       </c>
       <c r="CS7" t="n">
-        <v>4.774065587298537e-08</v>
+        <v>1.103263036483781e-09</v>
       </c>
       <c r="CT7" t="n">
-        <v>8.18425149873292e-08</v>
+        <v>1.586887732329956e-09</v>
       </c>
       <c r="CU7" t="n">
-        <v>3.884942501031219e-08</v>
+        <v>9.16665854333587e-10</v>
       </c>
       <c r="CV7" t="n">
-        <v>2.390888482750597e-07</v>
+        <v>2.185349644301393e-11</v>
       </c>
       <c r="CW7" t="n">
-        <v>1.278793604342354e-07</v>
+        <v>5.399705127473453e-10</v>
       </c>
       <c r="CX7" t="n">
-        <v>9.364917730181332e-09</v>
+        <v>5.494051741328221e-11</v>
       </c>
       <c r="CY7" t="n">
-        <v>3.340779528571147e-07</v>
+        <v>2.616925010023863e-10</v>
       </c>
       <c r="CZ7" t="n">
-        <v>9.402909739719689e-08</v>
+        <v>4.339897885508037e-11</v>
       </c>
       <c r="DA7" t="n">
-        <v>7.567130921870557e-08</v>
+        <v>5.122073876151489e-10</v>
       </c>
       <c r="DB7" t="n">
-        <v>6.062489177338648e-09</v>
+        <v>7.813329983008543e-10</v>
       </c>
       <c r="DC7" t="n">
-        <v>1.129585847081671e-08</v>
+        <v>3.980465956843204e-10</v>
       </c>
       <c r="DD7" t="n">
-        <v>1.447291992917599e-07</v>
+        <v>8.675730966967166e-11</v>
       </c>
       <c r="DE7" t="n">
-        <v>4.841809300160094e-07</v>
+        <v>2.705698332050588e-09</v>
       </c>
       <c r="DF7" t="n">
-        <v>3.057166964026692e-07</v>
+        <v>2.649676256183398e-09</v>
       </c>
       <c r="DG7" t="n">
-        <v>2.713899220907479e-07</v>
+        <v>6.771583294096217e-12</v>
       </c>
       <c r="DH7" t="n">
-        <v>4.014873695723509e-07</v>
+        <v>3.395232095471101e-09</v>
       </c>
       <c r="DI7" t="n">
-        <v>7.18389060239133e-07</v>
+        <v>3.911678092549664e-09</v>
       </c>
       <c r="DJ7" t="n">
-        <v>2.792450572997041e-07</v>
+        <v>1.658145176719472e-09</v>
       </c>
       <c r="DK7" t="n">
-        <v>9.516418231214629e-08</v>
+        <v>2.896090922632766e-09</v>
       </c>
       <c r="DL7" t="n">
-        <v>3.890804975981155e-07</v>
+        <v>2.541586052728917e-09</v>
       </c>
       <c r="DM7" t="n">
-        <v>9.578840831636626e-08</v>
+        <v>7.176622074389627e-10</v>
       </c>
       <c r="DN7" t="n">
-        <v>4.446182799711096e-08</v>
+        <v>4.409106690861364e-10</v>
       </c>
       <c r="DO7" t="n">
-        <v>1.175808463926842e-07</v>
+        <v>2.964362921797914e-10</v>
       </c>
       <c r="DP7" t="n">
-        <v>1.545839438676921e-07</v>
+        <v>7.825480263790041e-10</v>
       </c>
       <c r="DQ7" t="n">
-        <v>1.040565322796283e-07</v>
+        <v>6.345431957655023e-10</v>
       </c>
       <c r="DR7" t="n">
-        <v>2.549132602780446e-07</v>
+        <v>1.096865931415891e-09</v>
       </c>
       <c r="DS7" t="n">
-        <v>1.98590157651779e-07</v>
+        <v>3.952631277837071e-11</v>
       </c>
       <c r="DT7" t="n">
-        <v>1.253480945706542e-07</v>
+        <v>1.884230327320324e-09</v>
       </c>
       <c r="DU7" t="n">
-        <v>2.477019620528154e-07</v>
+        <v>1.201561961039488e-09</v>
       </c>
       <c r="DV7" t="n">
-        <v>2.061736950054183e-07</v>
+        <v>2.210766847365875e-10</v>
       </c>
       <c r="DW7" t="n">
-        <v>2.641098006961329e-08</v>
+        <v>1.018410009101522e-10</v>
       </c>
       <c r="DX7" t="n">
-        <v>2.567409751463856e-07</v>
+        <v>6.219064707657651e-10</v>
       </c>
       <c r="DY7" t="n">
-        <v>3.130899273173782e-08</v>
+        <v>7.130753765238751e-10</v>
       </c>
       <c r="DZ7" t="n">
-        <v>3.612489081206149e-07</v>
+        <v>1.071222222037704e-09</v>
       </c>
       <c r="EA7" t="n">
-        <v>5.961862115100303e-08</v>
+        <v>3.269880477496656e-10</v>
       </c>
       <c r="EB7" t="n">
-        <v>1.984251838393902e-07</v>
+        <v>3.411661508856412e-10</v>
       </c>
       <c r="EC7" t="n">
-        <v>2.609227678362913e-08</v>
+        <v>7.606698604334383e-10</v>
       </c>
       <c r="ED7" t="n">
-        <v>1.183235553980921e-07</v>
+        <v>1.916515390831819e-09</v>
       </c>
       <c r="EE7" t="n">
-        <v>2.567658157204278e-07</v>
+        <v>6.465492585761012e-10</v>
       </c>
       <c r="EF7" t="n">
-        <v>2.667591445515427e-07</v>
+        <v>3.322640773628649e-10</v>
       </c>
       <c r="EG7" t="n">
-        <v>2.564466967669432e-07</v>
+        <v>1.465628285401976e-09</v>
       </c>
       <c r="EH7" t="n">
-        <v>4.878440762468017e-09</v>
+        <v>4.74101757852452e-10</v>
       </c>
       <c r="EI7" t="n">
-        <v>2.087754324975322e-07</v>
+        <v>1.748504896426084e-09</v>
       </c>
       <c r="EJ7" t="n">
-        <v>2.404185295290517e-07</v>
+        <v>3.018252314745951e-12</v>
       </c>
       <c r="EK7" t="n">
-        <v>2.466182706939435e-07</v>
+        <v>1.077685052308652e-09</v>
       </c>
       <c r="EL7" t="n">
-        <v>8.49823322823795e-09</v>
+        <v>1.67996033750839e-10</v>
       </c>
       <c r="EM7" t="n">
-        <v>2.946384114466127e-08</v>
+        <v>1.43629080850971e-10</v>
       </c>
       <c r="EN7" t="n">
-        <v>1.111166625378246e-07</v>
+        <v>3.472778731250514e-10</v>
       </c>
       <c r="EO7" t="n">
-        <v>5.128172233526129e-07</v>
+        <v>2.21271251321653e-10</v>
       </c>
       <c r="EP7" t="n">
-        <v>3.406931625704601e-08</v>
+        <v>6.961912712988294e-10</v>
       </c>
       <c r="EQ7" t="n">
-        <v>8.719469946072422e-08</v>
+        <v>4.1121418770107e-11</v>
       </c>
       <c r="ER7" t="n">
-        <v>1.534934597202664e-07</v>
+        <v>1.421807560575417e-09</v>
       </c>
       <c r="ES7" t="n">
-        <v>1.232461670497287e-07</v>
+        <v>1.989519105016768e-10</v>
       </c>
       <c r="ET7" t="n">
-        <v>6.751076142563761e-08</v>
+        <v>1.992158105146302e-10</v>
       </c>
       <c r="EU7" t="n">
-        <v>4.411856124875158e-08</v>
+        <v>1.906868274392792e-10</v>
       </c>
       <c r="EV7" t="n">
-        <v>1.089537846610256e-07</v>
+        <v>5.668495672850327e-10</v>
       </c>
       <c r="EW7" t="n">
-        <v>9.219928642778541e-08</v>
+        <v>8.534788431546758e-10</v>
       </c>
       <c r="EX7" t="n">
-        <v>2.082862806673802e-07</v>
+        <v>6.990843320897611e-11</v>
       </c>
       <c r="EY7" t="n">
-        <v>6.489413806320954e-08</v>
+        <v>2.883190353131226e-10</v>
       </c>
       <c r="EZ7" t="n">
-        <v>7.989076067360656e-09</v>
+        <v>1.579839176146791e-10</v>
       </c>
       <c r="FA7" t="n">
-        <v>2.566251282587473e-07</v>
+        <v>2.206543836535957e-10</v>
       </c>
       <c r="FB7" t="n">
-        <v>1.652659591400152e-07</v>
+        <v>7.570835625081429e-11</v>
       </c>
       <c r="FC7" t="n">
-        <v>1.113749519277007e-07</v>
+        <v>9.672299627894176e-10</v>
       </c>
       <c r="FD7" t="n">
-        <v>2.069750593136632e-08</v>
+        <v>8.282134977832811e-10</v>
       </c>
       <c r="FE7" t="n">
-        <v>4.154504651410207e-08</v>
+        <v>6.753815284810116e-10</v>
       </c>
       <c r="FF7" t="n">
-        <v>6.179067923994808e-08</v>
+        <v>1.255765352814464e-10</v>
       </c>
       <c r="FG7" t="n">
-        <v>1.49690837503158e-08</v>
+        <v>4.035088096987494e-10</v>
       </c>
       <c r="FH7" t="n">
-        <v>1.486786089799352e-07</v>
+        <v>5.793076574001077e-10</v>
       </c>
       <c r="FI7" t="n">
-        <v>1.781534137990093e-07</v>
+        <v>5.679012815562601e-12</v>
       </c>
       <c r="FJ7" t="n">
-        <v>2.51850451604696e-07</v>
+        <v>7.097268328593032e-10</v>
       </c>
       <c r="FK7" t="n">
-        <v>2.789394102364895e-07</v>
+        <v>5.423951288108242e-10</v>
       </c>
       <c r="FL7" t="n">
-        <v>1.10959739174632e-07</v>
+        <v>1.69301239694164e-11</v>
       </c>
       <c r="FM7" t="n">
-        <v>2.446027735913958e-08</v>
+        <v>3.14566317438647e-10</v>
       </c>
       <c r="FN7" t="n">
-        <v>2.86293477813615e-08</v>
+        <v>7.499069143435122e-10</v>
       </c>
       <c r="FO7" t="n">
-        <v>4.386540410905582e-07</v>
+        <v>9.738772011047558e-10</v>
       </c>
       <c r="FP7" t="n">
-        <v>8.252050065493677e-08</v>
+        <v>9.930944955272025e-10</v>
       </c>
       <c r="FQ7" t="n">
-        <v>6.468923174907104e-08</v>
+        <v>2.527959397369273e-09</v>
       </c>
       <c r="FR7" t="n">
-        <v>1.440655523765599e-07</v>
+        <v>8.798852757507802e-10</v>
       </c>
       <c r="FS7" t="n">
-        <v>1.53967960159207e-07</v>
+        <v>6.233278337930415e-10</v>
       </c>
       <c r="FT7" t="n">
-        <v>1.475663964356499e-07</v>
+        <v>4.535258835147715e-10</v>
       </c>
       <c r="FU7" t="n">
-        <v>2.636623435137153e-07</v>
+        <v>1.757120227097175e-09</v>
       </c>
       <c r="FV7" t="n">
-        <v>7.107657040705817e-08</v>
+        <v>4.57862803227016e-10</v>
       </c>
       <c r="FW7" t="n">
-        <v>1.793429191820906e-07</v>
+        <v>4.803988318258234e-10</v>
       </c>
       <c r="FX7" t="n">
-        <v>2.244896109004912e-07</v>
+        <v>7.19744153165891e-10</v>
       </c>
       <c r="FY7" t="n">
-        <v>2.431953589621116e-07</v>
+        <v>3.924061076077123e-11</v>
       </c>
       <c r="FZ7" t="n">
-        <v>5.727218166384773e-08</v>
+        <v>1.208389832640933e-09</v>
       </c>
       <c r="GA7" t="n">
-        <v>6.34062757853826e-08</v>
+        <v>1.752002209975956e-09</v>
       </c>
       <c r="GB7" t="n">
-        <v>5.591851959252381e-07</v>
+        <v>4.535459785515172e-10</v>
       </c>
       <c r="GC7" t="n">
-        <v>2.49808124408446e-07</v>
+        <v>2.807600818499623e-09</v>
       </c>
       <c r="GD7" t="n">
-        <v>2.25394074959695e-07</v>
+        <v>1.629172796668854e-09</v>
       </c>
       <c r="GE7" t="n">
-        <v>6.062725788069656e-08</v>
+        <v>1.024511142588835e-09</v>
       </c>
       <c r="GF7" t="n">
-        <v>1.814362775576228e-07</v>
+        <v>1.252596137923945e-09</v>
       </c>
       <c r="GG7" t="n">
-        <v>3.328527782286983e-07</v>
+        <v>5.501323285805881e-10</v>
       </c>
     </row>
     <row r="8">
@@ -4987,3985 +4987,3985 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.199659571682332e-08</v>
+        <v>0.0001005186277325265</v>
       </c>
       <c r="B9" t="n">
-        <v>9.727589400654324e-09</v>
+        <v>0.009741357527673244</v>
       </c>
       <c r="C9" t="n">
-        <v>1.553883688387714e-09</v>
+        <v>0.0008286318043246865</v>
       </c>
       <c r="D9" t="n">
-        <v>2.113645258816632e-08</v>
+        <v>0.007720116060227156</v>
       </c>
       <c r="E9" t="n">
-        <v>1.328539678269181e-08</v>
+        <v>0.003797820070758462</v>
       </c>
       <c r="F9" t="n">
-        <v>3.273947113413556e-09</v>
+        <v>0.00291452300734818</v>
       </c>
       <c r="G9" t="n">
-        <v>6.429535570617873e-09</v>
+        <v>0.0005391634185798466</v>
       </c>
       <c r="H9" t="n">
-        <v>1.237528213238193e-08</v>
+        <v>0.001965936040505767</v>
       </c>
       <c r="I9" t="n">
-        <v>2.064611148711037e-09</v>
+        <v>0.002644551917910576</v>
       </c>
       <c r="J9" t="n">
-        <v>7.034775428849116e-09</v>
+        <v>0.0009607566753402352</v>
       </c>
       <c r="K9" t="n">
-        <v>6.504281557795366e-09</v>
+        <v>0.00708930566906929</v>
       </c>
       <c r="L9" t="n">
-        <v>8.893508152141294e-10</v>
+        <v>0.0004518194182310253</v>
       </c>
       <c r="M9" t="n">
-        <v>2.083183936463229e-08</v>
+        <v>0.007436145562678576</v>
       </c>
       <c r="N9" t="n">
-        <v>1.347092215553403e-08</v>
+        <v>0.006743294652551413</v>
       </c>
       <c r="O9" t="n">
-        <v>9.243358300992099e-10</v>
+        <v>0.004322621505707502</v>
       </c>
       <c r="P9" t="n">
-        <v>4.218504212616381e-09</v>
+        <v>0.0003624648088589311</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.259703226405236e-09</v>
+        <v>0.001020315219648182</v>
       </c>
       <c r="R9" t="n">
-        <v>2.371730367656255e-09</v>
+        <v>0.003419661661610007</v>
       </c>
       <c r="S9" t="n">
-        <v>1.679826278078167e-09</v>
+        <v>0.0004702437145169824</v>
       </c>
       <c r="T9" t="n">
-        <v>1.026698281947347e-09</v>
+        <v>0.001398968393914402</v>
       </c>
       <c r="U9" t="n">
-        <v>2.193673909189897e-09</v>
+        <v>5.764882371295244e-05</v>
       </c>
       <c r="V9" t="n">
-        <v>4.810811304878371e-09</v>
+        <v>0.001574868801981211</v>
       </c>
       <c r="W9" t="n">
-        <v>1.328653453924744e-08</v>
+        <v>0.001877543749287724</v>
       </c>
       <c r="X9" t="n">
-        <v>1.332336019288505e-09</v>
+        <v>0.0002303100773133337</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.361799422700983e-09</v>
+        <v>0.00147956854198128</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.571176021566203e-09</v>
+        <v>0.0003104990464635193</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.80891362894431e-09</v>
+        <v>0.0008757053874433041</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.087474607203603e-09</v>
+        <v>0.0008125712629407644</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.988108344619377e-09</v>
+        <v>0.002118934411555529</v>
       </c>
       <c r="AD9" t="n">
-        <v>3.672959936196207e-09</v>
+        <v>2.292221324751154e-05</v>
       </c>
       <c r="AE9" t="n">
-        <v>4.642648043784448e-09</v>
+        <v>0.001343760406598449</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.868945525591471e-09</v>
+        <v>0.002827745163813233</v>
       </c>
       <c r="AG9" t="n">
-        <v>4.377664897248223e-12</v>
+        <v>0.001932369079440832</v>
       </c>
       <c r="AH9" t="n">
-        <v>4.37592895252692e-09</v>
+        <v>0.0005733009893447161</v>
       </c>
       <c r="AI9" t="n">
-        <v>2.704089396843301e-09</v>
+        <v>9.538000449538231e-05</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3.802624437554414e-09</v>
+        <v>0.0003236580523662269</v>
       </c>
       <c r="AK9" t="n">
-        <v>6.463943602597055e-09</v>
+        <v>0.0003252787282690406</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.319832576562874e-09</v>
+        <v>0.0006977001903578639</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.149871392020941e-09</v>
+        <v>0.0001352755789412186</v>
       </c>
       <c r="AN9" t="n">
-        <v>9.427089109337317e-10</v>
+        <v>0.000200641545234248</v>
       </c>
       <c r="AO9" t="n">
-        <v>5.441638251113545e-09</v>
+        <v>0.002629641443490982</v>
       </c>
       <c r="AP9" t="n">
-        <v>5.58977442111086e-09</v>
+        <v>0.001856934744864702</v>
       </c>
       <c r="AQ9" t="n">
-        <v>9.67134261564695e-10</v>
+        <v>0.0006562619819305837</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.699032553010738e-09</v>
+        <v>0.0009210227290168405</v>
       </c>
       <c r="AS9" t="n">
-        <v>5.727452956350021e-10</v>
+        <v>0.0009892117232084274</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.060288212784144e-08</v>
+        <v>0.001378780580125749</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.375219628931063e-09</v>
+        <v>0.007552922237664461</v>
       </c>
       <c r="AV9" t="n">
-        <v>6.717614020601559e-09</v>
+        <v>0.0002330204879399389</v>
       </c>
       <c r="AW9" t="n">
-        <v>6.054282408740619e-09</v>
+        <v>0.002161007840186357</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.507417023485004e-09</v>
+        <v>0.000547512318007648</v>
       </c>
       <c r="AY9" t="n">
-        <v>1.024492135570654e-08</v>
+        <v>0.001695112558081746</v>
       </c>
       <c r="AZ9" t="n">
-        <v>3.692327554816188e-09</v>
+        <v>0.002542705042287707</v>
       </c>
       <c r="BA9" t="n">
-        <v>1.61115352170782e-08</v>
+        <v>0.002727876883000135</v>
       </c>
       <c r="BB9" t="n">
-        <v>6.567760557629754e-09</v>
+        <v>7.874620496295393e-05</v>
       </c>
       <c r="BC9" t="n">
-        <v>3.603844334065798e-09</v>
+        <v>2.735329326242208e-05</v>
       </c>
       <c r="BD9" t="n">
-        <v>1.10495412819489e-09</v>
+        <v>0.001480417675338686</v>
       </c>
       <c r="BE9" t="n">
-        <v>5.846028106049062e-10</v>
+        <v>0.002014490775763988</v>
       </c>
       <c r="BF9" t="n">
-        <v>8.203901558090365e-09</v>
+        <v>0.002305686473846436</v>
       </c>
       <c r="BG9" t="n">
-        <v>2.998344239557582e-09</v>
+        <v>0.00405640946701169</v>
       </c>
       <c r="BH9" t="n">
-        <v>9.742182616179207e-10</v>
+        <v>0.00396003108471632</v>
       </c>
       <c r="BI9" t="n">
-        <v>3.754306199255097e-09</v>
+        <v>0.001711016288027167</v>
       </c>
       <c r="BJ9" t="n">
-        <v>8.640762549916303e-10</v>
+        <v>0.001141774584539235</v>
       </c>
       <c r="BK9" t="n">
-        <v>2.901061169069408e-09</v>
+        <v>0.002233419101685286</v>
       </c>
       <c r="BL9" t="n">
-        <v>1.952299710783478e-10</v>
+        <v>0.0009154271683655679</v>
       </c>
       <c r="BM9" t="n">
-        <v>6.562328902504078e-09</v>
+        <v>0.002561153145506978</v>
       </c>
       <c r="BN9" t="n">
-        <v>7.850378125340285e-10</v>
+        <v>0.001141919521614909</v>
       </c>
       <c r="BO9" t="n">
-        <v>6.500469051928803e-09</v>
+        <v>0.00121463043615222</v>
       </c>
       <c r="BP9" t="n">
-        <v>6.085742132455607e-09</v>
+        <v>0.002960932673886418</v>
       </c>
       <c r="BQ9" t="n">
-        <v>3.152342609169523e-09</v>
+        <v>0.001082730246707797</v>
       </c>
       <c r="BR9" t="n">
-        <v>1.169440766446428e-09</v>
+        <v>0.0007021824712865055</v>
       </c>
       <c r="BS9" t="n">
-        <v>2.408251376095905e-09</v>
+        <v>0.0003263835096731782</v>
       </c>
       <c r="BT9" t="n">
-        <v>4.61779148253072e-09</v>
+        <v>0.001245239400304854</v>
       </c>
       <c r="BU9" t="n">
-        <v>9.170406656267005e-09</v>
+        <v>0.0008866761345416307</v>
       </c>
       <c r="BV9" t="n">
-        <v>3.1626434804366e-10</v>
+        <v>0.003540646051988006</v>
       </c>
       <c r="BW9" t="n">
-        <v>2.363626405710306e-09</v>
+        <v>0.00124545709695667</v>
       </c>
       <c r="BX9" t="n">
-        <v>9.113801269222677e-09</v>
+        <v>0.001842777011916041</v>
       </c>
       <c r="BY9" t="n">
-        <v>4.755993820992899e-09</v>
+        <v>0.0008040196262300014</v>
       </c>
       <c r="BZ9" t="n">
-        <v>7.160056547661497e-09</v>
+        <v>0.000199893896933645</v>
       </c>
       <c r="CA9" t="n">
-        <v>3.890146871299294e-09</v>
+        <v>0.0008463308913633227</v>
       </c>
       <c r="CB9" t="n">
-        <v>3.362765177428173e-09</v>
+        <v>0.001717719715088606</v>
       </c>
       <c r="CC9" t="n">
-        <v>3.149251970313571e-09</v>
+        <v>0.001214970136061311</v>
       </c>
       <c r="CD9" t="n">
-        <v>1.965092089051268e-09</v>
+        <v>0.0001700897410046309</v>
       </c>
       <c r="CE9" t="n">
-        <v>2.609692240085337e-09</v>
+        <v>0.001694561564363539</v>
       </c>
       <c r="CF9" t="n">
-        <v>1.623341572276615e-09</v>
+        <v>0.0007317368872463703</v>
       </c>
       <c r="CG9" t="n">
-        <v>4.685372090307283e-09</v>
+        <v>0.0008998138946481049</v>
       </c>
       <c r="CH9" t="n">
-        <v>4.032408185139502e-09</v>
+        <v>0.0004539814253803343</v>
       </c>
       <c r="CI9" t="n">
-        <v>1.099509705504431e-09</v>
+        <v>8.567160693928599e-05</v>
       </c>
       <c r="CJ9" t="n">
-        <v>5.304156003305138e-10</v>
+        <v>0.0001396196894347668</v>
       </c>
       <c r="CK9" t="n">
-        <v>4.825891242177249e-09</v>
+        <v>0.0002001480461331084</v>
       </c>
       <c r="CL9" t="n">
-        <v>6.627496329514315e-10</v>
+        <v>0.0005419476656243205</v>
       </c>
       <c r="CM9" t="n">
-        <v>1.738658772509893e-09</v>
+        <v>0.001913137384690344</v>
       </c>
       <c r="CN9" t="n">
-        <v>3.051978669788014e-09</v>
+        <v>0.0008939721155911684</v>
       </c>
       <c r="CO9" t="n">
-        <v>2.37690001014812e-09</v>
+        <v>0.0003300092066638172</v>
       </c>
       <c r="CP9" t="n">
-        <v>3.721704278092375e-09</v>
+        <v>0.001727740978822112</v>
       </c>
       <c r="CQ9" t="n">
-        <v>1.426097573364871e-10</v>
+        <v>0.0003034005640074611</v>
       </c>
       <c r="CR9" t="n">
-        <v>1.009111549876707e-08</v>
+        <v>0.0004769950173795223</v>
       </c>
       <c r="CS9" t="n">
-        <v>2.040215552057134e-09</v>
+        <v>0.001660417881794274</v>
       </c>
       <c r="CT9" t="n">
-        <v>1.969957086345175e-09</v>
+        <v>0.003031354397535324</v>
       </c>
       <c r="CU9" t="n">
-        <v>2.950766742060296e-09</v>
+        <v>0.0002479410904925317</v>
       </c>
       <c r="CV9" t="n">
-        <v>2.4480115712322e-09</v>
+        <v>0.0002644962514750659</v>
       </c>
       <c r="CW9" t="n">
-        <v>3.761336131447024e-09</v>
+        <v>0.001328532467596233</v>
       </c>
       <c r="CX9" t="n">
-        <v>1.096053803273378e-10</v>
+        <v>0.0009725842392072082</v>
       </c>
       <c r="CY9" t="n">
-        <v>3.689558658592773e-09</v>
+        <v>0.00100136804394424</v>
       </c>
       <c r="CZ9" t="n">
-        <v>3.830305850271998e-09</v>
+        <v>0.0006463837926276028</v>
       </c>
       <c r="DA9" t="n">
-        <v>1.123492854304686e-09</v>
+        <v>0.0001136569044319913</v>
       </c>
       <c r="DB9" t="n">
-        <v>9.969780556673413e-10</v>
+        <v>0.0003618176560848951</v>
       </c>
       <c r="DC9" t="n">
-        <v>4.468686309877512e-09</v>
+        <v>0.0002121375437127426</v>
       </c>
       <c r="DD9" t="n">
-        <v>3.667792736194997e-10</v>
+        <v>0.0002330951538169757</v>
       </c>
       <c r="DE9" t="n">
-        <v>7.168988069850002e-09</v>
+        <v>0.0007782375323586166</v>
       </c>
       <c r="DF9" t="n">
-        <v>9.857962446346846e-09</v>
+        <v>0.0009374681394547224</v>
       </c>
       <c r="DG9" t="n">
-        <v>6.447485323413105e-10</v>
+        <v>0.0006554885185323656</v>
       </c>
       <c r="DH9" t="n">
-        <v>2.534672471909971e-09</v>
+        <v>0.003318504896014929</v>
       </c>
       <c r="DI9" t="n">
-        <v>1.963096796231412e-09</v>
+        <v>0.001698629348538816</v>
       </c>
       <c r="DJ9" t="n">
-        <v>5.284104265257383e-10</v>
+        <v>0.0007471238495782018</v>
       </c>
       <c r="DK9" t="n">
-        <v>5.833328931004189e-09</v>
+        <v>0.0003423893358558416</v>
       </c>
       <c r="DL9" t="n">
-        <v>1.25666481665121e-08</v>
+        <v>0.0008516650414094329</v>
       </c>
       <c r="DM9" t="n">
-        <v>4.459898006459184e-10</v>
+        <v>0.000314745120704174</v>
       </c>
       <c r="DN9" t="n">
-        <v>4.12175377162427e-10</v>
+        <v>0.0005659537273459136</v>
       </c>
       <c r="DO9" t="n">
-        <v>1.916377279087556e-09</v>
+        <v>0.0002514416992198676</v>
       </c>
       <c r="DP9" t="n">
-        <v>1.741420452283649e-09</v>
+        <v>0.001051825704053044</v>
       </c>
       <c r="DQ9" t="n">
-        <v>3.341845911108976e-09</v>
+        <v>0.0006219791248440742</v>
       </c>
       <c r="DR9" t="n">
-        <v>3.558383809831867e-09</v>
+        <v>0.0004325101908762008</v>
       </c>
       <c r="DS9" t="n">
-        <v>8.548874497193992e-09</v>
+        <v>0.0002331422438146546</v>
       </c>
       <c r="DT9" t="n">
-        <v>1.579031350118498e-09</v>
+        <v>0.0014075783547014</v>
       </c>
       <c r="DU9" t="n">
-        <v>8.221519465223537e-09</v>
+        <v>0.0005250056274235249</v>
       </c>
       <c r="DV9" t="n">
-        <v>2.717082558945094e-09</v>
+        <v>0.0005279613542370498</v>
       </c>
       <c r="DW9" t="n">
-        <v>4.906426376294348e-10</v>
+        <v>0.0002355335600441322</v>
       </c>
       <c r="DX9" t="n">
-        <v>2.858099312774698e-10</v>
+        <v>0.0004063290543854237</v>
       </c>
       <c r="DY9" t="n">
-        <v>1.084379253057932e-09</v>
+        <v>0.000735697103664279</v>
       </c>
       <c r="DZ9" t="n">
-        <v>3.471140264110772e-09</v>
+        <v>0.0001733993995003402</v>
       </c>
       <c r="EA9" t="n">
-        <v>8.672313978053126e-10</v>
+        <v>0.0001860159827629104</v>
       </c>
       <c r="EB9" t="n">
-        <v>1.089641266105446e-09</v>
+        <v>0.002211323473602533</v>
       </c>
       <c r="EC9" t="n">
-        <v>5.712396111690055e-10</v>
+        <v>0.0002994659007526934</v>
       </c>
       <c r="ED9" t="n">
-        <v>3.395322911714516e-10</v>
+        <v>0.001006499980576336</v>
       </c>
       <c r="EE9" t="n">
-        <v>4.810200238125617e-09</v>
+        <v>0.0001237786782439798</v>
       </c>
       <c r="EF9" t="n">
-        <v>3.246526825151363e-09</v>
+        <v>0.0001285859034396708</v>
       </c>
       <c r="EG9" t="n">
-        <v>1.27756438761395e-09</v>
+        <v>0.001054587191902101</v>
       </c>
       <c r="EH9" t="n">
-        <v>2.386872921533723e-10</v>
+        <v>0.0004781408642884344</v>
       </c>
       <c r="EI9" t="n">
-        <v>5.256135082731817e-09</v>
+        <v>0.00113212363794446</v>
       </c>
       <c r="EJ9" t="n">
-        <v>1.80548120898294e-09</v>
+        <v>0.001538989483378828</v>
       </c>
       <c r="EK9" t="n">
-        <v>5.493765997677258e-10</v>
+        <v>0.0001927428384078667</v>
       </c>
       <c r="EL9" t="n">
-        <v>1.436099239526811e-09</v>
+        <v>0.0006366792949847877</v>
       </c>
       <c r="EM9" t="n">
-        <v>6.904712912536581e-10</v>
+        <v>0.0002114993694704026</v>
       </c>
       <c r="EN9" t="n">
-        <v>2.139075805374091e-09</v>
+        <v>0.0007775728590786457</v>
       </c>
       <c r="EO9" t="n">
-        <v>1.904305158006991e-09</v>
+        <v>0.0005956095992587507</v>
       </c>
       <c r="EP9" t="n">
-        <v>4.073002379811896e-09</v>
+        <v>0.001557421404868364</v>
       </c>
       <c r="EQ9" t="n">
-        <v>2.952643018971912e-09</v>
+        <v>0.0005104595329612494</v>
       </c>
       <c r="ER9" t="n">
-        <v>1.108889535750279e-09</v>
+        <v>0.0003485604538582265</v>
       </c>
       <c r="ES9" t="n">
-        <v>5.873253883237339e-09</v>
+        <v>0.0001761389867169783</v>
       </c>
       <c r="ET9" t="n">
-        <v>1.827890505623486e-09</v>
+        <v>0.002006443683058023</v>
       </c>
       <c r="EU9" t="n">
-        <v>2.149187494637772e-09</v>
+        <v>0.001597882364876568</v>
       </c>
       <c r="EV9" t="n">
-        <v>8.643931792562398e-09</v>
+        <v>0.0005458603845909238</v>
       </c>
       <c r="EW9" t="n">
-        <v>2.013271771517111e-09</v>
+        <v>0.0001331974781351164</v>
       </c>
       <c r="EX9" t="n">
-        <v>1.855481435164563e-09</v>
+        <v>0.0001601571420906112</v>
       </c>
       <c r="EY9" t="n">
-        <v>3.182639041199309e-09</v>
+        <v>0.001265032100491226</v>
       </c>
       <c r="EZ9" t="n">
-        <v>6.315868383843792e-10</v>
+        <v>0.0004989643930457532</v>
       </c>
       <c r="FA9" t="n">
-        <v>2.12040518476897e-09</v>
+        <v>0.0009950657840818167</v>
       </c>
       <c r="FB9" t="n">
-        <v>5.052456231169344e-09</v>
+        <v>0.0009111471008509398</v>
       </c>
       <c r="FC9" t="n">
-        <v>3.588846164692683e-10</v>
+        <v>0.0002915627846959978</v>
       </c>
       <c r="FD9" t="n">
-        <v>1.457384435354925e-09</v>
+        <v>0.0004077007761225104</v>
       </c>
       <c r="FE9" t="n">
-        <v>3.16530757160649e-09</v>
+        <v>0.0004272796213626862</v>
       </c>
       <c r="FF9" t="n">
-        <v>2.564843337715672e-10</v>
+        <v>7.7791053627152e-05</v>
       </c>
       <c r="FG9" t="n">
-        <v>2.886177075112073e-09</v>
+        <v>0.0001586629368830472</v>
       </c>
       <c r="FH9" t="n">
-        <v>1.012841588377e-09</v>
+        <v>0.0002737649192567915</v>
       </c>
       <c r="FI9" t="n">
-        <v>2.493212969412184e-09</v>
+        <v>0.0002808810095302761</v>
       </c>
       <c r="FJ9" t="n">
-        <v>1.167076102426279e-09</v>
+        <v>0.000425330305006355</v>
       </c>
       <c r="FK9" t="n">
-        <v>3.14198422834977e-09</v>
+        <v>0.0007214101497083902</v>
       </c>
       <c r="FL9" t="n">
-        <v>4.116872176496145e-09</v>
+        <v>0.0005802210653200746</v>
       </c>
       <c r="FM9" t="n">
-        <v>2.569891188741735e-09</v>
+        <v>1.540908124297857e-05</v>
       </c>
       <c r="FN9" t="n">
-        <v>1.104529445683511e-08</v>
+        <v>0.0003700800298247486</v>
       </c>
       <c r="FO9" t="n">
-        <v>3.019428596040541e-10</v>
+        <v>0.0004470516578294337</v>
       </c>
       <c r="FP9" t="n">
-        <v>2.488250716581319e-09</v>
+        <v>0.001162902684882283</v>
       </c>
       <c r="FQ9" t="n">
-        <v>3.519718072553246e-09</v>
+        <v>0.001004249788820744</v>
       </c>
       <c r="FR9" t="n">
-        <v>5.728433283280765e-10</v>
+        <v>0.0002455179637763649</v>
       </c>
       <c r="FS9" t="n">
-        <v>4.501877093332496e-09</v>
+        <v>0.0009118420421145856</v>
       </c>
       <c r="FT9" t="n">
-        <v>7.01459246243985e-09</v>
+        <v>0.002222081879153848</v>
       </c>
       <c r="FU9" t="n">
-        <v>3.469673437450638e-09</v>
+        <v>0.0009379833936691284</v>
       </c>
       <c r="FV9" t="n">
-        <v>3.986377450360123e-09</v>
+        <v>0.001126123825088143</v>
       </c>
       <c r="FW9" t="n">
-        <v>7.954361613826677e-09</v>
+        <v>0.0005533716175705194</v>
       </c>
       <c r="FX9" t="n">
-        <v>1.06765041252288e-09</v>
+        <v>6.769259925931692e-05</v>
       </c>
       <c r="FY9" t="n">
-        <v>3.282638383339531e-09</v>
+        <v>0.001676237676292658</v>
       </c>
       <c r="FZ9" t="n">
-        <v>7.424892256580051e-09</v>
+        <v>0.0005976002430543303</v>
       </c>
       <c r="GA9" t="n">
-        <v>5.239608746876456e-10</v>
+        <v>0.0005647296202369034</v>
       </c>
       <c r="GB9" t="n">
-        <v>1.62346036614025e-09</v>
+        <v>0.0009060951415449381</v>
       </c>
       <c r="GC9" t="n">
-        <v>3.451773311624606e-09</v>
+        <v>0.0002068918984150514</v>
       </c>
       <c r="GD9" t="n">
-        <v>3.170750995096228e-09</v>
+        <v>0.001977812498807907</v>
       </c>
       <c r="GE9" t="n">
-        <v>2.14256035135918e-09</v>
+        <v>0.002105020917952061</v>
       </c>
       <c r="GF9" t="n">
-        <v>7.398551105097795e-09</v>
+        <v>0.0002131319342879578</v>
       </c>
       <c r="GG9" t="n">
-        <v>2.509711105602719e-09</v>
+        <v>0.0009763670386746526</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.122933887629188e-07</v>
+        <v>0.04467255622148514</v>
       </c>
       <c r="B10" t="n">
-        <v>9.547183026370476e-07</v>
+        <v>0.3151176869869232</v>
       </c>
       <c r="C10" t="n">
-        <v>7.05647153154132e-07</v>
+        <v>0.026175731793046</v>
       </c>
       <c r="D10" t="n">
-        <v>1.468322238906694e-06</v>
+        <v>0.09909836202859879</v>
       </c>
       <c r="E10" t="n">
-        <v>4.89970716444077e-07</v>
+        <v>0.0003663729876279831</v>
       </c>
       <c r="F10" t="n">
-        <v>3.567133717297111e-07</v>
+        <v>0.0480012558400631</v>
       </c>
       <c r="G10" t="n">
-        <v>5.543856218537258e-08</v>
+        <v>0.02605989389121532</v>
       </c>
       <c r="H10" t="n">
-        <v>1.166218055459467e-08</v>
+        <v>0.0174800418317318</v>
       </c>
       <c r="I10" t="n">
-        <v>5.803570388707158e-07</v>
+        <v>3.645196557044983e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>9.809257761617118e-08</v>
+        <v>0.05231085419654846</v>
       </c>
       <c r="K10" t="n">
-        <v>4.157147373007319e-07</v>
+        <v>0.1930916011333466</v>
       </c>
       <c r="L10" t="n">
-        <v>7.945232027850579e-07</v>
+        <v>0.008886849507689476</v>
       </c>
       <c r="M10" t="n">
-        <v>1.681749381532427e-06</v>
+        <v>0.1329230964183807</v>
       </c>
       <c r="N10" t="n">
-        <v>1.08004803678341e-06</v>
+        <v>0.06369498372077942</v>
       </c>
       <c r="O10" t="n">
-        <v>8.114523097901838e-07</v>
+        <v>0.0867852196097374</v>
       </c>
       <c r="P10" t="n">
-        <v>7.216954145405907e-09</v>
+        <v>0.02585411071777344</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.874395926890429e-07</v>
+        <v>0.007512988522648811</v>
       </c>
       <c r="R10" t="n">
-        <v>8.131723916449118e-07</v>
+        <v>0.003964859992265701</v>
       </c>
       <c r="S10" t="n">
-        <v>6.292654006756493e-07</v>
+        <v>0.007788626477122307</v>
       </c>
       <c r="T10" t="n">
-        <v>1.37499270635999e-07</v>
+        <v>0.05188189446926117</v>
       </c>
       <c r="U10" t="n">
-        <v>7.123398404473846e-08</v>
+        <v>0.0241248719394207</v>
       </c>
       <c r="V10" t="n">
-        <v>7.375379595941922e-08</v>
+        <v>0.03717565909028053</v>
       </c>
       <c r="W10" t="n">
-        <v>1.104478883462434e-06</v>
+        <v>0.02116987109184265</v>
       </c>
       <c r="X10" t="n">
-        <v>3.219609254756506e-07</v>
+        <v>0.03043614327907562</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.998076584186492e-07</v>
+        <v>0.003759677521884441</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.61113007379754e-08</v>
+        <v>0.009885814040899277</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.797133274474618e-08</v>
+        <v>0.0006861002184450626</v>
       </c>
       <c r="AB10" t="n">
-        <v>3.987684067396913e-07</v>
+        <v>0.03741830214858055</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.395105329038415e-07</v>
+        <v>0.045766931027174</v>
       </c>
       <c r="AD10" t="n">
-        <v>3.99096052206005e-07</v>
+        <v>0.02148037403821945</v>
       </c>
       <c r="AE10" t="n">
-        <v>3.327417346099537e-07</v>
+        <v>0.004699989221990108</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.558135060506174e-07</v>
+        <v>0.03021178767085075</v>
       </c>
       <c r="AG10" t="n">
-        <v>7.773480774631025e-07</v>
+        <v>0.003601306118071079</v>
       </c>
       <c r="AH10" t="n">
-        <v>2.722835006352398e-07</v>
+        <v>0.02316837571561337</v>
       </c>
       <c r="AI10" t="n">
-        <v>9.868391970258017e-08</v>
+        <v>0.01643919944763184</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3.782801627494337e-07</v>
+        <v>0.01231132540851831</v>
       </c>
       <c r="AK10" t="n">
-        <v>1.909833144964068e-07</v>
+        <v>0.03720463067293167</v>
       </c>
       <c r="AL10" t="n">
-        <v>2.076930201155847e-07</v>
+        <v>0.01746636629104614</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.79827418125933e-07</v>
+        <v>0.02290768176317215</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.361489007147611e-07</v>
+        <v>0.02937626093626022</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.00632419730573e-07</v>
+        <v>0.03720859065651894</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.814656513943191e-07</v>
+        <v>0.0349901057779789</v>
       </c>
       <c r="AQ10" t="n">
-        <v>8.702570397645104e-08</v>
+        <v>0.01087541691958904</v>
       </c>
       <c r="AR10" t="n">
-        <v>4.557428923135376e-08</v>
+        <v>0.02553563006222248</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.340352978080773e-07</v>
+        <v>0.01019906997680664</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.666486977886962e-07</v>
+        <v>0.01170451752841473</v>
       </c>
       <c r="AU10" t="n">
-        <v>4.544747866930265e-08</v>
+        <v>0.2613078951835632</v>
       </c>
       <c r="AV10" t="n">
-        <v>1.495130845796666e-07</v>
+        <v>0.02318651415407658</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.426017596870224e-07</v>
+        <v>0.006151670124381781</v>
       </c>
       <c r="AX10" t="n">
-        <v>1.209472912933052e-07</v>
+        <v>0.05872098729014397</v>
       </c>
       <c r="AY10" t="n">
-        <v>3.475908840755437e-07</v>
+        <v>0.02996609918773174</v>
       </c>
       <c r="AZ10" t="n">
-        <v>3.101597485510865e-07</v>
+        <v>0.002953201066702604</v>
       </c>
       <c r="BA10" t="n">
-        <v>9.948649903890328e-09</v>
+        <v>0.02004464715719223</v>
       </c>
       <c r="BB10" t="n">
-        <v>7.977380533930045e-08</v>
+        <v>0.01029523834586143</v>
       </c>
       <c r="BC10" t="n">
-        <v>2.125704412492269e-08</v>
+        <v>0.01306270156055689</v>
       </c>
       <c r="BD10" t="n">
-        <v>3.857698231968243e-07</v>
+        <v>0.06350903958082199</v>
       </c>
       <c r="BE10" t="n">
-        <v>5.417735451374028e-07</v>
+        <v>0.04439947009086609</v>
       </c>
       <c r="BF10" t="n">
-        <v>8.677622531649831e-07</v>
+        <v>0.02342292107641697</v>
       </c>
       <c r="BG10" t="n">
-        <v>8.77039099123067e-07</v>
+        <v>0.0654287114739418</v>
       </c>
       <c r="BH10" t="n">
-        <v>4.955319354849053e-08</v>
+        <v>0.06661695241928101</v>
       </c>
       <c r="BI10" t="n">
-        <v>5.180420998840418e-07</v>
+        <v>0.01330489106476307</v>
       </c>
       <c r="BJ10" t="n">
-        <v>2.189341898883868e-07</v>
+        <v>0.0131788719445467</v>
       </c>
       <c r="BK10" t="n">
-        <v>3.80724202386773e-07</v>
+        <v>0.001142259221524</v>
       </c>
       <c r="BL10" t="n">
-        <v>2.424984657523055e-08</v>
+        <v>0.08287476748228073</v>
       </c>
       <c r="BM10" t="n">
-        <v>2.781656007755373e-07</v>
+        <v>0.09246161580085754</v>
       </c>
       <c r="BN10" t="n">
-        <v>3.020697931788163e-07</v>
+        <v>0.01852309331297874</v>
       </c>
       <c r="BO10" t="n">
-        <v>1.61526060082906e-07</v>
+        <v>0.03144310042262077</v>
       </c>
       <c r="BP10" t="n">
-        <v>5.083036285213893e-07</v>
+        <v>0.06542312353849411</v>
       </c>
       <c r="BQ10" t="n">
-        <v>1.146160499843063e-08</v>
+        <v>0.01342574693262577</v>
       </c>
       <c r="BR10" t="n">
-        <v>1.443681583168654e-07</v>
+        <v>0.0009130947291851044</v>
       </c>
       <c r="BS10" t="n">
-        <v>3.383939883860876e-08</v>
+        <v>0.02076596207916737</v>
       </c>
       <c r="BT10" t="n">
-        <v>3.492722555620276e-09</v>
+        <v>0.01613906770944595</v>
       </c>
       <c r="BU10" t="n">
-        <v>1.414174448655103e-07</v>
+        <v>0.01842227391898632</v>
       </c>
       <c r="BV10" t="n">
-        <v>3.094778833201417e-08</v>
+        <v>0.127791628241539</v>
       </c>
       <c r="BW10" t="n">
-        <v>1.66499248166474e-07</v>
+        <v>0.003026327351108193</v>
       </c>
       <c r="BX10" t="n">
-        <v>8.108082738544908e-07</v>
+        <v>0.01433214358985424</v>
       </c>
       <c r="BY10" t="n">
-        <v>1.565047824669819e-07</v>
+        <v>0.01836060918867588</v>
       </c>
       <c r="BZ10" t="n">
-        <v>1.272429699383792e-07</v>
+        <v>0.07713735848665237</v>
       </c>
       <c r="CA10" t="n">
-        <v>8.420181529800175e-08</v>
+        <v>0.01590342447161674</v>
       </c>
       <c r="CB10" t="n">
-        <v>2.389796804891375e-09</v>
+        <v>0.0008738772012293339</v>
       </c>
       <c r="CC10" t="n">
-        <v>3.046801566597424e-07</v>
+        <v>0.003065035212785006</v>
       </c>
       <c r="CD10" t="n">
-        <v>1.34325105705102e-07</v>
+        <v>0.0256572887301445</v>
       </c>
       <c r="CE10" t="n">
-        <v>6.750344994088664e-08</v>
+        <v>0.05509060621261597</v>
       </c>
       <c r="CF10" t="n">
-        <v>6.072691860481427e-08</v>
+        <v>0.003971158992499113</v>
       </c>
       <c r="CG10" t="n">
-        <v>2.938904799520969e-07</v>
+        <v>0.0009030551882460713</v>
       </c>
       <c r="CH10" t="n">
-        <v>1.229951749337488e-07</v>
+        <v>0.01586715690791607</v>
       </c>
       <c r="CI10" t="n">
-        <v>7.172555882561937e-08</v>
+        <v>0.004944324493408203</v>
       </c>
       <c r="CJ10" t="n">
-        <v>1.215584966018923e-08</v>
+        <v>0.01045369543135166</v>
       </c>
       <c r="CK10" t="n">
-        <v>1.32825608289977e-08</v>
+        <v>0.0003454326651990414</v>
       </c>
       <c r="CL10" t="n">
-        <v>1.869036339030572e-07</v>
+        <v>0.002017441904172301</v>
       </c>
       <c r="CM10" t="n">
-        <v>5.093605182082683e-08</v>
+        <v>0.05584266781806946</v>
       </c>
       <c r="CN10" t="n">
-        <v>4.783152007803437e-07</v>
+        <v>0.06771538406610489</v>
       </c>
       <c r="CO10" t="n">
-        <v>1.329157583995766e-08</v>
+        <v>0.0351012647151947</v>
       </c>
       <c r="CP10" t="n">
-        <v>6.909050398462568e-07</v>
+        <v>0.07800698280334473</v>
       </c>
       <c r="CQ10" t="n">
-        <v>3.876499192756455e-07</v>
+        <v>0.03624949604272842</v>
       </c>
       <c r="CR10" t="n">
-        <v>1.405143450483592e-07</v>
+        <v>0.06087411195039749</v>
       </c>
       <c r="CS10" t="n">
-        <v>7.536655743933807e-09</v>
+        <v>0.0205718744546175</v>
       </c>
       <c r="CT10" t="n">
-        <v>1.386812726877906e-07</v>
+        <v>0.01641936227679253</v>
       </c>
       <c r="CU10" t="n">
-        <v>3.443060734298342e-07</v>
+        <v>0.004941715858876705</v>
       </c>
       <c r="CV10" t="n">
-        <v>1.107154048440862e-07</v>
+        <v>0.02661827020347118</v>
       </c>
       <c r="CW10" t="n">
-        <v>2.225439175163046e-07</v>
+        <v>0.042156882584095</v>
       </c>
       <c r="CX10" t="n">
-        <v>2.091186779296095e-08</v>
+        <v>0.008078948594629765</v>
       </c>
       <c r="CY10" t="n">
-        <v>2.537445027428475e-07</v>
+        <v>0.01472387928515673</v>
       </c>
       <c r="CZ10" t="n">
-        <v>8.729270462026761e-08</v>
+        <v>0.01917477138340473</v>
       </c>
       <c r="DA10" t="n">
-        <v>6.932337015541634e-08</v>
+        <v>0.01037482358515263</v>
       </c>
       <c r="DB10" t="n">
-        <v>3.652747437854487e-08</v>
+        <v>0.007078221999108791</v>
       </c>
       <c r="DC10" t="n">
-        <v>7.15150676455778e-08</v>
+        <v>0.000452943699201569</v>
       </c>
       <c r="DD10" t="n">
-        <v>1.799890299025719e-07</v>
+        <v>0.002361283637583256</v>
       </c>
       <c r="DE10" t="n">
-        <v>4.155597821409174e-07</v>
+        <v>0.001083070412278175</v>
       </c>
       <c r="DF10" t="n">
-        <v>2.898356115110801e-07</v>
+        <v>0.03406443074345589</v>
       </c>
       <c r="DG10" t="n">
-        <v>8.823242581001978e-08</v>
+        <v>0.009883822873234749</v>
       </c>
       <c r="DH10" t="n">
-        <v>3.567812996152497e-07</v>
+        <v>0.01630540378391743</v>
       </c>
       <c r="DI10" t="n">
-        <v>3.570116575701832e-07</v>
+        <v>0.007773238234221935</v>
       </c>
       <c r="DJ10" t="n">
-        <v>5.597800054601976e-07</v>
+        <v>0.02639710903167725</v>
       </c>
       <c r="DK10" t="n">
-        <v>2.64372459923834e-07</v>
+        <v>0.01200662273913622</v>
       </c>
       <c r="DL10" t="n">
-        <v>6.931867346793297e-07</v>
+        <v>0.0009894799441099167</v>
       </c>
       <c r="DM10" t="n">
-        <v>5.841368988512841e-08</v>
+        <v>0.0005598990246653557</v>
       </c>
       <c r="DN10" t="n">
-        <v>3.730136199919798e-10</v>
+        <v>0.0555691197514534</v>
       </c>
       <c r="DO10" t="n">
-        <v>2.544601613863051e-07</v>
+        <v>0.02652864530682564</v>
       </c>
       <c r="DP10" t="n">
-        <v>7.77056996525971e-08</v>
+        <v>0.03205879777669907</v>
       </c>
       <c r="DQ10" t="n">
-        <v>8.356960279343184e-08</v>
+        <v>0.003855111543089151</v>
       </c>
       <c r="DR10" t="n">
-        <v>2.106652630118333e-07</v>
+        <v>0.01994404569268227</v>
       </c>
       <c r="DS10" t="n">
-        <v>1.366898061405664e-07</v>
+        <v>0.02906020358204842</v>
       </c>
       <c r="DT10" t="n">
-        <v>6.77372540280885e-08</v>
+        <v>0.007048881612718105</v>
       </c>
       <c r="DU10" t="n">
-        <v>1.423420172841361e-07</v>
+        <v>0.01794473081827164</v>
       </c>
       <c r="DV10" t="n">
-        <v>5.744995235090755e-08</v>
+        <v>0.007449212484061718</v>
       </c>
       <c r="DW10" t="n">
-        <v>2.046332099325809e-07</v>
+        <v>0.01292599178850651</v>
       </c>
       <c r="DX10" t="n">
-        <v>3.702549520312459e-07</v>
+        <v>0.01260372158139944</v>
       </c>
       <c r="DY10" t="n">
-        <v>1.973369023744453e-09</v>
+        <v>0.03696449100971222</v>
       </c>
       <c r="DZ10" t="n">
-        <v>3.51953701738239e-07</v>
+        <v>0.01950698345899582</v>
       </c>
       <c r="EA10" t="n">
-        <v>1.792979560377717e-07</v>
+        <v>0.051786158233881</v>
       </c>
       <c r="EB10" t="n">
-        <v>2.844526250100898e-07</v>
+        <v>0.002554812701418996</v>
       </c>
       <c r="EC10" t="n">
-        <v>8.039254595360035e-08</v>
+        <v>0.002693429822102189</v>
       </c>
       <c r="ED10" t="n">
-        <v>5.909442535312337e-08</v>
+        <v>0.01146730408072472</v>
       </c>
       <c r="EE10" t="n">
-        <v>5.863634200409251e-08</v>
+        <v>0.01147558633238077</v>
       </c>
       <c r="EF10" t="n">
-        <v>4.840913447878847e-08</v>
+        <v>0.03010108321905136</v>
       </c>
       <c r="EG10" t="n">
-        <v>7.66991021805552e-08</v>
+        <v>0.04302117973566055</v>
       </c>
       <c r="EH10" t="n">
-        <v>9.254186750240478e-09</v>
+        <v>0.02185460925102234</v>
       </c>
       <c r="EI10" t="n">
-        <v>4.275520950614009e-07</v>
+        <v>0.00873223040252924</v>
       </c>
       <c r="EJ10" t="n">
-        <v>2.005791799319923e-08</v>
+        <v>0.004594296682626009</v>
       </c>
       <c r="EK10" t="n">
-        <v>7.379688327091571e-08</v>
+        <v>0.004909224808216095</v>
       </c>
       <c r="EL10" t="n">
-        <v>1.992476228451778e-08</v>
+        <v>0.002304065972566605</v>
       </c>
       <c r="EM10" t="n">
-        <v>2.645535346346151e-09</v>
+        <v>0.006778470240533352</v>
       </c>
       <c r="EN10" t="n">
-        <v>1.121113157864784e-07</v>
+        <v>0.003786234417930245</v>
       </c>
       <c r="EO10" t="n">
-        <v>1.442901620407611e-08</v>
+        <v>0.02644497528672218</v>
       </c>
       <c r="EP10" t="n">
-        <v>1.930780797465559e-07</v>
+        <v>0.03049280494451523</v>
       </c>
       <c r="EQ10" t="n">
-        <v>2.652986381690425e-07</v>
+        <v>0.02653560414910316</v>
       </c>
       <c r="ER10" t="n">
-        <v>1.084980922883005e-07</v>
+        <v>0.0247002374380827</v>
       </c>
       <c r="ES10" t="n">
-        <v>1.689342354893597e-07</v>
+        <v>0.01872206665575504</v>
       </c>
       <c r="ET10" t="n">
-        <v>2.119659825439157e-07</v>
+        <v>0.05976922810077667</v>
       </c>
       <c r="EU10" t="n">
-        <v>6.408767205812183e-08</v>
+        <v>0.01668283902108669</v>
       </c>
       <c r="EV10" t="n">
-        <v>1.299947030020121e-07</v>
+        <v>0.0201142393052578</v>
       </c>
       <c r="EW10" t="n">
-        <v>4.98015424454934e-08</v>
+        <v>0.01571237295866013</v>
       </c>
       <c r="EX10" t="n">
-        <v>6.777770522603532e-08</v>
+        <v>0.0205616969615221</v>
       </c>
       <c r="EY10" t="n">
-        <v>1.291921023494069e-07</v>
+        <v>0.04464723914861679</v>
       </c>
       <c r="EZ10" t="n">
-        <v>1.663022963782623e-08</v>
+        <v>0.001401151181198657</v>
       </c>
       <c r="FA10" t="n">
-        <v>1.664420778979547e-07</v>
+        <v>0.002918836427852511</v>
       </c>
       <c r="FB10" t="n">
-        <v>1.856446232295639e-07</v>
+        <v>0.0004177151713520288</v>
       </c>
       <c r="FC10" t="n">
-        <v>6.447744738125039e-08</v>
+        <v>0.01497012656182051</v>
       </c>
       <c r="FD10" t="n">
-        <v>6.369987204379868e-08</v>
+        <v>0.009181284345686436</v>
       </c>
       <c r="FE10" t="n">
-        <v>3.261473580096208e-08</v>
+        <v>0.0002722127828747034</v>
       </c>
       <c r="FF10" t="n">
-        <v>5.30259569586633e-08</v>
+        <v>0.002409107983112335</v>
       </c>
       <c r="FG10" t="n">
-        <v>4.714835313279764e-07</v>
+        <v>0.01770677231252193</v>
       </c>
       <c r="FH10" t="n">
-        <v>8.874095414057592e-08</v>
+        <v>0.008324539288878441</v>
       </c>
       <c r="FI10" t="n">
-        <v>1.55229130882617e-07</v>
+        <v>0.01040673814713955</v>
       </c>
       <c r="FJ10" t="n">
-        <v>2.361519051419236e-07</v>
+        <v>0.01656810753047466</v>
       </c>
       <c r="FK10" t="n">
-        <v>2.617786662995059e-07</v>
+        <v>0.0254649929702282</v>
       </c>
       <c r="FL10" t="n">
-        <v>1.825396509502752e-07</v>
+        <v>0.001811354421079159</v>
       </c>
       <c r="FM10" t="n">
-        <v>1.593075609207517e-07</v>
+        <v>0.01506933197379112</v>
       </c>
       <c r="FN10" t="n">
-        <v>1.453192339795351e-07</v>
+        <v>0.002389733213931322</v>
       </c>
       <c r="FO10" t="n">
-        <v>3.489990376692731e-07</v>
+        <v>0.007192697376012802</v>
       </c>
       <c r="FP10" t="n">
-        <v>3.531597769779182e-08</v>
+        <v>0.01788312941789627</v>
       </c>
       <c r="FQ10" t="n">
-        <v>3.737940446058019e-08</v>
+        <v>0.06196886673569679</v>
       </c>
       <c r="FR10" t="n">
-        <v>2.486085470820854e-08</v>
+        <v>0.01108863204717636</v>
       </c>
       <c r="FS10" t="n">
-        <v>4.986653721061884e-07</v>
+        <v>0.06578513979911804</v>
       </c>
       <c r="FT10" t="n">
-        <v>9.643084553090375e-08</v>
+        <v>0.06431817263364792</v>
       </c>
       <c r="FU10" t="n">
-        <v>6.836405077592644e-07</v>
+        <v>0.02366132661700249</v>
       </c>
       <c r="FV10" t="n">
-        <v>7.641357058219e-08</v>
+        <v>0.01907703094184399</v>
       </c>
       <c r="FW10" t="n">
-        <v>7.554999115200189e-08</v>
+        <v>0.01489494927227497</v>
       </c>
       <c r="FX10" t="n">
-        <v>5.674130534316646e-07</v>
+        <v>0.002998445183038712</v>
       </c>
       <c r="FY10" t="n">
-        <v>4.848408963198381e-08</v>
+        <v>0.03872793540358543</v>
       </c>
       <c r="FZ10" t="n">
-        <v>2.727304035943234e-07</v>
+        <v>0.03749445825815201</v>
       </c>
       <c r="GA10" t="n">
-        <v>4.880775250626357e-08</v>
+        <v>0.003408826421946287</v>
       </c>
       <c r="GB10" t="n">
-        <v>2.511330592369632e-07</v>
+        <v>0.01318141724914312</v>
       </c>
       <c r="GC10" t="n">
-        <v>8.8897854766401e-07</v>
+        <v>0.03501777350902557</v>
       </c>
       <c r="GD10" t="n">
-        <v>2.550101640963476e-08</v>
+        <v>0.02559884265065193</v>
       </c>
       <c r="GE10" t="n">
-        <v>9.922965205078071e-08</v>
+        <v>0.03046827390789986</v>
       </c>
       <c r="GF10" t="n">
-        <v>1.699966816204324e-07</v>
+        <v>0.0160890594124794</v>
       </c>
       <c r="GG10" t="n">
-        <v>1.578474524421836e-07</v>
+        <v>0.003015586175024509</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9.63947563263623e-13</v>
+        <v>0.001804709201678634</v>
       </c>
       <c r="B11" t="n">
-        <v>3.561904243776226e-12</v>
+        <v>0.01316954474896193</v>
       </c>
       <c r="C11" t="n">
-        <v>2.398242542056561e-11</v>
+        <v>0.001602917909622192</v>
       </c>
       <c r="D11" t="n">
-        <v>6.68121252767051e-11</v>
+        <v>0.003468082752078772</v>
       </c>
       <c r="E11" t="n">
-        <v>4.035118073009158e-11</v>
+        <v>0.009332782588899136</v>
       </c>
       <c r="F11" t="n">
-        <v>1.290146045551666e-10</v>
+        <v>0.001096709165722132</v>
       </c>
       <c r="G11" t="n">
-        <v>3.405376328147192e-11</v>
+        <v>0.0009999090107157826</v>
       </c>
       <c r="H11" t="n">
-        <v>3.118618904784931e-11</v>
+        <v>0.003195840399712324</v>
       </c>
       <c r="I11" t="n">
-        <v>2.45547297772486e-11</v>
+        <v>0.0008418390061706305</v>
       </c>
       <c r="J11" t="n">
-        <v>4.03225196288215e-13</v>
+        <v>0.001807691063731909</v>
       </c>
       <c r="K11" t="n">
-        <v>3.82911480301118e-11</v>
+        <v>0.01015213970094919</v>
       </c>
       <c r="L11" t="n">
-        <v>1.983154439277879e-11</v>
+        <v>6.337012746371329e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>5.295186858433887e-11</v>
+        <v>0.0005996876861900091</v>
       </c>
       <c r="N11" t="n">
-        <v>1.046272235516454e-10</v>
+        <v>0.00565032847225666</v>
       </c>
       <c r="O11" t="n">
-        <v>1.560098751574035e-11</v>
+        <v>0.0003654710599221289</v>
       </c>
       <c r="P11" t="n">
-        <v>6.231541671564145e-11</v>
+        <v>0.0003324202261865139</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.027160285275833e-11</v>
+        <v>0.0004720965807791799</v>
       </c>
       <c r="R11" t="n">
-        <v>1.008959235604401e-11</v>
+        <v>0.002600046806037426</v>
       </c>
       <c r="S11" t="n">
-        <v>9.183745777741059e-12</v>
+        <v>0.0005249622045084834</v>
       </c>
       <c r="T11" t="n">
-        <v>3.920131580459341e-12</v>
+        <v>0.001061036949977279</v>
       </c>
       <c r="U11" t="n">
-        <v>2.829231293688395e-11</v>
+        <v>0.000848931900691241</v>
       </c>
       <c r="V11" t="n">
-        <v>7.479257491116442e-11</v>
+        <v>0.001945460098795593</v>
       </c>
       <c r="W11" t="n">
-        <v>4.877574732997658e-11</v>
+        <v>0.006690854206681252</v>
       </c>
       <c r="X11" t="n">
-        <v>1.247322774580728e-12</v>
+        <v>0.0003607861581258476</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.312356027824649e-11</v>
+        <v>0.00056781608145684</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.349858332749809e-11</v>
+        <v>0.003242685226723552</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.550712229602684e-12</v>
+        <v>0.0004724125610664487</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.094280482200061e-11</v>
+        <v>0.0002874319325201213</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.663827030270689e-12</v>
+        <v>0.001729305600747466</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.748967026233728e-11</v>
+        <v>9.445651085115969e-05</v>
       </c>
       <c r="AE11" t="n">
-        <v>8.019834102368506e-11</v>
+        <v>0.0006804640870541334</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.03137332943737e-12</v>
+        <v>0.0004539645742624998</v>
       </c>
       <c r="AG11" t="n">
-        <v>4.94353516455881e-11</v>
+        <v>0.0002381691010668874</v>
       </c>
       <c r="AH11" t="n">
-        <v>4.923572660686659e-11</v>
+        <v>0.0003501700703054667</v>
       </c>
       <c r="AI11" t="n">
-        <v>6.601868357547502e-12</v>
+        <v>0.0002932942879851907</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7.394189427412101e-13</v>
+        <v>0.0007880632765591145</v>
       </c>
       <c r="AK11" t="n">
-        <v>1.407082349941247e-11</v>
+        <v>0.001608778606168926</v>
       </c>
       <c r="AL11" t="n">
-        <v>2.294239971611933e-11</v>
+        <v>0.001813268754631281</v>
       </c>
       <c r="AM11" t="n">
-        <v>2.781035818300026e-11</v>
+        <v>0.001172575633972883</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.274133715201131e-10</v>
+        <v>0.0006270398152992129</v>
       </c>
       <c r="AO11" t="n">
-        <v>6.889785617025801e-12</v>
+        <v>0.002344462554901838</v>
       </c>
       <c r="AP11" t="n">
-        <v>5.380778114738582e-11</v>
+        <v>0.002575265010818839</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.220147420599726e-11</v>
+        <v>0.0006928379880264401</v>
       </c>
       <c r="AR11" t="n">
-        <v>9.084777201351368e-12</v>
+        <v>7.07331346347928e-05</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.35107324633621e-11</v>
+        <v>0.0004824597854167223</v>
       </c>
       <c r="AT11" t="n">
-        <v>5.899214276794407e-12</v>
+        <v>0.000365827203495428</v>
       </c>
       <c r="AU11" t="n">
-        <v>1.224873397154269e-10</v>
+        <v>0.009578435681760311</v>
       </c>
       <c r="AV11" t="n">
-        <v>1.526882786873074e-12</v>
+        <v>0.0003515510470606387</v>
       </c>
       <c r="AW11" t="n">
-        <v>1.335940663649282e-10</v>
+        <v>0.001623506192117929</v>
       </c>
       <c r="AX11" t="n">
-        <v>1.142172467716307e-10</v>
+        <v>0.004408668261021376</v>
       </c>
       <c r="AY11" t="n">
-        <v>6.845547045886136e-11</v>
+        <v>0.003783178981393576</v>
       </c>
       <c r="AZ11" t="n">
-        <v>1.528097093306258e-11</v>
+        <v>0.004631150979548693</v>
       </c>
       <c r="BA11" t="n">
-        <v>3.47686324175811e-11</v>
+        <v>0.001183601445518434</v>
       </c>
       <c r="BB11" t="n">
-        <v>6.412271408295922e-11</v>
+        <v>0.001068694517016411</v>
       </c>
       <c r="BC11" t="n">
-        <v>2.378721178364351e-11</v>
+        <v>0.002276615705341101</v>
       </c>
       <c r="BD11" t="n">
-        <v>2.336595500418426e-11</v>
+        <v>0.004885307978838682</v>
       </c>
       <c r="BE11" t="n">
-        <v>1.01033166208242e-11</v>
+        <v>0.00118972035124898</v>
       </c>
       <c r="BF11" t="n">
-        <v>3.503917989089445e-11</v>
+        <v>0.0003790336777456105</v>
       </c>
       <c r="BG11" t="n">
-        <v>1.199868676637905e-10</v>
+        <v>0.0027341996319592</v>
       </c>
       <c r="BH11" t="n">
-        <v>5.651003970319479e-12</v>
+        <v>0.001022744923830032</v>
       </c>
       <c r="BI11" t="n">
-        <v>3.977880871919304e-11</v>
+        <v>0.002825459465384483</v>
       </c>
       <c r="BJ11" t="n">
-        <v>5.861325313993859e-11</v>
+        <v>0.0002727134560700506</v>
       </c>
       <c r="BK11" t="n">
-        <v>3.705605614023888e-11</v>
+        <v>0.0003661906812340021</v>
       </c>
       <c r="BL11" t="n">
-        <v>1.695960906433758e-11</v>
+        <v>0.002868810202926397</v>
       </c>
       <c r="BM11" t="n">
-        <v>2.553005376548789e-11</v>
+        <v>0.004836972802877426</v>
       </c>
       <c r="BN11" t="n">
-        <v>3.643224263938372e-11</v>
+        <v>0.0004739687137771398</v>
       </c>
       <c r="BO11" t="n">
-        <v>3.081754643141643e-11</v>
+        <v>0.002710821339860559</v>
       </c>
       <c r="BP11" t="n">
-        <v>6.415569464568449e-11</v>
+        <v>0.001813004724681377</v>
       </c>
       <c r="BQ11" t="n">
-        <v>3.043591420559544e-11</v>
+        <v>0.002379100071266294</v>
       </c>
       <c r="BR11" t="n">
-        <v>7.148854425098605e-11</v>
+        <v>0.0006194749148562551</v>
       </c>
       <c r="BS11" t="n">
-        <v>9.274676165960116e-11</v>
+        <v>0.002033136552199721</v>
       </c>
       <c r="BT11" t="n">
-        <v>6.094690724323115e-14</v>
+        <v>0.001131688011810184</v>
       </c>
       <c r="BU11" t="n">
-        <v>2.744045962677077e-11</v>
+        <v>0.0005390043370425701</v>
       </c>
       <c r="BV11" t="n">
-        <v>2.512164434809172e-11</v>
+        <v>0.006253834813833237</v>
       </c>
       <c r="BW11" t="n">
-        <v>2.078962869911383e-11</v>
+        <v>0.002412125701084733</v>
       </c>
       <c r="BX11" t="n">
-        <v>1.251221903864064e-10</v>
+        <v>0.0003265967825427651</v>
       </c>
       <c r="BY11" t="n">
-        <v>5.538922098757837e-11</v>
+        <v>0.001348461955785751</v>
       </c>
       <c r="BZ11" t="n">
-        <v>5.730821026062038e-11</v>
+        <v>0.001556665985845029</v>
       </c>
       <c r="CA11" t="n">
-        <v>3.523256686399634e-11</v>
+        <v>0.001001632306724787</v>
       </c>
       <c r="CB11" t="n">
-        <v>5.580520854447935e-12</v>
+        <v>0.001592967193573713</v>
       </c>
       <c r="CC11" t="n">
-        <v>5.826693988408849e-11</v>
+        <v>0.0005806306144222617</v>
       </c>
       <c r="CD11" t="n">
-        <v>3.932112448146174e-12</v>
+        <v>0.0003861766308546066</v>
       </c>
       <c r="CE11" t="n">
-        <v>7.637412403893595e-12</v>
+        <v>0.001669558929279447</v>
       </c>
       <c r="CF11" t="n">
-        <v>1.247321863850903e-11</v>
+        <v>2.514634070394095e-05</v>
       </c>
       <c r="CG11" t="n">
-        <v>2.283064536034995e-11</v>
+        <v>0.0003440711589064449</v>
       </c>
       <c r="CH11" t="n">
-        <v>9.874490981831574e-12</v>
+        <v>0.001408976735547185</v>
       </c>
       <c r="CI11" t="n">
-        <v>7.710683654071904e-12</v>
+        <v>9.235512698069215e-05</v>
       </c>
       <c r="CJ11" t="n">
-        <v>1.051202527801998e-12</v>
+        <v>0.001136798178777099</v>
       </c>
       <c r="CK11" t="n">
-        <v>1.30168636286454e-11</v>
+        <v>0.001376082305796444</v>
       </c>
       <c r="CL11" t="n">
-        <v>3.737378787525836e-13</v>
+        <v>0.0003886567137669772</v>
       </c>
       <c r="CM11" t="n">
-        <v>2.279830491058732e-11</v>
+        <v>0.002658767392858863</v>
       </c>
       <c r="CN11" t="n">
-        <v>4.693217342532918e-11</v>
+        <v>0.003177395556122065</v>
       </c>
       <c r="CO11" t="n">
-        <v>1.923718302709876e-11</v>
+        <v>0.0001043538213707507</v>
       </c>
       <c r="CP11" t="n">
-        <v>1.143979216911006e-10</v>
+        <v>0.002522514900192618</v>
       </c>
       <c r="CQ11" t="n">
-        <v>9.93025323428598e-13</v>
+        <v>0.002504696603864431</v>
       </c>
       <c r="CR11" t="n">
-        <v>5.907466876786671e-11</v>
+        <v>6.750784814357758e-05</v>
       </c>
       <c r="CS11" t="n">
-        <v>7.753647723873769e-11</v>
+        <v>0.002260178793221712</v>
       </c>
       <c r="CT11" t="n">
-        <v>7.132456431024892e-11</v>
+        <v>0.0009942582109943032</v>
       </c>
       <c r="CU11" t="n">
-        <v>4.369480471888565e-11</v>
+        <v>0.001352050574496388</v>
       </c>
       <c r="CV11" t="n">
-        <v>9.22870460606795e-12</v>
+        <v>0.0001641936542000622</v>
       </c>
       <c r="CW11" t="n">
-        <v>5.007198215084552e-12</v>
+        <v>0.001153975259512663</v>
       </c>
       <c r="CX11" t="n">
-        <v>1.441556943260203e-12</v>
+        <v>0.0003730424505192786</v>
       </c>
       <c r="CY11" t="n">
-        <v>1.940569926972557e-11</v>
+        <v>0.000829514698125422</v>
       </c>
       <c r="CZ11" t="n">
-        <v>7.832783033290269e-12</v>
+        <v>0.0006769906613044441</v>
       </c>
       <c r="DA11" t="n">
-        <v>1.224047686126939e-11</v>
+        <v>0.0002046548033831641</v>
       </c>
       <c r="DB11" t="n">
-        <v>1.342994465636238e-11</v>
+        <v>0.0006709099397994578</v>
       </c>
       <c r="DC11" t="n">
-        <v>1.229924408846506e-11</v>
+        <v>0.001254281611181796</v>
       </c>
       <c r="DD11" t="n">
-        <v>7.594052990611555e-12</v>
+        <v>0.0005444150883704424</v>
       </c>
       <c r="DE11" t="n">
-        <v>3.25618837448971e-11</v>
+        <v>0.001939560519531369</v>
       </c>
       <c r="DF11" t="n">
-        <v>4.924385552107502e-11</v>
+        <v>0.000196102395420894</v>
       </c>
       <c r="DG11" t="n">
-        <v>2.108798032030013e-11</v>
+        <v>0.0008228948572650552</v>
       </c>
       <c r="DH11" t="n">
-        <v>9.63197924197523e-11</v>
+        <v>0.008175808005034924</v>
       </c>
       <c r="DI11" t="n">
-        <v>1.250685249809536e-10</v>
+        <v>0.004189323633909225</v>
       </c>
       <c r="DJ11" t="n">
-        <v>5.552456758262103e-11</v>
+        <v>0.003765162080526352</v>
       </c>
       <c r="DK11" t="n">
-        <v>1.979885352887401e-11</v>
+        <v>0.002325904089957476</v>
       </c>
       <c r="DL11" t="n">
-        <v>7.939030682857506e-11</v>
+        <v>0.0001931573497131467</v>
       </c>
       <c r="DM11" t="n">
-        <v>3.017605262889411e-11</v>
+        <v>0.004477566573768854</v>
       </c>
       <c r="DN11" t="n">
-        <v>2.715774306827345e-11</v>
+        <v>0.0007537165656685829</v>
       </c>
       <c r="DO11" t="n">
-        <v>1.713655606305764e-11</v>
+        <v>0.000928394147194922</v>
       </c>
       <c r="DP11" t="n">
-        <v>5.279336863506234e-12</v>
+        <v>0.001375603722408414</v>
       </c>
       <c r="DQ11" t="n">
-        <v>9.579641767343272e-12</v>
+        <v>0.001537991221994162</v>
       </c>
       <c r="DR11" t="n">
-        <v>9.874791262465266e-11</v>
+        <v>0.002472495194524527</v>
       </c>
       <c r="DS11" t="n">
-        <v>6.000067109823704e-11</v>
+        <v>0.0007517923368141055</v>
       </c>
       <c r="DT11" t="n">
-        <v>3.246846888571575e-11</v>
+        <v>0.001718366169370711</v>
       </c>
       <c r="DU11" t="n">
-        <v>2.340779479970134e-11</v>
+        <v>0.0004378504236228764</v>
       </c>
       <c r="DV11" t="n">
-        <v>3.937795835934343e-12</v>
+        <v>0.0020362613722682</v>
       </c>
       <c r="DW11" t="n">
-        <v>2.305166474370068e-11</v>
+        <v>0.0008687652880325913</v>
       </c>
       <c r="DX11" t="n">
-        <v>4.020937749427134e-11</v>
+        <v>0.001057877321727574</v>
       </c>
       <c r="DY11" t="n">
-        <v>1.349221689234126e-11</v>
+        <v>0.001151314820162952</v>
       </c>
       <c r="DZ11" t="n">
-        <v>1.817971120865458e-11</v>
+        <v>0.001222232356667519</v>
       </c>
       <c r="EA11" t="n">
-        <v>3.015205446432745e-11</v>
+        <v>0.0009399353293702006</v>
       </c>
       <c r="EB11" t="n">
-        <v>7.965199680382007e-12</v>
+        <v>0.000405728118494153</v>
       </c>
       <c r="EC11" t="n">
-        <v>2.734242693369637e-11</v>
+        <v>9.731290629133582e-05</v>
       </c>
       <c r="ED11" t="n">
-        <v>3.551148741384735e-12</v>
+        <v>0.0007506646797992289</v>
       </c>
       <c r="EE11" t="n">
-        <v>8.153230694751823e-13</v>
+        <v>0.002556718653067946</v>
       </c>
       <c r="EF11" t="n">
-        <v>1.618847243756161e-11</v>
+        <v>0.0001917746267281473</v>
       </c>
       <c r="EG11" t="n">
-        <v>1.809523364482146e-11</v>
+        <v>0.001809202833101153</v>
       </c>
       <c r="EH11" t="n">
-        <v>1.630673547581285e-11</v>
+        <v>0.0001402734196744859</v>
       </c>
       <c r="EI11" t="n">
-        <v>3.189407071779726e-11</v>
+        <v>0.0005127431359142065</v>
       </c>
       <c r="EJ11" t="n">
-        <v>1.618385807311551e-11</v>
+        <v>0.001481248182244599</v>
       </c>
       <c r="EK11" t="n">
-        <v>2.864065581920094e-11</v>
+        <v>0.002085964661091566</v>
       </c>
       <c r="EL11" t="n">
-        <v>3.200480852560972e-11</v>
+        <v>0.0008884700364433229</v>
       </c>
       <c r="EM11" t="n">
-        <v>1.106608381318264e-11</v>
+        <v>0.001327541074715555</v>
       </c>
       <c r="EN11" t="n">
-        <v>3.390304356698515e-11</v>
+        <v>0.0003947470686398447</v>
       </c>
       <c r="EO11" t="n">
-        <v>5.276108022700399e-11</v>
+        <v>0.00142803427297622</v>
       </c>
       <c r="EP11" t="n">
-        <v>2.527697322285416e-11</v>
+        <v>0.000360078876838088</v>
       </c>
       <c r="EQ11" t="n">
-        <v>9.466136208224896e-12</v>
+        <v>0.001363421091809869</v>
       </c>
       <c r="ER11" t="n">
-        <v>3.225431380315946e-11</v>
+        <v>0.00183169892989099</v>
       </c>
       <c r="ES11" t="n">
-        <v>1.306559287844733e-11</v>
+        <v>0.000939505232963711</v>
       </c>
       <c r="ET11" t="n">
-        <v>2.828543649302517e-11</v>
+        <v>0.001487133675254881</v>
       </c>
       <c r="EU11" t="n">
-        <v>3.660240513458923e-11</v>
+        <v>0.001592718181200325</v>
       </c>
       <c r="EV11" t="n">
-        <v>3.46590464661567e-11</v>
+        <v>0.003138331696391106</v>
       </c>
       <c r="EW11" t="n">
-        <v>1.135848012867591e-11</v>
+        <v>0.001059608650393784</v>
       </c>
       <c r="EX11" t="n">
-        <v>7.992398409761847e-12</v>
+        <v>0.0002674543065950274</v>
       </c>
       <c r="EY11" t="n">
-        <v>2.040220423160655e-12</v>
+        <v>0.0009371739579364657</v>
       </c>
       <c r="EZ11" t="n">
-        <v>3.230787165575677e-12</v>
+        <v>4.484155215322971e-05</v>
       </c>
       <c r="FA11" t="n">
-        <v>6.984118144925944e-12</v>
+        <v>9.314430644735694e-05</v>
       </c>
       <c r="FB11" t="n">
-        <v>1.169702442543885e-11</v>
+        <v>0.001115530612878501</v>
       </c>
       <c r="FC11" t="n">
-        <v>1.440157541832132e-11</v>
+        <v>0.0002243522612843663</v>
       </c>
       <c r="FD11" t="n">
-        <v>1.304862988493749e-11</v>
+        <v>0.001524106133729219</v>
       </c>
       <c r="FE11" t="n">
-        <v>2.325275041958896e-11</v>
+        <v>0.001746392692439258</v>
       </c>
       <c r="FF11" t="n">
-        <v>8.979436118272677e-12</v>
+        <v>0.001069490914233029</v>
       </c>
       <c r="FG11" t="n">
-        <v>5.032974384477917e-11</v>
+        <v>0.0007438465836457908</v>
       </c>
       <c r="FH11" t="n">
-        <v>4.698856234663928e-11</v>
+        <v>0.001170520554296672</v>
       </c>
       <c r="FI11" t="n">
-        <v>4.660920954746572e-12</v>
+        <v>0.0001017330941976979</v>
       </c>
       <c r="FJ11" t="n">
-        <v>2.299176821152216e-11</v>
+        <v>0.00301247788593173</v>
       </c>
       <c r="FK11" t="n">
-        <v>5.782655257413616e-11</v>
+        <v>0.0008105417946353555</v>
       </c>
       <c r="FL11" t="n">
-        <v>1.724565976135572e-11</v>
+        <v>0.0001336813875241205</v>
       </c>
       <c r="FM11" t="n">
-        <v>1.118055908272408e-11</v>
+        <v>0.002500085160136223</v>
       </c>
       <c r="FN11" t="n">
-        <v>7.518839717501891e-11</v>
+        <v>0.001093167695216835</v>
       </c>
       <c r="FO11" t="n">
-        <v>1.190904493075795e-11</v>
+        <v>0.0003584773803595454</v>
       </c>
       <c r="FP11" t="n">
-        <v>1.621009056151923e-11</v>
+        <v>0.002809707541018724</v>
       </c>
       <c r="FQ11" t="n">
-        <v>2.495804257707235e-11</v>
+        <v>0.0001738469873089343</v>
       </c>
       <c r="FR11" t="n">
-        <v>3.150971150667203e-11</v>
+        <v>0.00108787277713418</v>
       </c>
       <c r="FS11" t="n">
-        <v>3.097334194679391e-11</v>
+        <v>0.001118892570957541</v>
       </c>
       <c r="FT11" t="n">
-        <v>9.726885269456531e-11</v>
+        <v>0.008307590149343014</v>
       </c>
       <c r="FU11" t="n">
-        <v>5.460936911005909e-11</v>
+        <v>0.002032319782301784</v>
       </c>
       <c r="FV11" t="n">
-        <v>5.608602124396178e-12</v>
+        <v>0.001967147225514054</v>
       </c>
       <c r="FW11" t="n">
-        <v>6.695834164904824e-11</v>
+        <v>0.0007448617834597826</v>
       </c>
       <c r="FX11" t="n">
-        <v>9.909782196226846e-12</v>
+        <v>0.0016028992831707</v>
       </c>
       <c r="FY11" t="n">
-        <v>1.055836147678679e-11</v>
+        <v>0.002049610251560807</v>
       </c>
       <c r="FZ11" t="n">
-        <v>2.770247746475274e-11</v>
+        <v>0.0008642603643238544</v>
       </c>
       <c r="GA11" t="n">
-        <v>1.212133084876887e-11</v>
+        <v>0.001602728967554867</v>
       </c>
       <c r="GB11" t="n">
-        <v>9.183005744706207e-11</v>
+        <v>0.002041336847469211</v>
       </c>
       <c r="GC11" t="n">
-        <v>1.078158604062018e-10</v>
+        <v>0.0007983422838151455</v>
       </c>
       <c r="GD11" t="n">
-        <v>8.257908246100953e-12</v>
+        <v>0.002858716063201427</v>
       </c>
       <c r="GE11" t="n">
-        <v>2.845621654978814e-11</v>
+        <v>0.001057668821886182</v>
       </c>
       <c r="GF11" t="n">
-        <v>1.977676876430134e-11</v>
+        <v>0.001720804022625089</v>
       </c>
       <c r="GG11" t="n">
-        <v>8.957255076547099e-12</v>
+        <v>0.001743484288454056</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.180191110452313e-10</v>
+        <v>0.0005421275272965431</v>
       </c>
       <c r="B12" t="n">
-        <v>9.397227440643974e-10</v>
+        <v>0.007017014548182487</v>
       </c>
       <c r="C12" t="n">
-        <v>5.372721156859939e-10</v>
+        <v>0.0005178586579859257</v>
       </c>
       <c r="D12" t="n">
-        <v>1.559502749159947e-09</v>
+        <v>0.00473489286378026</v>
       </c>
       <c r="E12" t="n">
-        <v>6.135533192619391e-10</v>
+        <v>0.001429946045391262</v>
       </c>
       <c r="F12" t="n">
-        <v>5.011323578330007e-10</v>
+        <v>0.0009479939471930265</v>
       </c>
       <c r="G12" t="n">
-        <v>1.078066663717792e-10</v>
+        <v>0.0007322051096707582</v>
       </c>
       <c r="H12" t="n">
-        <v>9.385207055956357e-10</v>
+        <v>0.0008238213486038148</v>
       </c>
       <c r="I12" t="n">
-        <v>1.369900859415907e-10</v>
+        <v>0.0002371341834077612</v>
       </c>
       <c r="J12" t="n">
-        <v>1.456243320374639e-10</v>
+        <v>0.0009091034298762679</v>
       </c>
       <c r="K12" t="n">
-        <v>6.757974735371874e-10</v>
+        <v>0.004688719753175974</v>
       </c>
       <c r="L12" t="n">
-        <v>7.05677072332378e-10</v>
+        <v>0.0002199600858148187</v>
       </c>
       <c r="M12" t="n">
-        <v>1.736810251173893e-09</v>
+        <v>0.004486577585339546</v>
       </c>
       <c r="N12" t="n">
-        <v>1.088012679950623e-09</v>
+        <v>0.002431206405162811</v>
       </c>
       <c r="O12" t="n">
-        <v>1.114555045478305e-10</v>
+        <v>0.002221242757514119</v>
       </c>
       <c r="P12" t="n">
-        <v>3.300146267370963e-11</v>
+        <v>1.240347046405077e-05</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.502004655852602e-10</v>
+        <v>0.0006610424024984241</v>
       </c>
       <c r="R12" t="n">
-        <v>3.30854593721952e-10</v>
+        <v>0.0006887895870022476</v>
       </c>
       <c r="S12" t="n">
-        <v>1.387381459716508e-10</v>
+        <v>0.0001431135169696063</v>
       </c>
       <c r="T12" t="n">
-        <v>7.033344739948433e-11</v>
+        <v>0.001268927939236164</v>
       </c>
       <c r="U12" t="n">
-        <v>1.716389530503903e-11</v>
+        <v>0.0003496657882351428</v>
       </c>
       <c r="V12" t="n">
-        <v>2.662119691354548e-10</v>
+        <v>0.0006637480109930038</v>
       </c>
       <c r="W12" t="n">
-        <v>8.9473217723679e-10</v>
+        <v>0.0001534079492557794</v>
       </c>
       <c r="X12" t="n">
-        <v>1.827370199602996e-10</v>
+        <v>0.0009235427714884281</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.92763610629143e-10</v>
+        <v>0.0009220794891007245</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.666552256780363e-10</v>
+        <v>0.00036034663207829</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.579168046328405e-10</v>
+        <v>0.0004160887619946152</v>
       </c>
       <c r="AB12" t="n">
-        <v>4.424692279236808e-10</v>
+        <v>0.0005492236232385039</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.817478691636182e-11</v>
+        <v>0.001636411994695663</v>
       </c>
       <c r="AD12" t="n">
-        <v>8.797256673132026e-11</v>
+        <v>8.196363341994584e-05</v>
       </c>
       <c r="AE12" t="n">
-        <v>5.120128210300834e-10</v>
+        <v>0.0005283171194605529</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.900054387390611e-11</v>
+        <v>0.0006046659545972943</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.512650560364648e-10</v>
+        <v>0.0002894550270866603</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.835878671307967e-11</v>
+        <v>0.0007748487405478954</v>
       </c>
       <c r="AI12" t="n">
-        <v>1.279534811438054e-10</v>
+        <v>0.0003677763743326068</v>
       </c>
       <c r="AJ12" t="n">
-        <v>5.539510516960888e-11</v>
+        <v>0.0001437157916370779</v>
       </c>
       <c r="AK12" t="n">
-        <v>4.418332644195999e-10</v>
+        <v>0.0003697806969285011</v>
       </c>
       <c r="AL12" t="n">
-        <v>5.085052517950217e-11</v>
+        <v>0.0006723279948346317</v>
       </c>
       <c r="AM12" t="n">
-        <v>3.746801133241995e-11</v>
+        <v>0.0002645216882228851</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.220584827128391e-11</v>
+        <v>0.0002997212286572903</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.786004816262121e-10</v>
+        <v>0.0009507997310720384</v>
       </c>
       <c r="AP12" t="n">
-        <v>5.201720720826586e-10</v>
+        <v>0.0007434516446664929</v>
       </c>
       <c r="AQ12" t="n">
-        <v>8.124127065523012e-11</v>
+        <v>0.0003382059512659907</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.331451199293454e-10</v>
+        <v>0.0004496604087762535</v>
       </c>
       <c r="AS12" t="n">
-        <v>3.298160355935664e-11</v>
+        <v>0.000199845468159765</v>
       </c>
       <c r="AT12" t="n">
-        <v>6.637010940835353e-10</v>
+        <v>0.0006980369798839092</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.807146040761381e-10</v>
+        <v>0.00528524536639452</v>
       </c>
       <c r="AV12" t="n">
-        <v>5.487352239263998e-10</v>
+        <v>0.0001575974165461957</v>
       </c>
       <c r="AW12" t="n">
-        <v>2.560678336038791e-10</v>
+        <v>0.0002697402087505907</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.192792059041437e-10</v>
+        <v>0.000505260075442493</v>
       </c>
       <c r="AY12" t="n">
-        <v>1.053457043820316e-10</v>
+        <v>0.0003043272299692035</v>
       </c>
       <c r="AZ12" t="n">
-        <v>3.403303680538095e-11</v>
+        <v>0.0002385526895523071</v>
       </c>
       <c r="BA12" t="n">
-        <v>6.516640005393981e-10</v>
+        <v>0.0004172979097347707</v>
       </c>
       <c r="BB12" t="n">
-        <v>5.372903510991733e-11</v>
+        <v>2.414858317933977e-05</v>
       </c>
       <c r="BC12" t="n">
-        <v>3.011228072447025e-11</v>
+        <v>0.0001315209519816563</v>
       </c>
       <c r="BD12" t="n">
-        <v>8.551857832994614e-11</v>
+        <v>0.001067411270923913</v>
       </c>
       <c r="BE12" t="n">
-        <v>2.165820855992706e-10</v>
+        <v>0.001280451426282525</v>
       </c>
       <c r="BF12" t="n">
-        <v>7.768008458697295e-10</v>
+        <v>0.001087871729396284</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.822417772245899e-10</v>
+        <v>0.002422482240945101</v>
       </c>
       <c r="BH12" t="n">
-        <v>2.128726223071808e-10</v>
+        <v>0.0006248062127269804</v>
       </c>
       <c r="BI12" t="n">
-        <v>1.280039962914259e-10</v>
+        <v>0.001230250811204314</v>
       </c>
       <c r="BJ12" t="n">
-        <v>2.114249747497965e-12</v>
+        <v>0.0004865051596425474</v>
       </c>
       <c r="BK12" t="n">
-        <v>1.699391322107502e-11</v>
+        <v>0.0007104804390110075</v>
       </c>
       <c r="BL12" t="n">
-        <v>1.934470639231023e-11</v>
+        <v>0.001073413179256022</v>
       </c>
       <c r="BM12" t="n">
-        <v>4.899547989545283e-10</v>
+        <v>0.001303454977460206</v>
       </c>
       <c r="BN12" t="n">
-        <v>2.097281515123228e-10</v>
+        <v>0.0005040374817326665</v>
       </c>
       <c r="BO12" t="n">
-        <v>3.028723383202703e-10</v>
+        <v>6.12646690569818e-05</v>
       </c>
       <c r="BP12" t="n">
-        <v>4.368172767943435e-10</v>
+        <v>0.001126460265368223</v>
       </c>
       <c r="BQ12" t="n">
-        <v>4.810143949818269e-11</v>
+        <v>0.0006512963445857167</v>
       </c>
       <c r="BR12" t="n">
-        <v>1.959944984086803e-10</v>
+        <v>0.001095716375857592</v>
       </c>
       <c r="BS12" t="n">
-        <v>3.726624009381396e-10</v>
+        <v>0.0009854274103417993</v>
       </c>
       <c r="BT12" t="n">
-        <v>1.714833552934891e-10</v>
+        <v>1.710654032649472e-05</v>
       </c>
       <c r="BU12" t="n">
-        <v>6.652646766802661e-10</v>
+        <v>0.0004249564954079688</v>
       </c>
       <c r="BV12" t="n">
-        <v>1.31363933619788e-10</v>
+        <v>0.002738365903496742</v>
       </c>
       <c r="BW12" t="n">
-        <v>9.253847688128758e-11</v>
+        <v>0.0004887334653176367</v>
       </c>
       <c r="BX12" t="n">
-        <v>8.330214851248741e-10</v>
+        <v>0.0005737544852308929</v>
       </c>
       <c r="BY12" t="n">
-        <v>2.456603254152867e-10</v>
+        <v>0.0001617732923477888</v>
       </c>
       <c r="BZ12" t="n">
-        <v>5.220019416718458e-10</v>
+        <v>0.001129106269218028</v>
       </c>
       <c r="CA12" t="n">
-        <v>3.628017331003264e-11</v>
+        <v>0.0001964808034244925</v>
       </c>
       <c r="CB12" t="n">
-        <v>2.958694400589934e-10</v>
+        <v>0.0001074036190402694</v>
       </c>
       <c r="CC12" t="n">
-        <v>1.832767826392967e-10</v>
+        <v>0.000390538654755801</v>
       </c>
       <c r="CD12" t="n">
-        <v>1.796164050826832e-10</v>
+        <v>0.0003664852993097156</v>
       </c>
       <c r="CE12" t="n">
-        <v>1.415712963526161e-10</v>
+        <v>0.001244496554136276</v>
       </c>
       <c r="CF12" t="n">
-        <v>1.963444823394056e-10</v>
+        <v>0.0003520411846693605</v>
       </c>
       <c r="CG12" t="n">
-        <v>2.880290173035149e-10</v>
+        <v>0.0002755771274678409</v>
       </c>
       <c r="CH12" t="n">
-        <v>2.604605975342622e-10</v>
+        <v>0.0003376070235390216</v>
       </c>
       <c r="CI12" t="n">
-        <v>1.644275410273011e-10</v>
+        <v>0.00028204609407112</v>
       </c>
       <c r="CJ12" t="n">
-        <v>2.412454264133501e-11</v>
+        <v>0.0005182386375963688</v>
       </c>
       <c r="CK12" t="n">
-        <v>2.449997149600591e-10</v>
+        <v>1.634485670365393e-05</v>
       </c>
       <c r="CL12" t="n">
-        <v>1.335022092874283e-10</v>
+        <v>0.000266381015535444</v>
       </c>
       <c r="CM12" t="n">
-        <v>1.417070488729522e-10</v>
+        <v>0.001106774201616645</v>
       </c>
       <c r="CN12" t="n">
-        <v>6.783953954148103e-11</v>
+        <v>0.0007644533179700375</v>
       </c>
       <c r="CO12" t="n">
-        <v>2.240264085351384e-10</v>
+        <v>0.0003824476734735072</v>
       </c>
       <c r="CP12" t="n">
-        <v>4.513416584916996e-10</v>
+        <v>0.002028700895607471</v>
       </c>
       <c r="CQ12" t="n">
-        <v>7.675042545951527e-11</v>
+        <v>0.0009266281267628074</v>
       </c>
       <c r="CR12" t="n">
-        <v>5.492770682735681e-10</v>
+        <v>0.001211118884384632</v>
       </c>
       <c r="CS12" t="n">
-        <v>6.680930808578012e-11</v>
+        <v>0.0008559974376112223</v>
       </c>
       <c r="CT12" t="n">
-        <v>1.433461682687209e-10</v>
+        <v>0.0009326281142421067</v>
       </c>
       <c r="CU12" t="n">
-        <v>1.584022496503579e-11</v>
+        <v>3.279508382547647e-05</v>
       </c>
       <c r="CV12" t="n">
-        <v>1.83609141779506e-10</v>
+        <v>0.0003590763953980058</v>
       </c>
       <c r="CW12" t="n">
-        <v>2.220844202982519e-10</v>
+        <v>0.0009409430203959346</v>
       </c>
       <c r="CX12" t="n">
-        <v>1.16998549737346e-10</v>
+        <v>0.0004749826621264219</v>
       </c>
       <c r="CY12" t="n">
-        <v>2.49583853584312e-10</v>
+        <v>0.000589414790738374</v>
       </c>
       <c r="CZ12" t="n">
-        <v>2.003732457733776e-10</v>
+        <v>0.000323216081596911</v>
       </c>
       <c r="DA12" t="n">
-        <v>1.185064824049675e-10</v>
+        <v>0.0003763155546039343</v>
       </c>
       <c r="DB12" t="n">
-        <v>4.573650486117131e-11</v>
+        <v>0.0005802600062452257</v>
       </c>
       <c r="DC12" t="n">
-        <v>2.179030983429087e-10</v>
+        <v>3.992413985542953e-05</v>
       </c>
       <c r="DD12" t="n">
-        <v>1.534614796350198e-10</v>
+        <v>0.0001526525593362749</v>
       </c>
       <c r="DE12" t="n">
-        <v>5.279026105142748e-10</v>
+        <v>0.0004296752449590713</v>
       </c>
       <c r="DF12" t="n">
-        <v>5.684817616646853e-10</v>
+        <v>0.001302532735280693</v>
       </c>
       <c r="DG12" t="n">
-        <v>2.354519912373121e-10</v>
+        <v>0.00018629505939316</v>
       </c>
       <c r="DH12" t="n">
-        <v>5.827290733284585e-11</v>
+        <v>0.001958999549970031</v>
       </c>
       <c r="DI12" t="n">
-        <v>4.354513277737837e-11</v>
+        <v>6.1214086599648e-06</v>
       </c>
       <c r="DJ12" t="n">
-        <v>3.695400652148351e-10</v>
+        <v>0.000635630392935127</v>
       </c>
       <c r="DK12" t="n">
-        <v>2.719581781995828e-10</v>
+        <v>0.0006021236767992377</v>
       </c>
       <c r="DL12" t="n">
-        <v>6.753527737046738e-10</v>
+        <v>2.354377647861838e-05</v>
       </c>
       <c r="DM12" t="n">
-        <v>1.470119720403673e-10</v>
+        <v>0.0002982907462865114</v>
       </c>
       <c r="DN12" t="n">
-        <v>1.60103371532605e-11</v>
+        <v>0.0006599000771529973</v>
       </c>
       <c r="DO12" t="n">
-        <v>1.164021309896235e-11</v>
+        <v>0.0005025505088269711</v>
       </c>
       <c r="DP12" t="n">
-        <v>6.10620651264604e-11</v>
+        <v>0.0006515538552775979</v>
       </c>
       <c r="DQ12" t="n">
-        <v>3.395717040888258e-10</v>
+        <v>0.0007736815605312586</v>
       </c>
       <c r="DR12" t="n">
-        <v>1.898897011853862e-10</v>
+        <v>0.001185436267405748</v>
       </c>
       <c r="DS12" t="n">
-        <v>3.395497771840894e-10</v>
+        <v>0.0004601253313012421</v>
       </c>
       <c r="DT12" t="n">
-        <v>5.959832627411288e-11</v>
+        <v>0.0001992234756471589</v>
       </c>
       <c r="DU12" t="n">
-        <v>8.455234429272096e-11</v>
+        <v>5.089226760901511e-06</v>
       </c>
       <c r="DV12" t="n">
-        <v>2.166142265558335e-10</v>
+        <v>0.0003483306791167706</v>
       </c>
       <c r="DW12" t="n">
-        <v>4.007341680711818e-11</v>
+        <v>0.0001360043243039399</v>
       </c>
       <c r="DX12" t="n">
-        <v>1.40078282306888e-10</v>
+        <v>0.0002709910040721297</v>
       </c>
       <c r="DY12" t="n">
-        <v>1.118240916531121e-10</v>
+        <v>0.0008023789850994945</v>
       </c>
       <c r="DZ12" t="n">
-        <v>3.150450178512898e-10</v>
+        <v>0.0006986662046983838</v>
       </c>
       <c r="EA12" t="n">
-        <v>1.849692343736109e-10</v>
+        <v>0.0008207214996218681</v>
       </c>
       <c r="EB12" t="n">
-        <v>1.078213143768103e-10</v>
+        <v>0.0003691233578138053</v>
       </c>
       <c r="EC12" t="n">
-        <v>1.779608682639378e-10</v>
+        <v>0.0003847303451038897</v>
       </c>
       <c r="ED12" t="n">
-        <v>9.288624730485751e-11</v>
+        <v>0.0002671971160452813</v>
       </c>
       <c r="EE12" t="n">
-        <v>2.834059098510977e-10</v>
+        <v>3.963214112445712e-07</v>
       </c>
       <c r="EF12" t="n">
-        <v>3.147118399215998e-10</v>
+        <v>0.00012873814557679</v>
       </c>
       <c r="EG12" t="n">
-        <v>5.403382949409341e-11</v>
+        <v>0.0004551108577288687</v>
       </c>
       <c r="EH12" t="n">
-        <v>1.076853606285511e-10</v>
+        <v>0.000105961284134537</v>
       </c>
       <c r="EI12" t="n">
-        <v>4.654867880038438e-10</v>
+        <v>0.0003417417756281793</v>
       </c>
       <c r="EJ12" t="n">
-        <v>8.939734369439734e-11</v>
+        <v>0.0009863382438197732</v>
       </c>
       <c r="EK12" t="n">
-        <v>1.594503556967553e-10</v>
+        <v>0.000224227987928316</v>
       </c>
       <c r="EL12" t="n">
-        <v>5.1334780176715e-11</v>
+        <v>0.0009899276774376631</v>
       </c>
       <c r="EM12" t="n">
-        <v>2.163424300816175e-10</v>
+        <v>0.000308697548462078</v>
       </c>
       <c r="EN12" t="n">
-        <v>1.002813387884771e-10</v>
+        <v>9.619562479201704e-05</v>
       </c>
       <c r="EO12" t="n">
-        <v>4.173356799030969e-11</v>
+        <v>0.0004431426059454679</v>
       </c>
       <c r="EP12" t="n">
-        <v>7.466593315852421e-11</v>
+        <v>0.0009528594673611224</v>
       </c>
       <c r="EQ12" t="n">
-        <v>5.307243533536621e-11</v>
+        <v>0.0001360107271466404</v>
       </c>
       <c r="ER12" t="n">
-        <v>1.193328075244082e-10</v>
+        <v>0.0004779224982485175</v>
       </c>
       <c r="ES12" t="n">
-        <v>7.052656375572397e-11</v>
+        <v>6.452717934735119e-05</v>
       </c>
       <c r="ET12" t="n">
-        <v>5.76993869350062e-11</v>
+        <v>0.001265891711227596</v>
       </c>
       <c r="EU12" t="n">
-        <v>7.975403670812398e-11</v>
+        <v>0.0009361488046124578</v>
       </c>
       <c r="EV12" t="n">
-        <v>1.755254275259688e-11</v>
+        <v>0.0002836274506989866</v>
       </c>
       <c r="EW12" t="n">
-        <v>5.456397833558668e-11</v>
+        <v>0.0001329336228081957</v>
       </c>
       <c r="EX12" t="n">
-        <v>1.515281927710888e-10</v>
+        <v>0.0001925114629557356</v>
       </c>
       <c r="EY12" t="n">
-        <v>1.545758798737751e-10</v>
+        <v>0.0009682538802735507</v>
       </c>
       <c r="EZ12" t="n">
-        <v>1.368681973312746e-10</v>
+        <v>0.0001968127326108515</v>
       </c>
       <c r="FA12" t="n">
-        <v>1.92691765321662e-10</v>
+        <v>0.0005814294563606381</v>
       </c>
       <c r="FB12" t="n">
-        <v>2.415566358049404e-10</v>
+        <v>0.0001581717369845137</v>
       </c>
       <c r="FC12" t="n">
-        <v>1.161400489668729e-10</v>
+        <v>0.000540123088285327</v>
       </c>
       <c r="FD12" t="n">
-        <v>1.603554095064297e-11</v>
+        <v>0.0005887492443434894</v>
       </c>
       <c r="FE12" t="n">
-        <v>1.908947722117915e-10</v>
+        <v>2.031063195317984e-05</v>
       </c>
       <c r="FF12" t="n">
-        <v>9.197513584080497e-11</v>
+        <v>0.0002585820620879531</v>
       </c>
       <c r="FG12" t="n">
-        <v>3.041536189574146e-10</v>
+        <v>6.193304579937831e-05</v>
       </c>
       <c r="FH12" t="n">
-        <v>2.406544408195543e-10</v>
+        <v>0.0001193458811030723</v>
       </c>
       <c r="FI12" t="n">
-        <v>6.456271628429988e-11</v>
+        <v>0.0003707317519001663</v>
       </c>
       <c r="FJ12" t="n">
-        <v>2.436643248282522e-11</v>
+        <v>0.001049736747518182</v>
       </c>
       <c r="FK12" t="n">
-        <v>3.318752772596412e-10</v>
+        <v>0.0004695301759056747</v>
       </c>
       <c r="FL12" t="n">
-        <v>5.753302834143881e-10</v>
+        <v>0.000354709307430312</v>
       </c>
       <c r="FM12" t="n">
-        <v>8.315501065503383e-12</v>
+        <v>0.0004748002393171191</v>
       </c>
       <c r="FN12" t="n">
-        <v>5.161140403941999e-10</v>
+        <v>7.849414396332577e-05</v>
       </c>
       <c r="FO12" t="n">
-        <v>4.329846481354593e-10</v>
+        <v>0.0001865958474809304</v>
       </c>
       <c r="FP12" t="n">
-        <v>1.577962760457297e-10</v>
+        <v>0.0002780910290312022</v>
       </c>
       <c r="FQ12" t="n">
-        <v>1.478963063128447e-10</v>
+        <v>0.0004705400206148624</v>
       </c>
       <c r="FR12" t="n">
-        <v>2.726309178413544e-10</v>
+        <v>1.644574876991101e-05</v>
       </c>
       <c r="FS12" t="n">
-        <v>1.525896076159938e-11</v>
+        <v>0.0008809526916593313</v>
       </c>
       <c r="FT12" t="n">
-        <v>8.623426417386781e-10</v>
+        <v>0.001218650955706835</v>
       </c>
       <c r="FU12" t="n">
-        <v>3.865846809336659e-10</v>
+        <v>0.0001236658426932991</v>
       </c>
       <c r="FV12" t="n">
-        <v>1.391080028945169e-10</v>
+        <v>0.0011855848133564</v>
       </c>
       <c r="FW12" t="n">
-        <v>3.527003411551988e-10</v>
+        <v>0.0006666326662525535</v>
       </c>
       <c r="FX12" t="n">
-        <v>1.72811598364575e-10</v>
+        <v>0.0003752436314243823</v>
       </c>
       <c r="FY12" t="n">
-        <v>1.953234796125969e-10</v>
+        <v>0.0009561835322529078</v>
       </c>
       <c r="FZ12" t="n">
-        <v>6.275301944747014e-10</v>
+        <v>0.0003556841693352908</v>
       </c>
       <c r="GA12" t="n">
-        <v>9.024131442103567e-11</v>
+        <v>0.0001792156836017966</v>
       </c>
       <c r="GB12" t="n">
-        <v>9.308172288502448e-12</v>
+        <v>0.0001106140553019941</v>
       </c>
       <c r="GC12" t="n">
-        <v>3.376187662773589e-10</v>
+        <v>0.0009827400790527463</v>
       </c>
       <c r="GD12" t="n">
-        <v>2.199991300244619e-10</v>
+        <v>0.0006758280796930194</v>
       </c>
       <c r="GE12" t="n">
-        <v>1.57121954336148e-10</v>
+        <v>0.001833194866776466</v>
       </c>
       <c r="GF12" t="n">
-        <v>4.410428966483693e-10</v>
+        <v>0.0003131489502266049</v>
       </c>
       <c r="GG12" t="n">
-        <v>2.339909099813298e-10</v>
+        <v>4.504876415012404e-06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.63948038284434e-06</v>
+        <v>0.006925781257450581</v>
       </c>
       <c r="B13" t="n">
-        <v>2.696651972655673e-05</v>
+        <v>0.08098720759153366</v>
       </c>
       <c r="C13" t="n">
-        <v>2.346867631786154e-06</v>
+        <v>0.007165289949625731</v>
       </c>
       <c r="D13" t="n">
-        <v>2.283164576510899e-05</v>
+        <v>0.02462103962898254</v>
       </c>
       <c r="E13" t="n">
-        <v>1.099819746741559e-05</v>
+        <v>0.006516748573631048</v>
       </c>
       <c r="F13" t="n">
-        <v>5.639747655550309e-07</v>
+        <v>0.07074333727359772</v>
       </c>
       <c r="G13" t="n">
-        <v>4.194753273623064e-07</v>
+        <v>0.008752630092203617</v>
       </c>
       <c r="H13" t="n">
-        <v>4.887387603957905e-06</v>
+        <v>0.04407792538404465</v>
       </c>
       <c r="I13" t="n">
-        <v>1.072388897682686e-07</v>
+        <v>0.01088865753263235</v>
       </c>
       <c r="J13" t="n">
-        <v>1.173445525637362e-06</v>
+        <v>0.01837500371038914</v>
       </c>
       <c r="K13" t="n">
-        <v>2.560007123975083e-05</v>
+        <v>0.07998503744602203</v>
       </c>
       <c r="L13" t="n">
-        <v>1.089754420036115e-07</v>
+        <v>0.006755907088518143</v>
       </c>
       <c r="M13" t="n">
-        <v>2.024307650572155e-05</v>
+        <v>0.01377857476472855</v>
       </c>
       <c r="N13" t="n">
-        <v>6.816948371124454e-06</v>
+        <v>0.02755704149603844</v>
       </c>
       <c r="O13" t="n">
-        <v>1.939905814651866e-06</v>
+        <v>0.05437826365232468</v>
       </c>
       <c r="P13" t="n">
-        <v>2.301024551343289e-06</v>
+        <v>0.004169782157987356</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.769206836703233e-06</v>
+        <v>0.02301324531435966</v>
       </c>
       <c r="R13" t="n">
-        <v>3.446205028012628e-06</v>
+        <v>0.01912829279899597</v>
       </c>
       <c r="S13" t="n">
-        <v>2.004040652536787e-06</v>
+        <v>0.000387210282497108</v>
       </c>
       <c r="T13" t="n">
-        <v>2.193231694036513e-06</v>
+        <v>0.007366723846644163</v>
       </c>
       <c r="U13" t="n">
-        <v>5.349460252546123e-07</v>
+        <v>0.00213280925527215</v>
       </c>
       <c r="V13" t="n">
-        <v>3.436912038523587e-06</v>
+        <v>0.01300149224698544</v>
       </c>
       <c r="W13" t="n">
-        <v>1.157893348135985e-05</v>
+        <v>0.03231401741504669</v>
       </c>
       <c r="X13" t="n">
-        <v>1.855157591990064e-07</v>
+        <v>0.01731517165899277</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.908434908022173e-06</v>
+        <v>0.002505768090486526</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.34948786834866e-07</v>
+        <v>0.01473149564117193</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.234699197993905e-06</v>
+        <v>0.009361728094518185</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.595196749804018e-06</v>
+        <v>0.001653806306421757</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.44803004534333e-06</v>
+        <v>0.0007949341088533401</v>
       </c>
       <c r="AD13" t="n">
-        <v>4.574598051476642e-07</v>
+        <v>0.004370787646621466</v>
       </c>
       <c r="AE13" t="n">
-        <v>8.191397682821844e-06</v>
+        <v>0.007651226129382849</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.35790423630533e-07</v>
+        <v>0.01378366816788912</v>
       </c>
       <c r="AG13" t="n">
-        <v>3.870994532917393e-06</v>
+        <v>0.01309996377676725</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.566932951391209e-06</v>
+        <v>0.002682101679965854</v>
       </c>
       <c r="AI13" t="n">
-        <v>7.697555588492833e-07</v>
+        <v>0.008789367973804474</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7.987478056747932e-07</v>
+        <v>0.0004869095573667437</v>
       </c>
       <c r="AK13" t="n">
-        <v>3.191247060385649e-06</v>
+        <v>0.009764007292687893</v>
       </c>
       <c r="AL13" t="n">
-        <v>4.377188815851696e-06</v>
+        <v>0.002571789780631661</v>
       </c>
       <c r="AM13" t="n">
-        <v>2.580379714345327e-06</v>
+        <v>0.005363710224628448</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.336051127509563e-06</v>
+        <v>0.008669381961226463</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.075065238699608e-07</v>
+        <v>0.0005929324543103576</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.222083255925099e-06</v>
+        <v>0.01122918725013733</v>
       </c>
       <c r="AQ13" t="n">
-        <v>6.214739300958172e-08</v>
+        <v>0.001776703633368015</v>
       </c>
       <c r="AR13" t="n">
-        <v>9.745612032929785e-07</v>
+        <v>0.007772022858262062</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.700229970287182e-06</v>
+        <v>0.004761345218867064</v>
       </c>
       <c r="AT13" t="n">
-        <v>5.510604751179926e-06</v>
+        <v>0.007934560999274254</v>
       </c>
       <c r="AU13" t="n">
-        <v>1.694728234724607e-05</v>
+        <v>0.03562495484948158</v>
       </c>
       <c r="AV13" t="n">
-        <v>3.546027755874093e-07</v>
+        <v>0.003303254023194313</v>
       </c>
       <c r="AW13" t="n">
-        <v>3.072696927119978e-06</v>
+        <v>0.01696949452161789</v>
       </c>
       <c r="AX13" t="n">
-        <v>8.055507692006358e-07</v>
+        <v>0.01196417491883039</v>
       </c>
       <c r="AY13" t="n">
-        <v>2.31212629842048e-06</v>
+        <v>0.04054255783557892</v>
       </c>
       <c r="AZ13" t="n">
-        <v>3.535514679242624e-06</v>
+        <v>0.02226164750754833</v>
       </c>
       <c r="BA13" t="n">
-        <v>4.101693775737658e-07</v>
+        <v>0.0003435329999774694</v>
       </c>
       <c r="BB13" t="n">
-        <v>3.624199962359853e-06</v>
+        <v>0.01269564870744944</v>
       </c>
       <c r="BC13" t="n">
-        <v>1.739273102430161e-06</v>
+        <v>0.002269869204610586</v>
       </c>
       <c r="BD13" t="n">
-        <v>4.605172762239818e-06</v>
+        <v>0.03511319682002068</v>
       </c>
       <c r="BE13" t="n">
-        <v>1.661416604292754e-07</v>
+        <v>0.01912611350417137</v>
       </c>
       <c r="BF13" t="n">
-        <v>1.175136821984779e-05</v>
+        <v>0.004374044016003609</v>
       </c>
       <c r="BG13" t="n">
-        <v>2.468834281899035e-06</v>
+        <v>0.01001670584082603</v>
       </c>
       <c r="BH13" t="n">
-        <v>3.702536560012959e-06</v>
+        <v>0.01079407706856728</v>
       </c>
       <c r="BI13" t="n">
-        <v>4.36725440522423e-06</v>
+        <v>0.01091170124709606</v>
       </c>
       <c r="BJ13" t="n">
-        <v>4.476229094052542e-07</v>
+        <v>0.009998885914683342</v>
       </c>
       <c r="BK13" t="n">
-        <v>7.872877176851034e-06</v>
+        <v>0.01356085110455751</v>
       </c>
       <c r="BL13" t="n">
-        <v>1.830856149354076e-06</v>
+        <v>0.01093824580311775</v>
       </c>
       <c r="BM13" t="n">
-        <v>5.473486453411169e-06</v>
+        <v>0.01183869317173958</v>
       </c>
       <c r="BN13" t="n">
-        <v>2.31747389989323e-06</v>
+        <v>0.009609373286366463</v>
       </c>
       <c r="BO13" t="n">
-        <v>6.150083891043323e-07</v>
+        <v>0.01573286950588226</v>
       </c>
       <c r="BP13" t="n">
-        <v>2.284322363266256e-06</v>
+        <v>0.004018702544271946</v>
       </c>
       <c r="BQ13" t="n">
-        <v>3.870924501825357e-06</v>
+        <v>0.001077070599421859</v>
       </c>
       <c r="BR13" t="n">
-        <v>2.840460638253717e-06</v>
+        <v>0.001998314633965492</v>
       </c>
       <c r="BS13" t="n">
-        <v>1.868552203632134e-06</v>
+        <v>0.01051904447376728</v>
       </c>
       <c r="BT13" t="n">
-        <v>6.023378205100016e-07</v>
+        <v>0.003815381787717342</v>
       </c>
       <c r="BU13" t="n">
-        <v>4.779297341883648e-06</v>
+        <v>0.00247138156555593</v>
       </c>
       <c r="BV13" t="n">
-        <v>5.937286914559081e-06</v>
+        <v>0.02805331349372864</v>
       </c>
       <c r="BW13" t="n">
-        <v>2.528100139898015e-06</v>
+        <v>0.003421864472329617</v>
       </c>
       <c r="BX13" t="n">
-        <v>6.557423603226198e-06</v>
+        <v>0.007282382808625698</v>
       </c>
       <c r="BY13" t="n">
-        <v>1.838237153606315e-07</v>
+        <v>0.001355088781565428</v>
       </c>
       <c r="BZ13" t="n">
-        <v>4.486381612878176e-07</v>
+        <v>0.02048272080719471</v>
       </c>
       <c r="CA13" t="n">
-        <v>3.44025806953141e-06</v>
+        <v>0.007152884267270565</v>
       </c>
       <c r="CB13" t="n">
-        <v>1.171392796095461e-06</v>
+        <v>0.002510116901248693</v>
       </c>
       <c r="CC13" t="n">
-        <v>4.497835561778629e-06</v>
+        <v>0.005886434577405453</v>
       </c>
       <c r="CD13" t="n">
-        <v>2.339298816877999e-06</v>
+        <v>0.001896846573799849</v>
       </c>
       <c r="CE13" t="n">
-        <v>5.797499397885986e-06</v>
+        <v>0.01250018179416656</v>
       </c>
       <c r="CF13" t="n">
-        <v>2.050010380116873e-06</v>
+        <v>0.006901361048221588</v>
       </c>
       <c r="CG13" t="n">
-        <v>3.940136139135575e-06</v>
+        <v>0.0005996379186399281</v>
       </c>
       <c r="CH13" t="n">
-        <v>1.26760869534337e-06</v>
+        <v>0.001111578196287155</v>
       </c>
       <c r="CI13" t="n">
-        <v>1.316456291533541e-06</v>
+        <v>0.01181646436452866</v>
       </c>
       <c r="CJ13" t="n">
-        <v>2.974175004055724e-07</v>
+        <v>0.005101527087390423</v>
       </c>
       <c r="CK13" t="n">
-        <v>8.746051207708661e-07</v>
+        <v>0.007669703103601933</v>
       </c>
       <c r="CL13" t="n">
-        <v>2.742759761531488e-07</v>
+        <v>0.006560755427926779</v>
       </c>
       <c r="CM13" t="n">
-        <v>4.857618023379473e-07</v>
+        <v>0.008621521294116974</v>
       </c>
       <c r="CN13" t="n">
-        <v>9.769556754690711e-07</v>
+        <v>0.01061274204403162</v>
       </c>
       <c r="CO13" t="n">
-        <v>1.315053282269218e-06</v>
+        <v>0.001695038052275777</v>
       </c>
       <c r="CP13" t="n">
-        <v>2.407083457001136e-06</v>
+        <v>0.01806509122252464</v>
       </c>
       <c r="CQ13" t="n">
-        <v>7.251305760291871e-06</v>
+        <v>0.003506039502099156</v>
       </c>
       <c r="CR13" t="n">
-        <v>4.902467480860651e-06</v>
+        <v>0.005554220639169216</v>
       </c>
       <c r="CS13" t="n">
-        <v>7.871031471040624e-07</v>
+        <v>0.0188422966748476</v>
       </c>
       <c r="CT13" t="n">
-        <v>3.890858351951465e-06</v>
+        <v>0.01319700852036476</v>
       </c>
       <c r="CU13" t="n">
-        <v>1.158815962298831e-06</v>
+        <v>0.004448237828910351</v>
       </c>
       <c r="CV13" t="n">
-        <v>2.492382236596313e-06</v>
+        <v>0.001975310035049915</v>
       </c>
       <c r="CW13" t="n">
-        <v>5.776569196314085e-06</v>
+        <v>0.01150212623178959</v>
       </c>
       <c r="CX13" t="n">
-        <v>1.808351612453407e-06</v>
+        <v>0.006165921688079834</v>
       </c>
       <c r="CY13" t="n">
-        <v>4.420736331667285e-06</v>
+        <v>0.00177165144123137</v>
       </c>
       <c r="CZ13" t="n">
-        <v>1.315292820436298e-06</v>
+        <v>0.001516016898676753</v>
       </c>
       <c r="DA13" t="n">
-        <v>1.417874386788753e-07</v>
+        <v>0.01096990797668695</v>
       </c>
       <c r="DB13" t="n">
-        <v>2.682075148641161e-07</v>
+        <v>0.004469369072467089</v>
       </c>
       <c r="DC13" t="n">
-        <v>1.511888854111021e-06</v>
+        <v>0.009479767642915249</v>
       </c>
       <c r="DD13" t="n">
-        <v>7.337227998505114e-07</v>
+        <v>0.004215761553496122</v>
       </c>
       <c r="DE13" t="n">
-        <v>5.199771749175852e-06</v>
+        <v>0.008333214558660984</v>
       </c>
       <c r="DF13" t="n">
-        <v>6.161297733342508e-06</v>
+        <v>0.003901165444403887</v>
       </c>
       <c r="DG13" t="n">
-        <v>4.114854164072312e-06</v>
+        <v>0.0002622707397677004</v>
       </c>
       <c r="DH13" t="n">
-        <v>3.980249516644108e-07</v>
+        <v>0.03865503519773483</v>
       </c>
       <c r="DI13" t="n">
-        <v>4.367019755591173e-06</v>
+        <v>0.01446626707911491</v>
       </c>
       <c r="DJ13" t="n">
-        <v>3.778810651056119e-06</v>
+        <v>0.03210204467177391</v>
       </c>
       <c r="DK13" t="n">
-        <v>4.669008376367856e-06</v>
+        <v>8.929637260735035e-05</v>
       </c>
       <c r="DL13" t="n">
-        <v>6.892334567965008e-06</v>
+        <v>0.01232302375137806</v>
       </c>
       <c r="DM13" t="n">
-        <v>5.188010163692525e-07</v>
+        <v>0.01851769722998142</v>
       </c>
       <c r="DN13" t="n">
-        <v>1.260655949408829e-06</v>
+        <v>0.002936348784714937</v>
       </c>
       <c r="DO13" t="n">
-        <v>7.387508844658441e-07</v>
+        <v>0.002144961385056376</v>
       </c>
       <c r="DP13" t="n">
-        <v>1.39542544275173e-06</v>
+        <v>0.01314032357186079</v>
       </c>
       <c r="DQ13" t="n">
-        <v>6.345351266645594e-08</v>
+        <v>0.005968923680484295</v>
       </c>
       <c r="DR13" t="n">
-        <v>2.039152604993433e-06</v>
+        <v>0.01216916367411613</v>
       </c>
       <c r="DS13" t="n">
-        <v>1.019730916596018e-06</v>
+        <v>0.007089540362358093</v>
       </c>
       <c r="DT13" t="n">
-        <v>6.010114361743035e-08</v>
+        <v>0.003452482167631388</v>
       </c>
       <c r="DU13" t="n">
-        <v>3.242745378884138e-07</v>
+        <v>0.001265175873413682</v>
       </c>
       <c r="DV13" t="n">
-        <v>2.085774212901015e-06</v>
+        <v>0.0004762235912494361</v>
       </c>
       <c r="DW13" t="n">
-        <v>4.175695664798695e-07</v>
+        <v>0.002268764190375805</v>
       </c>
       <c r="DX13" t="n">
-        <v>2.83259305433603e-06</v>
+        <v>0.002771914703771472</v>
       </c>
       <c r="DY13" t="n">
-        <v>9.707767958389013e-07</v>
+        <v>0.00115136057138443</v>
       </c>
       <c r="DZ13" t="n">
-        <v>3.459510253378539e-06</v>
+        <v>0.007336419075727463</v>
       </c>
       <c r="EA13" t="n">
-        <v>8.127722139761318e-07</v>
+        <v>0.006070573348551989</v>
       </c>
       <c r="EB13" t="n">
-        <v>3.120358996966388e-06</v>
+        <v>0.01780388318002224</v>
       </c>
       <c r="EC13" t="n">
-        <v>1.222660330313374e-06</v>
+        <v>0.003069023136049509</v>
       </c>
       <c r="ED13" t="n">
-        <v>2.986912022606703e-06</v>
+        <v>0.007619400043040514</v>
       </c>
       <c r="EE13" t="n">
-        <v>1.386262283631368e-06</v>
+        <v>0.01840002276003361</v>
       </c>
       <c r="EF13" t="n">
-        <v>1.939768935699249e-06</v>
+        <v>0.003543095663189888</v>
       </c>
       <c r="EG13" t="n">
-        <v>7.173490303102881e-06</v>
+        <v>0.0176849253475666</v>
       </c>
       <c r="EH13" t="n">
-        <v>1.638678213566891e-06</v>
+        <v>0.005878349300473928</v>
       </c>
       <c r="EI13" t="n">
-        <v>7.41825806471752e-06</v>
+        <v>0.009106210432946682</v>
       </c>
       <c r="EJ13" t="n">
-        <v>7.789011760905851e-06</v>
+        <v>0.004282329697161913</v>
       </c>
       <c r="EK13" t="n">
-        <v>2.124392267432995e-06</v>
+        <v>0.0008838560897856951</v>
       </c>
       <c r="EL13" t="n">
-        <v>2.355524202357628e-07</v>
+        <v>0.001893039792776108</v>
       </c>
       <c r="EM13" t="n">
-        <v>7.67056690165191e-07</v>
+        <v>0.004741192795336246</v>
       </c>
       <c r="EN13" t="n">
-        <v>2.966945430671331e-06</v>
+        <v>0.00373583217151463</v>
       </c>
       <c r="EO13" t="n">
-        <v>3.383434886927716e-06</v>
+        <v>0.00262839812785387</v>
       </c>
       <c r="EP13" t="n">
-        <v>3.74763135368994e-06</v>
+        <v>0.008780489675700665</v>
       </c>
       <c r="EQ13" t="n">
-        <v>2.540541004236729e-07</v>
+        <v>0.0008498369716107845</v>
       </c>
       <c r="ER13" t="n">
-        <v>8.30965518616722e-07</v>
+        <v>0.004580208100378513</v>
       </c>
       <c r="ES13" t="n">
-        <v>1.544604742775846e-06</v>
+        <v>0.003705810755491257</v>
       </c>
       <c r="ET13" t="n">
-        <v>9.929982525136438e-08</v>
+        <v>0.01117480173707008</v>
       </c>
       <c r="EU13" t="n">
-        <v>1.135859292844543e-06</v>
+        <v>0.01186141557991505</v>
       </c>
       <c r="EV13" t="n">
-        <v>1.2300349681027e-06</v>
+        <v>0.02983933314681053</v>
       </c>
       <c r="EW13" t="n">
-        <v>1.522746856608137e-06</v>
+        <v>0.005837834905833006</v>
       </c>
       <c r="EX13" t="n">
-        <v>1.891400529530074e-06</v>
+        <v>0.001374539569951594</v>
       </c>
       <c r="EY13" t="n">
-        <v>5.085580596642103e-06</v>
+        <v>0.009092720225453377</v>
       </c>
       <c r="EZ13" t="n">
-        <v>1.573039753566263e-06</v>
+        <v>0.003112006932497025</v>
       </c>
       <c r="FA13" t="n">
-        <v>4.325262580096023e-06</v>
+        <v>0.001394810620695353</v>
       </c>
       <c r="FB13" t="n">
-        <v>2.459881613958714e-07</v>
+        <v>0.002229179255664349</v>
       </c>
       <c r="FC13" t="n">
-        <v>3.528442675815313e-07</v>
+        <v>0.009718034416437149</v>
       </c>
       <c r="FD13" t="n">
-        <v>4.359474132797914e-07</v>
+        <v>0.009092728607356548</v>
       </c>
       <c r="FE13" t="n">
-        <v>1.137378944804368e-06</v>
+        <v>0.009471409022808075</v>
       </c>
       <c r="FF13" t="n">
-        <v>7.20985951829789e-07</v>
+        <v>0.006119697820395231</v>
       </c>
       <c r="FG13" t="n">
-        <v>1.752415670353002e-07</v>
+        <v>0.008849376812577248</v>
       </c>
       <c r="FH13" t="n">
-        <v>3.144820311717922e-06</v>
+        <v>0.004373165313154459</v>
       </c>
       <c r="FI13" t="n">
-        <v>6.686139499834098e-07</v>
+        <v>0.00337172020226717</v>
       </c>
       <c r="FJ13" t="n">
-        <v>3.347879101056606e-06</v>
+        <v>0.01549582369625568</v>
       </c>
       <c r="FK13" t="n">
-        <v>1.959154133146512e-06</v>
+        <v>0.002337507205083966</v>
       </c>
       <c r="FL13" t="n">
-        <v>2.529896846681368e-06</v>
+        <v>0.005348636768758297</v>
       </c>
       <c r="FM13" t="n">
-        <v>4.400262412218581e-07</v>
+        <v>0.008649356663227081</v>
       </c>
       <c r="FN13" t="n">
-        <v>9.537683354210458e-08</v>
+        <v>0.004580747801810503</v>
       </c>
       <c r="FO13" t="n">
-        <v>4.227609679219313e-06</v>
+        <v>0.001871479791589081</v>
       </c>
       <c r="FP13" t="n">
-        <v>2.357111725359573e-06</v>
+        <v>0.005355184897780418</v>
       </c>
       <c r="FQ13" t="n">
-        <v>3.134766302537173e-06</v>
+        <v>0.015502555295825</v>
       </c>
       <c r="FR13" t="n">
-        <v>2.155010179194505e-07</v>
+        <v>0.01012058556079865</v>
       </c>
       <c r="FS13" t="n">
-        <v>6.191244210640434e-07</v>
+        <v>0.01298594195395708</v>
       </c>
       <c r="FT13" t="n">
-        <v>1.98757516045589e-06</v>
+        <v>0.02900824882090092</v>
       </c>
       <c r="FU13" t="n">
-        <v>1.85233557203901e-06</v>
+        <v>0.01693073660135269</v>
       </c>
       <c r="FV13" t="n">
-        <v>1.757257450663019e-06</v>
+        <v>0.01562159229069948</v>
       </c>
       <c r="FW13" t="n">
-        <v>2.257093001389876e-06</v>
+        <v>0.01080255769193172</v>
       </c>
       <c r="FX13" t="n">
-        <v>2.717851202760357e-06</v>
+        <v>0.01162608712911606</v>
       </c>
       <c r="FY13" t="n">
-        <v>1.927733592310688e-06</v>
+        <v>0.01233600918203592</v>
       </c>
       <c r="FZ13" t="n">
-        <v>1.244022769242292e-07</v>
+        <v>0.01243624184280634</v>
       </c>
       <c r="GA13" t="n">
-        <v>1.697390302979329e-06</v>
+        <v>0.003706611227244139</v>
       </c>
       <c r="GB13" t="n">
-        <v>4.533656465355307e-06</v>
+        <v>0.01250858791172504</v>
       </c>
       <c r="GC13" t="n">
-        <v>3.037227088498184e-06</v>
+        <v>0.007360548246651888</v>
       </c>
       <c r="GD13" t="n">
-        <v>7.288967367458099e-07</v>
+        <v>0.002999479882419109</v>
       </c>
       <c r="GE13" t="n">
-        <v>3.181690090059419e-06</v>
+        <v>0.01958036422729492</v>
       </c>
       <c r="GF13" t="n">
-        <v>3.288606194473687e-06</v>
+        <v>0.01202917657792568</v>
       </c>
       <c r="GG13" t="n">
-        <v>9.15526584321924e-07</v>
+        <v>0.001007437240332365</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.145507300126525e-10</v>
+        <v>3.804812513408251e-05</v>
       </c>
       <c r="B14" t="n">
-        <v>2.400893373000201e-10</v>
+        <v>0.00198183604516089</v>
       </c>
       <c r="C14" t="n">
-        <v>3.849932178612292e-11</v>
+        <v>0.0002014678902924061</v>
       </c>
       <c r="D14" t="n">
-        <v>4.262317165881768e-10</v>
+        <v>0.0009693618630990386</v>
       </c>
       <c r="E14" t="n">
-        <v>2.231405477060022e-10</v>
+        <v>0.0004883497022092342</v>
       </c>
       <c r="F14" t="n">
-        <v>4.33802022081764e-11</v>
+        <v>0.0002460324321873486</v>
       </c>
       <c r="G14" t="n">
-        <v>8.32234975378654e-12</v>
+        <v>0.0001635604712646455</v>
       </c>
       <c r="H14" t="n">
-        <v>1.19890430916314e-10</v>
+        <v>6.776020745746791e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>6.658944229354091e-11</v>
+        <v>0.000104063939943444</v>
       </c>
       <c r="J14" t="n">
-        <v>4.482085882995257e-11</v>
+        <v>0.0001155617646872997</v>
       </c>
       <c r="K14" t="n">
-        <v>2.127875514679189e-10</v>
+        <v>0.001458251615986228</v>
       </c>
       <c r="L14" t="n">
-        <v>4.818951834795193e-11</v>
+        <v>2.406240673735738e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547458520853809e-10</v>
+        <v>0.0008158964919857681</v>
       </c>
       <c r="N14" t="n">
-        <v>2.161038153980499e-10</v>
+        <v>0.0005593072273768485</v>
       </c>
       <c r="O14" t="n">
-        <v>1.313785330525619e-10</v>
+        <v>0.0002399586519459262</v>
       </c>
       <c r="P14" t="n">
-        <v>5.557027060731912e-12</v>
+        <v>0.0001382851478410885</v>
       </c>
       <c r="Q14" t="n">
-        <v>7.104884736097716e-11</v>
+        <v>0.0003493349358905107</v>
       </c>
       <c r="R14" t="n">
-        <v>1.581550168605617e-10</v>
+        <v>1.213783070852514e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>5.038949119073877e-11</v>
+        <v>8.244887430919334e-05</v>
       </c>
       <c r="T14" t="n">
-        <v>6.160268475885466e-12</v>
+        <v>0.0003123147180303931</v>
       </c>
       <c r="U14" t="n">
-        <v>2.030100566818849e-11</v>
+        <v>0.0001184396896860562</v>
       </c>
       <c r="V14" t="n">
-        <v>8.733070516742103e-11</v>
+        <v>0.0002486087614670396</v>
       </c>
       <c r="W14" t="n">
-        <v>2.555361755529617e-10</v>
+        <v>0.0001707628543954343</v>
       </c>
       <c r="X14" t="n">
-        <v>1.556046437534153e-11</v>
+        <v>0.000194069289136678</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.151030643690824e-11</v>
+        <v>0.0001402657508151606</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.851645805219022e-11</v>
+        <v>0.0001990044984268025</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.720912037346146e-12</v>
+        <v>0.0001063579693436623</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.380183467514229e-10</v>
+        <v>6.79612421663478e-05</v>
       </c>
       <c r="AC14" t="n">
-        <v>3.975030721248274e-11</v>
+        <v>6.713775655953214e-05</v>
       </c>
       <c r="AD14" t="n">
-        <v>4.107363407723774e-11</v>
+        <v>0.0001139083105954342</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.962773416019914e-10</v>
+        <v>2.873818448279053e-05</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.392058244873098e-11</v>
+        <v>5.347428668756038e-07</v>
       </c>
       <c r="AG14" t="n">
-        <v>4.324451560733245e-11</v>
+        <v>9.238165512215346e-05</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.288062712045956e-11</v>
+        <v>1.754697223077528e-05</v>
       </c>
       <c r="AI14" t="n">
-        <v>1.890027717665888e-11</v>
+        <v>0.0001779014419298619</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.283817382048753e-11</v>
+        <v>1.255081951967441e-05</v>
       </c>
       <c r="AK14" t="n">
-        <v>1.405732336090537e-10</v>
+        <v>0.0002435202623018995</v>
       </c>
       <c r="AL14" t="n">
-        <v>2.898300002773802e-11</v>
+        <v>9.870497160591185e-05</v>
       </c>
       <c r="AM14" t="n">
-        <v>2.378769230204636e-11</v>
+        <v>1.331756902800407e-05</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.784719925294723e-12</v>
+        <v>0.0001756673154886812</v>
       </c>
       <c r="AO14" t="n">
-        <v>6.336794977634952e-11</v>
+        <v>0.0002231289690826088</v>
       </c>
       <c r="AP14" t="n">
-        <v>5.908878941696116e-11</v>
+        <v>0.0002531261707190424</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2.187168675338302e-11</v>
+        <v>8.103081927401945e-05</v>
       </c>
       <c r="AR14" t="n">
-        <v>1.184959248778927e-11</v>
+        <v>0.0001932065497385338</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.194704661062641e-11</v>
+        <v>9.123812924372032e-05</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.481459204783931e-10</v>
+        <v>2.084821244352497e-05</v>
       </c>
       <c r="AU14" t="n">
-        <v>1.846901659385836e-10</v>
+        <v>0.00123986741527915</v>
       </c>
       <c r="AV14" t="n">
-        <v>7.886210434682184e-11</v>
+        <v>2.555492028477602e-05</v>
       </c>
       <c r="AW14" t="n">
-        <v>8.279300856006699e-11</v>
+        <v>0.0001393005804857239</v>
       </c>
       <c r="AX14" t="n">
-        <v>1.758390516526376e-10</v>
+        <v>1.061171951732831e-05</v>
       </c>
       <c r="AY14" t="n">
-        <v>5.09416744898239e-11</v>
+        <v>3.310523243271746e-05</v>
       </c>
       <c r="AZ14" t="n">
-        <v>3.184887076290721e-11</v>
+        <v>0.0001317371934419498</v>
       </c>
       <c r="BA14" t="n">
-        <v>6.187666351520349e-11</v>
+        <v>0.0002639052690938115</v>
       </c>
       <c r="BB14" t="n">
-        <v>9.565570557867886e-11</v>
+        <v>2.933886753453407e-05</v>
       </c>
       <c r="BC14" t="n">
-        <v>1.664684015634244e-11</v>
+        <v>1.261400757357478e-05</v>
       </c>
       <c r="BD14" t="n">
-        <v>5.996961954801705e-11</v>
+        <v>0.0003024258476216346</v>
       </c>
       <c r="BE14" t="n">
-        <v>3.424050279421387e-11</v>
+        <v>0.0004181313852313906</v>
       </c>
       <c r="BF14" t="n">
-        <v>2.18258203177335e-10</v>
+        <v>0.0002816747000906616</v>
       </c>
       <c r="BG14" t="n">
-        <v>6.043832101454427e-11</v>
+        <v>0.0006704672705382109</v>
       </c>
       <c r="BH14" t="n">
-        <v>1.20640844536446e-10</v>
+        <v>0.0001055701359291561</v>
       </c>
       <c r="BI14" t="n">
-        <v>8.367811998866159e-11</v>
+        <v>6.246074190130457e-05</v>
       </c>
       <c r="BJ14" t="n">
-        <v>3.320295080544433e-11</v>
+        <v>0.0002925878798123449</v>
       </c>
       <c r="BK14" t="n">
-        <v>1.012836758906843e-10</v>
+        <v>3.255752017139457e-05</v>
       </c>
       <c r="BL14" t="n">
-        <v>5.41837711851012e-12</v>
+        <v>0.0001857781899161637</v>
       </c>
       <c r="BM14" t="n">
-        <v>1.752147177347396e-10</v>
+        <v>0.0004065970424562693</v>
       </c>
       <c r="BN14" t="n">
-        <v>7.22237721018093e-12</v>
+        <v>0.0001524675171822309</v>
       </c>
       <c r="BO14" t="n">
-        <v>6.490492865385278e-11</v>
+        <v>2.586479604360647e-05</v>
       </c>
       <c r="BP14" t="n">
-        <v>8.78639522250424e-11</v>
+        <v>0.0002750490966718644</v>
       </c>
       <c r="BQ14" t="n">
-        <v>3.601710596434771e-11</v>
+        <v>0.0001964390685316175</v>
       </c>
       <c r="BR14" t="n">
-        <v>3.344211713107725e-11</v>
+        <v>3.877039125654846e-05</v>
       </c>
       <c r="BS14" t="n">
-        <v>7.489113496017552e-11</v>
+        <v>0.0001047718469635583</v>
       </c>
       <c r="BT14" t="n">
-        <v>3.138243831468657e-11</v>
+        <v>6.573504651896656e-05</v>
       </c>
       <c r="BU14" t="n">
-        <v>2.280424737932663e-10</v>
+        <v>0.0001112917379941791</v>
       </c>
       <c r="BV14" t="n">
-        <v>4.041774900875872e-11</v>
+        <v>0.0006875465624034405</v>
       </c>
       <c r="BW14" t="n">
-        <v>3.725247194052983e-11</v>
+        <v>0.0002013600169448182</v>
       </c>
       <c r="BX14" t="n">
-        <v>1.689094419887738e-10</v>
+        <v>8.358381455764174e-05</v>
       </c>
       <c r="BY14" t="n">
-        <v>1.544620265025998e-10</v>
+        <v>1.260685712622944e-05</v>
       </c>
       <c r="BZ14" t="n">
-        <v>7.480049218910878e-11</v>
+        <v>0.0002494719228707254</v>
       </c>
       <c r="CA14" t="n">
-        <v>2.034765932135141e-11</v>
+        <v>0.0001651030324865133</v>
       </c>
       <c r="CB14" t="n">
-        <v>6.417767012267817e-11</v>
+        <v>4.869322583544999e-05</v>
       </c>
       <c r="CC14" t="n">
-        <v>8.932067585565306e-11</v>
+        <v>1.129728116211481e-05</v>
       </c>
       <c r="CD14" t="n">
-        <v>6.131037344481172e-11</v>
+        <v>2.671413312782533e-05</v>
       </c>
       <c r="CE14" t="n">
-        <v>7.265426454905466e-11</v>
+        <v>0.0003323848068248481</v>
       </c>
       <c r="CF14" t="n">
-        <v>2.594996786897674e-11</v>
+        <v>0.0001072680315701291</v>
       </c>
       <c r="CG14" t="n">
-        <v>7.47326922567737e-11</v>
+        <v>0.0001325923803960904</v>
       </c>
       <c r="CH14" t="n">
-        <v>9.082167656826456e-11</v>
+        <v>8.064731810009107e-05</v>
       </c>
       <c r="CI14" t="n">
-        <v>2.277742404410699e-11</v>
+        <v>6.27771150902845e-05</v>
       </c>
       <c r="CJ14" t="n">
-        <v>2.183983896508757e-12</v>
+        <v>7.887656101956964e-05</v>
       </c>
       <c r="CK14" t="n">
-        <v>4.974045134109595e-11</v>
+        <v>5.444659473141655e-05</v>
       </c>
       <c r="CL14" t="n">
-        <v>3.398045733682409e-11</v>
+        <v>7.241642742883414e-05</v>
       </c>
       <c r="CM14" t="n">
-        <v>2.96046381853543e-11</v>
+        <v>0.0004208874306641519</v>
       </c>
       <c r="CN14" t="n">
-        <v>3.272202994675233e-11</v>
+        <v>7.951238512760028e-05</v>
       </c>
       <c r="CO14" t="n">
-        <v>2.938741611169249e-11</v>
+        <v>9.79187898337841e-05</v>
       </c>
       <c r="CP14" t="n">
-        <v>1.234910229630515e-10</v>
+        <v>0.0002193737600464374</v>
       </c>
       <c r="CQ14" t="n">
-        <v>1.603086552393052e-10</v>
+        <v>0.0002083877770928666</v>
       </c>
       <c r="CR14" t="n">
-        <v>1.407770289230115e-10</v>
+        <v>0.0004521396185737103</v>
       </c>
       <c r="CS14" t="n">
-        <v>2.187971505362984e-11</v>
+        <v>0.0002021545224124566</v>
       </c>
       <c r="CT14" t="n">
-        <v>9.022640273803617e-11</v>
+        <v>0.0001754081749822944</v>
       </c>
       <c r="CU14" t="n">
-        <v>6.862360679704693e-11</v>
+        <v>0.000185377401066944</v>
       </c>
       <c r="CV14" t="n">
-        <v>6.205312652607375e-11</v>
+        <v>1.086352222046116e-05</v>
       </c>
       <c r="CW14" t="n">
-        <v>8.071654455932276e-11</v>
+        <v>0.0003029675863217562</v>
       </c>
       <c r="CX14" t="n">
-        <v>1.453158600395188e-11</v>
+        <v>0.000141991040436551</v>
       </c>
       <c r="CY14" t="n">
-        <v>5.985549555997949e-11</v>
+        <v>0.0001964170078281313</v>
       </c>
       <c r="CZ14" t="n">
-        <v>6.96287194568157e-11</v>
+        <v>7.62797353672795e-05</v>
       </c>
       <c r="DA14" t="n">
-        <v>7.791619779928816e-12</v>
+        <v>5.125319876242429e-05</v>
       </c>
       <c r="DB14" t="n">
-        <v>1.010397668310681e-11</v>
+        <v>8.875023195287213e-05</v>
       </c>
       <c r="DC14" t="n">
-        <v>4.674247794378417e-11</v>
+        <v>0.0001029633422149345</v>
       </c>
       <c r="DD14" t="n">
-        <v>2.722868111537657e-11</v>
+        <v>4.572517354972661e-05</v>
       </c>
       <c r="DE14" t="n">
-        <v>1.891668210962649e-10</v>
+        <v>0.0001241186255356297</v>
       </c>
       <c r="DF14" t="n">
-        <v>1.845352065599215e-10</v>
+        <v>0.0005808182177133858</v>
       </c>
       <c r="DG14" t="n">
-        <v>2.537516724521183e-11</v>
+        <v>7.952710438985378e-05</v>
       </c>
       <c r="DH14" t="n">
-        <v>3.742217299929074e-11</v>
+        <v>0.0005443461122922599</v>
       </c>
       <c r="DI14" t="n">
-        <v>3.853281582699708e-11</v>
+        <v>1.591702675796114e-05</v>
       </c>
       <c r="DJ14" t="n">
-        <v>2.038833268880325e-10</v>
+        <v>6.297121581155807e-05</v>
       </c>
       <c r="DK14" t="n">
-        <v>2.830030654266125e-11</v>
+        <v>0.0001263825979549438</v>
       </c>
       <c r="DL14" t="n">
-        <v>2.015049793691048e-10</v>
+        <v>7.866400846978649e-05</v>
       </c>
       <c r="DM14" t="n">
-        <v>7.405395741066911e-11</v>
+        <v>0.000103749698610045</v>
       </c>
       <c r="DN14" t="n">
-        <v>2.816769907598715e-11</v>
+        <v>0.0002003439876716584</v>
       </c>
       <c r="DO14" t="n">
-        <v>7.7535877024415e-12</v>
+        <v>0.000141267038998194</v>
       </c>
       <c r="DP14" t="n">
-        <v>1.106144776469309e-11</v>
+        <v>3.767801536014304e-05</v>
       </c>
       <c r="DQ14" t="n">
-        <v>5.743532732749301e-11</v>
+        <v>0.0001092303864425048</v>
       </c>
       <c r="DR14" t="n">
-        <v>1.021547985091686e-10</v>
+        <v>0.0001026999379973859</v>
       </c>
       <c r="DS14" t="n">
-        <v>2.403271852358113e-11</v>
+        <v>7.979549991432577e-05</v>
       </c>
       <c r="DT14" t="n">
-        <v>2.873129165137378e-11</v>
+        <v>8.68059869389981e-05</v>
       </c>
       <c r="DU14" t="n">
-        <v>5.021389554160649e-12</v>
+        <v>0.0001089747966034338</v>
       </c>
       <c r="DV14" t="n">
-        <v>6.016354081594955e-12</v>
+        <v>5.122553920955397e-05</v>
       </c>
       <c r="DW14" t="n">
-        <v>1.345068674496464e-11</v>
+        <v>2.716815833991859e-05</v>
       </c>
       <c r="DX14" t="n">
-        <v>5.280081580294471e-11</v>
+        <v>0.0001541696692584082</v>
       </c>
       <c r="DY14" t="n">
-        <v>3.459973627051305e-11</v>
+        <v>0.0001375853316858411</v>
       </c>
       <c r="DZ14" t="n">
-        <v>4.802169772943898e-11</v>
+        <v>6.794530781917274e-05</v>
       </c>
       <c r="EA14" t="n">
-        <v>1.059186939544876e-11</v>
+        <v>0.000253767502726987</v>
       </c>
       <c r="EB14" t="n">
-        <v>9.733506362019639e-11</v>
+        <v>5.384771793615073e-05</v>
       </c>
       <c r="EC14" t="n">
-        <v>2.819683722621313e-11</v>
+        <v>0.0001417532039340585</v>
       </c>
       <c r="ED14" t="n">
-        <v>1.69896111068546e-11</v>
+        <v>5.92381002206821e-05</v>
       </c>
       <c r="EE14" t="n">
-        <v>6.723548107157029e-11</v>
+        <v>0.0001707951887510717</v>
       </c>
       <c r="EF14" t="n">
-        <v>1.189032344806051e-10</v>
+        <v>0.0002152936067432165</v>
       </c>
       <c r="EG14" t="n">
-        <v>2.927789954920712e-11</v>
+        <v>0.0002969768247567117</v>
       </c>
       <c r="EH14" t="n">
-        <v>1.02854313607792e-11</v>
+        <v>0.0001857862225733697</v>
       </c>
       <c r="EI14" t="n">
-        <v>1.054372700259876e-10</v>
+        <v>0.0001342034229310229</v>
       </c>
       <c r="EJ14" t="n">
-        <v>1.01190403278828e-10</v>
+        <v>0.0001030813145916909</v>
       </c>
       <c r="EK14" t="n">
-        <v>1.716345468527614e-11</v>
+        <v>4.479335984797217e-05</v>
       </c>
       <c r="EL14" t="n">
-        <v>1.581818009910307e-12</v>
+        <v>8.704634092282504e-05</v>
       </c>
       <c r="EM14" t="n">
-        <v>3.972490045245358e-11</v>
+        <v>4.972238093614578e-05</v>
       </c>
       <c r="EN14" t="n">
-        <v>3.082215038752167e-11</v>
+        <v>2.234325438621454e-05</v>
       </c>
       <c r="EO14" t="n">
-        <v>3.775848383957836e-11</v>
+        <v>5.080363916931674e-05</v>
       </c>
       <c r="EP14" t="n">
-        <v>7.378463812157676e-11</v>
+        <v>0.0001782457402441651</v>
       </c>
       <c r="EQ14" t="n">
-        <v>2.058805209648185e-11</v>
+        <v>0.0001297951239394024</v>
       </c>
       <c r="ER14" t="n">
-        <v>1.798255988560982e-11</v>
+        <v>0.0001343434996670112</v>
       </c>
       <c r="ES14" t="n">
-        <v>9.944063628086752e-11</v>
+        <v>9.874484385363758e-05</v>
       </c>
       <c r="ET14" t="n">
-        <v>6.296786009274413e-13</v>
+        <v>5.705261719413102e-05</v>
       </c>
       <c r="EU14" t="n">
-        <v>2.30028131958937e-11</v>
+        <v>0.000202418930712156</v>
       </c>
       <c r="EV14" t="n">
-        <v>6.13891923406662e-12</v>
+        <v>1.304166653426364e-05</v>
       </c>
       <c r="EW14" t="n">
-        <v>1.598392598833875e-11</v>
+        <v>4.998685108148493e-05</v>
       </c>
       <c r="EX14" t="n">
-        <v>5.460447718985684e-11</v>
+        <v>5.872438850929029e-05</v>
       </c>
       <c r="EY14" t="n">
-        <v>6.99172941764914e-11</v>
+        <v>0.0003104340576101094</v>
       </c>
       <c r="EZ14" t="n">
-        <v>1.899190527065997e-11</v>
+        <v>0.0001133908954216167</v>
       </c>
       <c r="FA14" t="n">
-        <v>6.066504937285444e-11</v>
+        <v>0.0001606024452485144</v>
       </c>
       <c r="FB14" t="n">
-        <v>8.648725485782549e-11</v>
+        <v>3.18317070195917e-05</v>
       </c>
       <c r="FC14" t="n">
-        <v>1.161060483867438e-11</v>
+        <v>6.93027104716748e-05</v>
       </c>
       <c r="FD14" t="n">
-        <v>3.667328593581765e-12</v>
+        <v>0.0001035949244396761</v>
       </c>
       <c r="FE14" t="n">
-        <v>3.67255982569592e-11</v>
+        <v>7.479853229597211e-05</v>
       </c>
       <c r="FF14" t="n">
-        <v>7.218574696321589e-12</v>
+        <v>9.216376201948151e-05</v>
       </c>
       <c r="FG14" t="n">
-        <v>4.79105505268862e-11</v>
+        <v>0.0001154865021817386</v>
       </c>
       <c r="FH14" t="n">
-        <v>4.745419335261403e-11</v>
+        <v>4.469434861675836e-05</v>
       </c>
       <c r="FI14" t="n">
-        <v>1.989674050517642e-11</v>
+        <v>5.667484583682381e-05</v>
       </c>
       <c r="FJ14" t="n">
-        <v>7.930114898080376e-11</v>
+        <v>0.0002081558632198721</v>
       </c>
       <c r="FK14" t="n">
-        <v>1.390176029847368e-10</v>
+        <v>0.0002223039482487366</v>
       </c>
       <c r="FL14" t="n">
-        <v>1.903690816096315e-10</v>
+        <v>0.0001805889623938128</v>
       </c>
       <c r="FM14" t="n">
-        <v>5.386260014395017e-13</v>
+        <v>5.976057218504138e-05</v>
       </c>
       <c r="FN14" t="n">
-        <v>6.7486793930982e-11</v>
+        <v>5.218218939262442e-05</v>
       </c>
       <c r="FO14" t="n">
-        <v>8.252905303596236e-11</v>
+        <v>3.618084156187251e-05</v>
       </c>
       <c r="FP14" t="n">
-        <v>1.002598143395872e-10</v>
+        <v>0.0001748322101775557</v>
       </c>
       <c r="FQ14" t="n">
-        <v>7.925111261686268e-11</v>
+        <v>1.692720616119914e-05</v>
       </c>
       <c r="FR14" t="n">
-        <v>1.083553524683367e-10</v>
+        <v>0.0004184952122159302</v>
       </c>
       <c r="FS14" t="n">
-        <v>1.214880557265374e-10</v>
+        <v>4.149080996285193e-05</v>
       </c>
       <c r="FT14" t="n">
-        <v>1.599388399498025e-10</v>
+        <v>0.0002516984823159873</v>
       </c>
       <c r="FU14" t="n">
-        <v>1.390457367300701e-11</v>
+        <v>7.578057557111606e-05</v>
       </c>
       <c r="FV14" t="n">
-        <v>3.357325485328633e-12</v>
+        <v>0.0001099748624255881</v>
       </c>
       <c r="FW14" t="n">
-        <v>9.481822271784068e-11</v>
+        <v>8.773934678174555e-05</v>
       </c>
       <c r="FX14" t="n">
-        <v>6.415117742575305e-11</v>
+        <v>0.0002296513266628608</v>
       </c>
       <c r="FY14" t="n">
-        <v>5.930773233631115e-11</v>
+        <v>0.0002346368128200993</v>
       </c>
       <c r="FZ14" t="n">
-        <v>1.446697484031034e-10</v>
+        <v>9.538250196783338e-06</v>
       </c>
       <c r="GA14" t="n">
-        <v>4.653247925867632e-11</v>
+        <v>2.43465110543184e-05</v>
       </c>
       <c r="GB14" t="n">
-        <v>5.594240348738566e-11</v>
+        <v>3.892721724696457e-05</v>
       </c>
       <c r="GC14" t="n">
-        <v>1.589812864688511e-10</v>
+        <v>0.0001142476903623901</v>
       </c>
       <c r="GD14" t="n">
-        <v>3.696876138548078e-11</v>
+        <v>0.0001815770956454799</v>
       </c>
       <c r="GE14" t="n">
-        <v>3.395955044949162e-11</v>
+        <v>0.0003141624620184302</v>
       </c>
       <c r="GF14" t="n">
-        <v>7.940322011013023e-11</v>
+        <v>0.0001035308232530951</v>
       </c>
       <c r="GG14" t="n">
-        <v>2.881018340561425e-12</v>
+        <v>0.0001808154338505119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.90883363049943e-05</v>
+        <v>0.004299047403037548</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0003150137490592897</v>
+        <v>0.1323132812976837</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002563560556154698</v>
+        <v>0.02556011267006397</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001941679744049907</v>
+        <v>0.08938220143318176</v>
       </c>
       <c r="E15" t="n">
-        <v>0.000566845468711108</v>
+        <v>0.05522022768855095</v>
       </c>
       <c r="F15" t="n">
-        <v>0.000343038875143975</v>
+        <v>0.01822698302567005</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0002558580017648637</v>
+        <v>0.03506369516253471</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0005447448347695172</v>
+        <v>0.01760620065033436</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0006665227119810879</v>
+        <v>0.003098417073488235</v>
       </c>
       <c r="J15" t="n">
-        <v>8.5932515503373e-05</v>
+        <v>0.01595834083855152</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0004202831478323787</v>
+        <v>0.09919295459985733</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0004198675160296261</v>
+        <v>0.01294318772852421</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001931014354340732</v>
+        <v>0.08744070678949356</v>
       </c>
       <c r="N15" t="n">
-        <v>0.001214569434523582</v>
+        <v>0.06548935174942017</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0002198500878876075</v>
+        <v>0.04562109708786011</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0003380206471774727</v>
+        <v>0.02802520431578159</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.001007858081720769</v>
+        <v>0.007696942426264286</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0005356224137358367</v>
+        <v>0.01159264706075191</v>
       </c>
       <c r="S15" t="n">
-        <v>6.965208012843505e-05</v>
+        <v>0.005780427251011133</v>
       </c>
       <c r="T15" t="n">
-        <v>0.00026750034885481</v>
+        <v>0.02745061367750168</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0001970486919162795</v>
+        <v>0.002099702600389719</v>
       </c>
       <c r="V15" t="n">
-        <v>1.685154711594805e-05</v>
+        <v>0.01770604774355888</v>
       </c>
       <c r="W15" t="n">
-        <v>0.001278417068533599</v>
+        <v>0.005729207303375006</v>
       </c>
       <c r="X15" t="n">
-        <v>0.000265674403635785</v>
+        <v>0.01436080131679773</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.0001684543385636061</v>
+        <v>0.01960542798042297</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.0002839069929905236</v>
+        <v>0.01352857518941164</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.0001254381495527923</v>
+        <v>0.01678444072604179</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.000129430292872712</v>
+        <v>0.001138346269726753</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.0001407817035214975</v>
+        <v>0.03004193492233753</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.0002178447466576472</v>
+        <v>0.00549034308642149</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.0004907122347503901</v>
+        <v>0.004520478658378124</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.0001357723522232845</v>
+        <v>0.0006875221151858568</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.0002911562623921782</v>
+        <v>0.01109489891678095</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.610064833192155e-05</v>
+        <v>0.01765267737209797</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.0001817728043533862</v>
+        <v>0.01586046256124973</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.0001249446504516527</v>
+        <v>0.005574439186602831</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.0003182024811394513</v>
+        <v>0.004932979587465525</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.0004932621959596872</v>
+        <v>0.02765160612761974</v>
       </c>
       <c r="AM15" t="n">
-        <v>3.145216032862663e-05</v>
+        <v>0.0005409313598647714</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.000396044400986284</v>
+        <v>0.001435813959687948</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.0001950481673702598</v>
+        <v>0.004429866559803486</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.0003115560684818774</v>
+        <v>0.01009841728955507</v>
       </c>
       <c r="AQ15" t="n">
-        <v>3.175007441313937e-05</v>
+        <v>0.01410013996064663</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.0002323982480447739</v>
+        <v>0.007372940424829721</v>
       </c>
       <c r="AS15" t="n">
-        <v>3.575836672098376e-05</v>
+        <v>0.007721633184701204</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.0001647874596528709</v>
+        <v>0.01502496562898159</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.0001451252319384366</v>
+        <v>0.09857319295406342</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.0003447889466769993</v>
+        <v>0.007240863516926765</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.0007220999104902148</v>
+        <v>0.02451174892485142</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.0001105592746171169</v>
+        <v>0.01964565366506577</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.0005216282443143427</v>
+        <v>0.002279510023072362</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.0002652922703418881</v>
+        <v>0.01491560228168964</v>
       </c>
       <c r="BA15" t="n">
-        <v>7.547860150225461e-05</v>
+        <v>0.004783716518431902</v>
       </c>
       <c r="BB15" t="n">
-        <v>8.453325426671654e-05</v>
+        <v>0.0003703725815284997</v>
       </c>
       <c r="BC15" t="n">
-        <v>7.852695489418693e-06</v>
+        <v>0.004163274541497231</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.0003091256367042661</v>
+        <v>0.01295894384384155</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.000236562656937167</v>
+        <v>0.02656522579491138</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.0009994151769205928</v>
+        <v>0.03374885767698288</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.0004410039982758462</v>
+        <v>0.04876843467354774</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.000146132311783731</v>
+        <v>0.01355266571044922</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.0001522906677564606</v>
+        <v>0.01869054511189461</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.0001167341397376731</v>
+        <v>0.008062804117798805</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.0004274510138202459</v>
+        <v>0.0137546407058835</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.0001244323211722076</v>
+        <v>0.007279945537447929</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.0004113393370062113</v>
+        <v>0.0123724490404129</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.0001008593317237683</v>
+        <v>0.01315155625343323</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.0001361440517939627</v>
+        <v>0.004072500858455896</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.000171141917235218</v>
+        <v>0.003320892341434956</v>
       </c>
       <c r="BQ15" t="n">
-        <v>9.056069393409416e-05</v>
+        <v>0.01800893619656563</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.000151867265230976</v>
+        <v>0.0001774604897946119</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.0004619474930223078</v>
+        <v>0.001931546488776803</v>
       </c>
       <c r="BT15" t="n">
-        <v>9.182438589050435e-06</v>
+        <v>0.007248458452522755</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.0004117724602110684</v>
+        <v>0.01239090319722891</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.0003180335916113108</v>
+        <v>0.0580771267414093</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.0002947853645309806</v>
+        <v>0.02853583544492722</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.0005843383260071278</v>
+        <v>0.02298210747539997</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.0003434853570070118</v>
+        <v>0.007951145060360432</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.0002831464807968587</v>
+        <v>0.008853801526129246</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.0002028475428232923</v>
+        <v>0.01068010367453098</v>
       </c>
       <c r="CB15" t="n">
-        <v>6.915063568158075e-05</v>
+        <v>0.004905581939965487</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.0004227353492751718</v>
+        <v>0.01262700650840998</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.0001926474360516295</v>
+        <v>0.001484603737480938</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.0001105552219087258</v>
+        <v>0.02260894514620304</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.0001161877298727632</v>
+        <v>0.009196868166327477</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.0004430691478773952</v>
+        <v>0.01169227156788111</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.0001893527369247749</v>
+        <v>0.002228855388239026</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.0001072067534551024</v>
+        <v>0.0121276006102562</v>
       </c>
       <c r="CJ15" t="n">
-        <v>3.166495298501104e-05</v>
+        <v>0.003102381015196443</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.00019945485109929</v>
+        <v>0.002995469840243459</v>
       </c>
       <c r="CL15" t="n">
-        <v>3.059317532461137e-05</v>
+        <v>0.00775486882776022</v>
       </c>
       <c r="CM15" t="n">
-        <v>2.830377343343571e-05</v>
+        <v>0.02246043086051941</v>
       </c>
       <c r="CN15" t="n">
-        <v>4.192362757748924e-05</v>
+        <v>0.006208015605807304</v>
       </c>
       <c r="CO15" t="n">
-        <v>6.284100527409464e-05</v>
+        <v>0.001450928626582026</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.0005052767810411751</v>
+        <v>0.00455142930150032</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.0003969689132645726</v>
+        <v>0.007044918369501829</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.0005990720237605274</v>
+        <v>0.01182283647358418</v>
       </c>
       <c r="CS15" t="n">
-        <v>7.779636507621035e-05</v>
+        <v>0.01932236365973949</v>
       </c>
       <c r="CT15" t="n">
-        <v>3.746579750441015e-05</v>
+        <v>0.0227708350867033</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.0001156353027909063</v>
+        <v>0.004341152962297201</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.0002010082098422572</v>
+        <v>0.000603546854108572</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.0002234291605418548</v>
+        <v>0.01739529520273209</v>
       </c>
       <c r="CX15" t="n">
-        <v>9.559818863635883e-05</v>
+        <v>0.01095972396433353</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.0003619885828811675</v>
+        <v>0.01412880327552557</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.0002029957249760628</v>
+        <v>0.001120814005844295</v>
       </c>
       <c r="DA15" t="n">
-        <v>2.909328941314016e-05</v>
+        <v>0.01752203702926636</v>
       </c>
       <c r="DB15" t="n">
-        <v>3.805296728387475e-05</v>
+        <v>0.002714552916586399</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.0001590869214851409</v>
+        <v>0.002807688899338245</v>
       </c>
       <c r="DD15" t="n">
-        <v>7.196409569587559e-06</v>
+        <v>0.00220589223317802</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.0005074071232229471</v>
+        <v>0.01110088266432285</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.0002255668950965628</v>
+        <v>0.01609619148075581</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.0004752486711367965</v>
+        <v>0.006301648449152708</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.0003047939098905772</v>
+        <v>0.0374898724257946</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.0003899627772625536</v>
+        <v>0.008056288585066795</v>
       </c>
       <c r="DJ15" t="n">
-        <v>2.74175799859222e-05</v>
+        <v>0.01889887452125549</v>
       </c>
       <c r="DK15" t="n">
-        <v>0.0003210048016626388</v>
+        <v>0.008573077619075775</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.0002833917096722871</v>
+        <v>0.01304233819246292</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.0001534841867396608</v>
+        <v>0.01218389254063368</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.0001186916560982354</v>
+        <v>0.006991672329604626</v>
       </c>
       <c r="DO15" t="n">
-        <v>9.679634240455925e-05</v>
+        <v>0.003296356182545424</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.0001364443742204458</v>
+        <v>0.006247449666261673</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.0001911965955514461</v>
+        <v>0.005339172203093767</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.0001615072833374143</v>
+        <v>0.01098713092505932</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.0003402693546377122</v>
+        <v>0.001949121942743659</v>
       </c>
       <c r="DT15" t="n">
-        <v>5.91752068430651e-05</v>
+        <v>0.01468205079436302</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.0001369784586131573</v>
+        <v>0.01254976540803909</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.0001946355769177899</v>
+        <v>0.01665093004703522</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.000118840645882301</v>
+        <v>0.006272933911532164</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.000375283882021904</v>
+        <v>0.00282919337041676</v>
       </c>
       <c r="DY15" t="n">
-        <v>1.665037416387349e-06</v>
+        <v>0.02279393747448921</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.0003434745012782514</v>
+        <v>0.01524778641760349</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.0001156871076091193</v>
+        <v>0.01251131575554609</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.0002057695528492332</v>
+        <v>0.008156954310834408</v>
       </c>
       <c r="EC15" t="n">
-        <v>4.757526403409429e-05</v>
+        <v>0.006816809065639973</v>
       </c>
       <c r="ED15" t="n">
-        <v>9.254863107344136e-05</v>
+        <v>0.00565279508009553</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.0003707533178385347</v>
+        <v>0.0056024887599051</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.0002190806699218228</v>
+        <v>0.005768538452684879</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.0001841406046878546</v>
+        <v>0.01861247420310974</v>
       </c>
       <c r="EH15" t="n">
-        <v>8.63042805576697e-05</v>
+        <v>0.01106088142842054</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.0003699988010339439</v>
+        <v>0.01314481347799301</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.0001091813901439309</v>
+        <v>0.009608683176338673</v>
       </c>
       <c r="EK15" t="n">
-        <v>8.898052328731865e-05</v>
+        <v>0.01967719756066799</v>
       </c>
       <c r="EL15" t="n">
-        <v>0.0001045729077304713</v>
+        <v>0.003637102432549</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.0003101262846030295</v>
+        <v>0.001099107321351767</v>
       </c>
       <c r="EN15" t="n">
-        <v>3.945323260268196e-05</v>
+        <v>0.002160445554181933</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.000436109519796446</v>
+        <v>0.001729638082906604</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.0001271144428756088</v>
+        <v>0.01022203639149666</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.000322396052069962</v>
+        <v>0.02142836339771748</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.0001253724039997905</v>
+        <v>0.003353297710418701</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.0003228305722586811</v>
+        <v>0.0009683428215794265</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.0001001313066808507</v>
+        <v>0.02028055489063263</v>
       </c>
       <c r="EU15" t="n">
-        <v>0.0001795715506887063</v>
+        <v>0.004123566672205925</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.0001163270426332019</v>
+        <v>0.01386050879955292</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.0002106088941218331</v>
+        <v>0.001124697155319154</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.0001624586584512144</v>
+        <v>0.003243147162720561</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.0001915078755700961</v>
+        <v>0.01902307383716106</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.0001215741649502888</v>
+        <v>0.007244947832077742</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.0003054277040064335</v>
+        <v>0.01773273944854736</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.0002426356950309128</v>
+        <v>0.0008832975290715694</v>
       </c>
       <c r="FC15" t="n">
-        <v>9.828215843299404e-05</v>
+        <v>0.01536236982792616</v>
       </c>
       <c r="FD15" t="n">
-        <v>3.67842148989439e-05</v>
+        <v>0.003187465481460094</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.000246424664510414</v>
+        <v>0.002472281455993652</v>
       </c>
       <c r="FF15" t="n">
-        <v>4.547779826680198e-05</v>
+        <v>0.00677150534465909</v>
       </c>
       <c r="FG15" t="n">
-        <v>6.420684803742915e-05</v>
+        <v>0.001435171463526785</v>
       </c>
       <c r="FH15" t="n">
-        <v>9.040449367603287e-05</v>
+        <v>0.01339396554976702</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.000189282771316357</v>
+        <v>0.01584929227828979</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.000285750167677179</v>
+        <v>0.008740530349314213</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.0001451705466024578</v>
+        <v>0.002062655054032803</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.0002174193796236068</v>
+        <v>0.01186948269605637</v>
       </c>
       <c r="FM15" t="n">
-        <v>8.727308886591345e-05</v>
+        <v>0.005008550360798836</v>
       </c>
       <c r="FN15" t="n">
-        <v>1.372327460558154e-05</v>
+        <v>0.0006963143241591752</v>
       </c>
       <c r="FO15" t="n">
-        <v>0.0001747692003846169</v>
+        <v>0.0006544363568536937</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.0001154980855062604</v>
+        <v>0.0003862683661282063</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.0007745393086224794</v>
+        <v>0.02673780359327793</v>
       </c>
       <c r="FR15" t="n">
-        <v>9.846909233601764e-05</v>
+        <v>0.01743373088538647</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.0002896277001127601</v>
+        <v>0.0377228818833828</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.000247764284722507</v>
+        <v>0.003837804775685072</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.0002047436428256333</v>
+        <v>0.01096740458160639</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.0001404022623319179</v>
+        <v>0.006875541061162949</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.000368361099390313</v>
+        <v>0.01224086154252291</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.0003349220496602356</v>
+        <v>0.006005024071782827</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.0001436051825294271</v>
+        <v>0.02191090025007725</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.0001016098685795441</v>
+        <v>0.004778156988322735</v>
       </c>
       <c r="GA15" t="n">
-        <v>4.371229442767799e-05</v>
+        <v>0.003295175032690167</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.0001422149653080851</v>
+        <v>0.001595960464328527</v>
       </c>
       <c r="GC15" t="n">
-        <v>0.0003481412131804973</v>
+        <v>0.001076961751095951</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.0001821314508561045</v>
+        <v>0.01042021438479424</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.0001016300157061778</v>
+        <v>0.05417794361710548</v>
       </c>
       <c r="GF15" t="n">
-        <v>6.178535841172561e-05</v>
+        <v>0.008513346314430237</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.0003010711807291955</v>
+        <v>0.01392341870814562</v>
       </c>
     </row>
     <row r="16">
